--- a/AAII_Financials/Quarterly/LVMUY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVMUY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="92">
   <si>
     <t>LVMUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>31389600</v>
+        <v>11736100</v>
       </c>
       <c r="E8" s="3">
-        <v>14621000</v>
+        <v>31664100</v>
       </c>
       <c r="F8" s="3">
-        <v>27540000</v>
+        <v>14748800</v>
       </c>
       <c r="G8" s="3">
-        <v>13766700</v>
+        <v>27780800</v>
       </c>
       <c r="H8" s="3">
-        <v>27533400</v>
+        <v>13887100</v>
       </c>
       <c r="I8" s="3">
-        <v>12494100</v>
+        <v>27774200</v>
       </c>
       <c r="J8" s="3">
+        <v>12603400</v>
+      </c>
+      <c r="K8" s="3">
         <v>23881500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12178100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>25718300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11647400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>22118900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11601900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>23959800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10726300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>10624200</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>9274800</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>9327500</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10717100</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>9355900</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>9409100</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>7828700</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>8866000</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>7720400</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>8359900</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>20765400</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>18265200</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>18205900</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20946900</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>18424900</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>18365100</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>16052800</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>16852300</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>14398500</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>15599900</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,55 +1006,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>95500</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>45000</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>58200</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>96400</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>45400</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>58700</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>80200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>150300</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>111100</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>159600</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1074,8 +1097,8 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>5</v>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>24766500</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>21785400</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>21715100</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>24983000</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>21975900</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>21905000</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>18854900</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>20593000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>18141500</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>19282200</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>6623100</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>5754600</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>5818300</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6681000</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5804900</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>5869200</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>5026600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>5125300</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>3977500</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>4677600</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,243 +1245,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-142700</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>18700</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-308500</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-144000</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>18800</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-311200</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>56000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>57200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>66200</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-248800</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>9493300</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3">
-        <v>8369000</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="3">
-        <v>6866900</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>9576300</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>8442100</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>6926900</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>6253100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>6715100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>5176900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>5954700</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>246000</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>243800</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>93300</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>248100</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>245900</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>94100</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>80200</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>102100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>87500</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>63400</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>6234400</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>5529500</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>5416400</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>6289000</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>5577900</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>5463800</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>5002500</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>5080400</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>3956100</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>4365400</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>1648100</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1571200</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1356000</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1662500</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1585000</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1367900</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>1387900</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>1154500</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>1329600</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>1430900</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>4586300</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>3958300</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>4060400</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4626400</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3992900</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>4095900</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>3614600</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>3925800</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>2626600</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>2934500</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>4285500</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>3588300</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>3678300</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4323000</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>3619600</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>3710500</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>3298400</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>3633000</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>2386500</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>2664500</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>142700</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-18700</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
-        <v>308500</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>144000</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>311200</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>-56000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>-57200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>-66200</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>248800</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>4285500</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>3588300</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>3678300</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4323000</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>3619600</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>3710500</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>3298400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>3633000</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>2386500</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>2664500</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>4285500</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>3588300</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>3678300</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4323000</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>3619600</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>3710500</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>3298400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>3633000</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>2386500</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>2664500</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,431 +2140,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>6229000</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3">
-        <v>4390900</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3">
-        <v>5061800</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6283400</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
+        <v>4429300</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
+        <v>5106000</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>4635800</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>4194000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>9479700</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>4160000</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>804800</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3">
-        <v>865200</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3">
-        <v>731300</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
+        <v>811900</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
+        <v>872800</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
+        <v>737700</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>799300</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>577800</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>572200</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>439000</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>6039000</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3">
-        <v>5375800</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3">
-        <v>5513100</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3">
+        <v>6091800</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
+        <v>5422800</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
+        <v>5561300</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>4967400</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>5413600</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>4061600</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>4816100</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>15061300</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3">
-        <v>14890000</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3">
-        <v>13708500</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
+        <v>15192900</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
+        <v>15020200</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
+        <v>13828400</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>13047500</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>12216200</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>12190400</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>12379000</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>973900</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3">
-        <v>946500</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3">
-        <v>844400</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
+        <v>982400</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
+        <v>954800</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
+        <v>851700</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
         <v>888300</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>1228600</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>1173600</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>975400</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>29108000</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="3">
-        <v>26468400</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="3">
-        <v>25859000</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
+        <v>29362500</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3">
+        <v>26699800</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="3">
+        <v>26085100</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>24338300</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>23630200</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>27477500</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>22769600</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>2974500</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3">
-        <v>2567100</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3">
-        <v>2657200</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3000500</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3">
+        <v>2589600</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2680400</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>2390300</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>2257400</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>2228300</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>2461500</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>33576800</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3">
-        <v>30734100</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3">
-        <v>16593000</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>33870400</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
+        <v>31002800</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>16738100</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>15549900</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>30370000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>27241900</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>14248900</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>36901600</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3">
-        <v>36970800</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3">
-        <v>34017100</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3">
+        <v>37224200</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
+        <v>37294000</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
+        <v>34314600</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>34095100</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>68466100</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>56139900</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>27861600</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>3403800</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3">
-        <v>3094200</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2455100</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3433600</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>3121200</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2476600</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>2396900</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>2273200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>2462800</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>2643400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>105964700</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="3">
-        <v>99834600</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3">
-        <v>81581400</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3">
+        <v>106891200</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3">
+        <v>100707400</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
+        <v>82294700</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>78770500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>78264400</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>73859500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>69984900</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +2880,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>6383800</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3">
-        <v>5669000</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3">
-        <v>5834800</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6439600</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>5718500</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
+        <v>5885800</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>5059600</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>5092700</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>4320800</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>4911200</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>10717600</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3">
-        <v>10891100</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3">
-        <v>5498800</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
+        <v>10811300</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
+        <v>10986300</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
+        <v>5546900</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>6213600</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>5487700</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>5463000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>4013300</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>7738700</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3">
-        <v>6550700</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3">
-        <v>7149100</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7806400</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
+        <v>6607900</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
+        <v>7211600</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>6037900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>6679200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>5213900</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>6112000</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>24840100</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="3">
-        <v>23110700</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="3">
-        <v>18482600</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3">
+        <v>25057200</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="3">
+        <v>23312800</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="3">
+        <v>18644200</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>17311100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>16817500</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>14997600</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>15036500</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16990500</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>17139000</v>
       </c>
       <c r="F61" s="3">
-        <v>17268200</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>17419200</v>
       </c>
       <c r="H61" s="3">
-        <v>6593500</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>6651100</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>7347800</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>7905500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>9213800</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>4615400</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>22009400</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3">
-        <v>20597400</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3">
-        <v>19220500</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>22201800</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3">
+        <v>20777500</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
+        <v>19388500</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>19544400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>19458700</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>17915900</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>17580200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>65793300</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3">
-        <v>62856100</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3">
-        <v>46123700</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
+        <v>66368500</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
+        <v>63405700</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
+        <v>46527000</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>45841500</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>45761500</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>43746400</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>39004500</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>36061600</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
-        <v>33037700</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
-        <v>31640000</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
+        <v>36376900</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
+        <v>33326600</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
+        <v>31916600</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>29060800</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>28350400</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>25598200</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>25760400</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>40171400</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" s="3">
-        <v>36978400</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="3">
-        <v>35457700</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="3">
+        <v>40522700</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="3">
+        <v>37301800</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="3">
+        <v>35767700</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
         <v>32929000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>32502900</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>30113100</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>30980400</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>4285500</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>3588300</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>3678300</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>4323000</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
+        <v>3619600</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
+        <v>3710500</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>3298400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>3633000</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>2386500</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>2664500</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>3012900</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3">
-        <v>2595700</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1357100</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3039300</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3">
+        <v>2618400</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3">
+        <v>1369000</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>1170500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>1532600</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>1133200</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1526000</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>8190000</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3">
-        <v>4599500</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3">
-        <v>5851200</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3">
+        <v>8261600</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3">
+        <v>4639700</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
+        <v>5902400</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>3470800</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>5345200</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>2542400</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>5407700</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-1913800</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-1226500</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1820500</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1930500</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-1237200</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-1836400</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1038700</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1257800</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-861700</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1928600</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-2724100</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-3720000</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-2415600</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2748000</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-3752500</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-2436700</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1360400</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-8053600</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-1603300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-1367500</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,55 +4615,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1390100</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1402200</v>
       </c>
       <c r="F96" s="3">
-        <v>-2648400</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-2671500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1104600</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-1114200</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1876500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-902100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1465300</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-826400</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-3684900</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-1513000</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-3082100</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-3717100</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-1526300</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-3109000</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1664600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>4794300</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-3366500</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>26400</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="3">
-        <v>16500</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="3">
-        <v>41700</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="3">
+        <v>26600</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="3">
+        <v>16600</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3">
+        <v>42100</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>31800</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>-30300</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>-97600</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>1807300</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-617100</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3">
-        <v>395300</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1823100</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-622500</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3">
+        <v>398700</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>477600</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>-5270000</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>5585300</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>672600</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVMUY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVMUY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="92">
   <si>
     <t>LVMUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11736100</v>
+        <v>21757100</v>
       </c>
       <c r="E8" s="3">
-        <v>31664100</v>
+        <v>12534000</v>
       </c>
       <c r="F8" s="3">
-        <v>14748800</v>
+        <v>33816700</v>
       </c>
       <c r="G8" s="3">
-        <v>27780800</v>
+        <v>15751500</v>
       </c>
       <c r="H8" s="3">
-        <v>13887100</v>
+        <v>29669500</v>
       </c>
       <c r="I8" s="3">
-        <v>27774200</v>
+        <v>14831200</v>
       </c>
       <c r="J8" s="3">
+        <v>29662400</v>
+      </c>
+      <c r="K8" s="3">
         <v>12603400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>23881500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12178100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>25718300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11647400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>22118900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11601900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>23959800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10726300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>10717100</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>9355900</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>9409100</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>8282700</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>11445700</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>9992000</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10048700</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>7828700</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>8866000</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>7720400</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>8359900</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20946900</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>18424900</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>18365100</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="3">
+        <v>13474400</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>22371000</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>19677500</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>19613700</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>16052800</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>16852300</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>14398500</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>15599900</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,58 +1026,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>96400</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>45400</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>58700</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="D14" s="3">
+        <v>134900</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>102900</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>48500</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>62700</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>80200</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>150300</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>111100</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>159600</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1100,8 +1123,8 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>5</v>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>24983000</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>21975900</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>21905000</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>19962600</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>26681500</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>23469900</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>23394200</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>18854900</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>20593000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>18141500</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>19282200</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>6681000</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>5804900</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>5869200</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>1794500</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>7135300</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6199600</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6268200</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>5026600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>5125300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>3977500</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>4677600</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,258 +1279,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-144000</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>18800</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-311200</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>-291000</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-153800</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>20100</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-332400</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>56000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>57200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>66200</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>-248800</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>9576300</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>8442100</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
-        <v>6926900</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="D21" s="3">
+        <v>4969400</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>10227400</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>9016100</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>7397900</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>6253100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>6715100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>5176900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>5954700</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>248100</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>245900</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>94100</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="D22" s="3">
+        <v>255500</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>265000</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>262600</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>100500</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>80200</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>102100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>87500</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>63400</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>6289000</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>5577900</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>5463800</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>1248000</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>6716500</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>5957100</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>5835200</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>5002500</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>5080400</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>3956100</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>4365400</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1662500</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1585000</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1367900</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>604500</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1775500</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1692700</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1460900</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>1387900</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>1154500</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>1329600</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>1430900</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>4626400</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>3992900</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>4095900</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>643500</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>4941000</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>4264400</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>4374400</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>3614600</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>3925800</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>2626600</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>2934500</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>4323000</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>3619600</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>3710500</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>617500</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4616900</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3865700</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>3962700</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>3298400</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>3633000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>2386500</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>2664500</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>144000</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-18800</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>311200</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>291000</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>153800</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>332400</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>-56000</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>-57200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>-66200</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>248800</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>4323000</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>3619600</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>3710500</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>617500</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4616900</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>3865700</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
+        <v>3962700</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>3298400</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>3633000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>2386500</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>2664500</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>4323000</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>3619600</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>3710500</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>617500</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>4616900</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>3865700</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3962700</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>3298400</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>3633000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>2386500</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>2664500</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,458 +2227,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="3">
-        <v>6283400</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3">
-        <v>4429300</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
-        <v>5106000</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="D41" s="3">
+        <v>17064500</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
+        <v>6710600</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
+        <v>4730400</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
+        <v>5453200</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>4635800</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>4194000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>9479700</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>4160000</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3">
-        <v>811900</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3">
-        <v>872800</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
-        <v>737700</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="D42" s="3">
+        <v>1127300</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
+        <v>867100</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>932100</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
+        <v>787800</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>799300</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>577800</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>572200</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>439000</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
-        <v>6091800</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
-        <v>5422800</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
-        <v>5561300</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>5735900</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3">
+        <v>6506000</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3">
+        <v>5791500</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="3">
+        <v>5939300</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>4967400</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>5413600</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>4061600</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>4816100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3">
-        <v>15192900</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3">
-        <v>15020200</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3">
-        <v>13828400</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>16652900</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
+        <v>16225800</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3">
+        <v>16041300</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3">
+        <v>14768500</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>13047500</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>12216200</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>12190400</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>12379000</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="3">
-        <v>982400</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
-        <v>954800</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
-        <v>851700</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="D45" s="3">
+        <v>2099600</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1049200</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1019700</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="3">
+        <v>909700</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
         <v>888300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
         <v>1228600</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>1173600</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>975400</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="3">
-        <v>29362500</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3">
-        <v>26699800</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="3">
-        <v>26085100</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="D46" s="3">
+        <v>42680200</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>31358700</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="3">
+        <v>28515000</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3">
+        <v>27858500</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>24338300</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>23630200</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>27477500</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>22769600</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3">
-        <v>3000500</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3">
-        <v>2589600</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3">
-        <v>2680400</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>3059000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
+        <v>3204500</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3">
+        <v>2765600</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2862600</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>2390300</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>2257400</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>2228300</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>2461500</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3">
-        <v>33870400</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
-        <v>31002800</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
-        <v>16738100</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>37184500</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
+        <v>36173100</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
+        <v>33110600</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
+        <v>17876000</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>15549900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>30370000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>27241900</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>14248900</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3">
-        <v>37224200</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3">
-        <v>37294000</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3">
-        <v>34314600</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>36692400</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
+        <v>39754900</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
+        <v>39829400</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
+        <v>36647400</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>34095100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>68466100</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>56139900</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>27861600</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
-        <v>3433600</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3">
-        <v>3121200</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2476600</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>2983300</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
+        <v>3667000</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
+        <v>3333400</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2645000</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>2396900</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>2273200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>2462800</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>2643400</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="3">
-        <v>106891200</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3">
-        <v>100707400</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
-        <v>82294700</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="D54" s="3">
+        <v>122599300</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3">
+        <v>114158100</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
+        <v>107554000</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3">
+        <v>87889500</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>78770500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>78264400</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>73859500</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>69984900</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,308 +3011,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3">
-        <v>6439600</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3">
-        <v>5718500</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3">
-        <v>5885800</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>4968200</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
+        <v>6877400</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
+        <v>6107300</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
+        <v>6285900</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>5059600</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>5092700</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>4320800</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>4911200</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3">
-        <v>10811300</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3">
-        <v>10986300</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3">
-        <v>5546900</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>13002400</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>11546300</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3">
+        <v>11733200</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
+        <v>5924000</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>6213600</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>5487700</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>5463000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>4013300</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3">
-        <v>7806400</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3">
-        <v>6607900</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
-        <v>7211600</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>9482100</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
+        <v>8337100</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
+        <v>7057200</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
+        <v>7701900</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>6037900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>6679200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>5213900</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>6112000</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="3">
-        <v>25057200</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3">
-        <v>23312800</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" s="3">
-        <v>18644200</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="D60" s="3">
+        <v>27452700</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="3">
+        <v>26760700</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="3">
+        <v>24897700</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="3">
+        <v>19911800</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>17311100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>16817500</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>14997600</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>15036500</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>30756600</v>
       </c>
       <c r="E61" s="3">
-        <v>17139000</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>18304200</v>
       </c>
       <c r="G61" s="3">
-        <v>17419200</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>18603500</v>
       </c>
       <c r="I61" s="3">
-        <v>6651100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>7103300</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>7347800</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>7905500</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>9213800</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>4615400</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3">
-        <v>22201800</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3">
-        <v>20777500</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3">
-        <v>19388500</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>19993400</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
+        <v>23711200</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
+        <v>22190000</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
+        <v>20706700</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>19544400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>19458700</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>17915900</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>17580200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3">
-        <v>66368500</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3">
-        <v>63405700</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3">
-        <v>46527000</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="D66" s="3">
+        <v>80238500</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
+        <v>70880600</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
+        <v>67716300</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
+        <v>49690100</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>45841500</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>45761500</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>43746400</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>39004500</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
-        <v>36376900</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
-        <v>33326600</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
-        <v>31916600</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>38113000</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
+        <v>38850000</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
+        <v>35592300</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
+        <v>34086400</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>29060800</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>28350400</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>25598200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>25760400</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="3">
-        <v>40522700</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="3">
-        <v>37301800</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I76" s="3">
-        <v>35767700</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="D76" s="3">
+        <v>42360800</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="3">
+        <v>43277600</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="3">
+        <v>39837700</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="3">
+        <v>38199400</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3">
         <v>32929000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>32502900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>30113100</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>30980400</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
-        <v>4323000</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>3619600</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>3710500</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>617500</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
+        <v>4616900</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>3865700</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
+        <v>3962700</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>3298400</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>3633000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>2386500</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>2664500</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3">
-        <v>3039300</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3">
-        <v>2618400</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1369000</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>3465900</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3">
+        <v>3245900</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
+        <v>2796400</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1462100</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>1170500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>1532600</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>1133200</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>1526000</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3">
-        <v>8261600</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
-        <v>4639700</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3">
-        <v>5902400</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>1005500</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3">
+        <v>8823300</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
+        <v>4955200</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
+        <v>6303700</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>3470800</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>5345200</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>2542400</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>5407700</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-1930500</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-1237200</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-1836400</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>-1212500</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-2061800</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-1321300</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1961200</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1038700</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1257800</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-861700</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-1928600</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-2748000</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-3752500</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-2436700</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>-1763700</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-2934800</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-4007700</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2602400</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-1360400</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-8053600</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-1603300</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-1367500</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,58 +4849,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-54400</v>
       </c>
       <c r="E96" s="3">
-        <v>-1402200</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-1497600</v>
       </c>
       <c r="G96" s="3">
-        <v>-2671500</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-2853200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1114200</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-1190000</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1876500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-902100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1465300</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-826400</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5059,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-3717100</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-1526300</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-3109000</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>11125200</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-3969800</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-1630000</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-3320400</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1664600</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>4794300</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-3366500</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3">
-        <v>26600</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3">
-        <v>16600</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3">
-        <v>42100</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3">
+        <v>28400</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3">
+        <v>17700</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3">
+        <v>45000</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>31800</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>-30300</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>-97600</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>-1200</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3">
-        <v>1823100</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-622500</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
-        <v>398700</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>10403600</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3">
+        <v>1947100</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-664800</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
+        <v>425800</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>477600</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>-5270000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>5585300</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>672600</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVMUY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVMUY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="92">
   <si>
     <t>LVMUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,258 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21757100</v>
+        <v>14300600</v>
       </c>
       <c r="E8" s="3">
-        <v>12534000</v>
+        <v>22001700</v>
       </c>
       <c r="F8" s="3">
-        <v>33816700</v>
+        <v>12674900</v>
       </c>
       <c r="G8" s="3">
-        <v>15751500</v>
+        <v>34197000</v>
       </c>
       <c r="H8" s="3">
-        <v>29669500</v>
+        <v>15928600</v>
       </c>
       <c r="I8" s="3">
-        <v>14831200</v>
+        <v>30003100</v>
       </c>
       <c r="J8" s="3">
+        <v>14998000</v>
+      </c>
+      <c r="K8" s="3">
         <v>29662400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12603400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>23881500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12178100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>25718300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11647400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>22118900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11601900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>23959800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10726300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>8282700</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>11445700</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>9992000</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8375800</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>11574400</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>10104300</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>10048700</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>7828700</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>8866000</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>7720400</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>8359900</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>13474400</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>22371000</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>19677500</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>13625900</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>22622500</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>19898800</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>19613700</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>16052800</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>16852300</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>14398500</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>15599900</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,61 +1046,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>134900</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>102900</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>48500</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>136400</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>104100</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>49000</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>62700</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>80200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>150300</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>111100</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>159600</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1126,8 +1149,8 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>5</v>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>19962600</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>26681500</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>23469900</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>20187100</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>26981500</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>23733800</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>23394200</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>18854900</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>20593000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>18141500</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>19282200</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>1794500</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>7135300</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>6199600</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1814600</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>7215500</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>6269300</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>6268200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>5026600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>5125300</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>3977500</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>4677600</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,273 +1313,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-291000</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-153800</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>20100</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-294300</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-155500</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>20300</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>-332400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>56000</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>57200</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>66200</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>-248800</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>4969400</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3">
-        <v>10227400</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="3">
-        <v>9016100</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5025200</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>10342300</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>9117400</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>7397900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>6253100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>6715100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>5176900</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>5954700</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>255500</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>265000</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>262600</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>258400</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>267900</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>265600</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>100500</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>80200</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>102100</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>87500</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>63400</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>1248000</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>6716500</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>5957100</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1262000</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>6792000</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>6024100</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>5835200</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>5002500</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>5080400</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>3956100</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>4365400</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>604500</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1775500</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1692700</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>611300</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1795500</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1711800</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>1460900</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>1387900</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>1154500</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>1329600</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>1430900</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>643500</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>4941000</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>4264400</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>650700</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4996500</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>4312300</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>4374400</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>3614600</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>3925800</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>2626600</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>2934500</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>617500</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>4616900</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>3865700</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>624400</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>4668800</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>3909200</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>3962700</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>3298400</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>3633000</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>2386500</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>2664500</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1983,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>291000</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
-        <v>153800</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-20100</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>294300</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>155500</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>332400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>-56000</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>-57200</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-66200</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>248800</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>617500</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>4616900</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>3865700</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>624400</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>4668800</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>3909200</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>3962700</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>3298400</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>3633000</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>2386500</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>2664500</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>617500</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>4616900</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>3865700</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>624400</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>4668800</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>3909200</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>3962700</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>3298400</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>3633000</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>2386500</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>2664500</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,485 +2314,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>17064500</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3">
-        <v>6710600</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3">
-        <v>4730400</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3">
+        <v>17256400</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
+        <v>6786000</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
+        <v>4783600</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>5453200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>4635800</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>4194000</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>9479700</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>4160000</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>1127300</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3">
-        <v>867100</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3">
-        <v>932100</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1140000</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
+        <v>876800</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
+        <v>942600</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>787800</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>799300</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>577800</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>572200</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>439000</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>5735900</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3">
-        <v>6506000</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3">
-        <v>5791500</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3">
+        <v>5800400</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
+        <v>6579100</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
+        <v>5856600</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>5939300</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>4967400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>5413600</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>4061600</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>4816100</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>16652900</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3">
-        <v>16225800</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3">
-        <v>16041300</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
+        <v>16840100</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
+        <v>16408300</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
+        <v>16221700</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>14768500</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>13047500</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>12216200</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>12190400</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>12379000</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>2099600</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1049200</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1019700</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2123300</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1061000</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1031100</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
         <v>909700</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>888300</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>1228600</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1173600</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>975400</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>42680200</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="3">
-        <v>31358700</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="3">
-        <v>28515000</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
+        <v>43160100</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3">
+        <v>31711300</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="3">
+        <v>28835600</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>27858500</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>24338300</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>23630200</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>27477500</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>22769600</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>3059000</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3">
-        <v>3204500</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3">
-        <v>2765600</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3093400</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3">
+        <v>3240500</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2796700</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>2862600</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>2390300</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>2257400</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>2228300</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>2461500</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>37184500</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3">
-        <v>36173100</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3">
-        <v>33110600</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>37602500</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
+        <v>36579800</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>33482800</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>17876000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>15549900</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>30370000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>27241900</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>14248900</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>36692400</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3">
-        <v>39754900</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3">
-        <v>39829400</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3">
+        <v>37104900</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
+        <v>40201900</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
+        <v>40277300</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>36647400</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>34095100</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>68466100</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>56139900</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>27861600</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2928,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>2983300</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3">
-        <v>3667000</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
-        <v>3333400</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3016800</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>3708200</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
+        <v>3370900</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>2645000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>2396900</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>2273200</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>2462800</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>2643400</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>122599300</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="3">
-        <v>114158100</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3">
-        <v>107554000</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3">
+        <v>123977800</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3">
+        <v>115441700</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
+        <v>108763300</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>87889500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>78770500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>78264400</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>73859500</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>69984900</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,326 +3142,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>4968200</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3">
-        <v>6877400</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3">
-        <v>6107300</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5024000</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>6954700</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
+        <v>6176000</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>6285900</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>5059600</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>5092700</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>4320800</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>4911200</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>13002400</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3">
-        <v>11546300</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3">
-        <v>11733200</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
+        <v>13148600</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
+        <v>11676100</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
+        <v>11865100</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>5924000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>6213600</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>5487700</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>5463000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>4013300</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>9482100</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3">
-        <v>8337100</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3">
-        <v>7057200</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>9588700</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
+        <v>8430800</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
+        <v>7136500</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>7701900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>6037900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>6679200</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>5213900</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>6112000</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>27452700</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="3">
-        <v>26760700</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="3">
-        <v>24897700</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3">
+        <v>27761400</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="3">
+        <v>27061600</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="3">
+        <v>25177600</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>19911800</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>17311100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>16817500</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>14997600</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>15036500</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>30756600</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>31102400</v>
       </c>
       <c r="F61" s="3">
-        <v>18304200</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>18510000</v>
       </c>
       <c r="H61" s="3">
-        <v>18603500</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>18812600</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>7103300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>7347800</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>7905500</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>9213800</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>4615400</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>19993400</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3">
-        <v>23711200</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3">
-        <v>22190000</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>20218200</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3">
+        <v>23977800</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
+        <v>22439500</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>20706700</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>19544400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>19458700</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>17915900</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>17580200</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3644,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>80238500</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3">
-        <v>70880600</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3">
-        <v>67716300</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
+        <v>81140600</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
+        <v>71677500</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
+        <v>68477700</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>49690100</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>45841500</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>45761500</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>43746400</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>39004500</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>38113000</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
-        <v>38850000</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
-        <v>35592300</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
+        <v>38541600</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
+        <v>39286800</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
+        <v>35992500</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>34086400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>29060800</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>28350400</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>25598200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>25760400</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>42360800</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" s="3">
-        <v>43277600</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="3">
-        <v>39837700</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="3">
+        <v>42837100</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="3">
+        <v>43764200</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="3">
+        <v>40285600</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
         <v>38199400</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>32929000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>32502900</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>30113100</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>30980400</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>617500</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>4616900</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>3865700</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>624400</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
+        <v>4668800</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
+        <v>3909200</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>3962700</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>3298400</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>3633000</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>2386500</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>2664500</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4423,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>3465900</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3">
-        <v>3245900</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3">
-        <v>2796400</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3504900</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3">
+        <v>3282400</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3">
+        <v>2827800</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>1462100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>1170500</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>1532600</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1133200</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>1526000</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>1005500</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3">
-        <v>8823300</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3">
-        <v>4955200</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1016800</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3">
+        <v>8922500</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
+        <v>5010900</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>6303700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>3470800</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>5345200</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>2542400</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>5407700</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4837,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-1212500</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-2061800</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1321300</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1226100</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-2085000</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-1336200</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1961200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1038700</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1257800</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-861700</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-1928600</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-1763700</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-2934800</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-4007700</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1783500</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-2967800</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-4052700</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2602400</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1360400</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-8053600</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-1603300</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-1367500</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,61 +5083,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-54400</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-55000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1497600</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-1514400</v>
       </c>
       <c r="H96" s="3">
-        <v>-2853200</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-2885200</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1190000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1876500</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-902100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1465300</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-826400</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5305,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>11125200</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-3969800</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-1630000</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3">
+        <v>11250300</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-4014400</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-1648400</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3320400</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1664600</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>4794300</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-3366500</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>36700</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="3">
-        <v>28400</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="3">
-        <v>17700</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="3">
+        <v>37100</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="3">
+        <v>28700</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3">
+        <v>17900</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>45000</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>31800</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>-30300</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-97600</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>-1200</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>10403600</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3">
-        <v>1947100</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-664800</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3">
+        <v>10520600</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3">
+        <v>1968900</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-672300</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>425800</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>477600</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>-5270000</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>5585300</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>672600</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVMUY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVMUY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="92">
   <si>
     <t>LVMUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,271 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14300600</v>
+        <v>30889900</v>
       </c>
       <c r="E8" s="3">
-        <v>22001700</v>
+        <v>14063900</v>
       </c>
       <c r="F8" s="3">
-        <v>12674900</v>
+        <v>21637500</v>
       </c>
       <c r="G8" s="3">
-        <v>34197000</v>
+        <v>12465100</v>
       </c>
       <c r="H8" s="3">
-        <v>15928600</v>
+        <v>33630900</v>
       </c>
       <c r="I8" s="3">
-        <v>30003100</v>
+        <v>15664900</v>
       </c>
       <c r="J8" s="3">
+        <v>29506500</v>
+      </c>
+      <c r="K8" s="3">
         <v>14998000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>29662400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12603400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>23881500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12178100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>25718300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11647400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>22118900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11601900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>23959800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10726300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>8375800</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>11574400</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>10104300</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>10433500</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>8237200</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>11382800</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>9937100</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>10048700</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>7828700</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>8866000</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>7720400</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>8359900</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>13625900</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>22622500</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>19898800</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="3">
+        <v>20456400</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>13400400</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>22248100</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>19569400</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>19613700</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>16052800</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>16852300</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>14398500</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>15599900</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,8 +950,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -993,8 +1007,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,64 +1066,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>136400</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>104100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>49000</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="D14" s="3">
+        <v>177600</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>147100</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>102300</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>48200</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>62700</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>80200</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>150300</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>111100</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
         <v>159600</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1152,8 +1175,8 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>5</v>
@@ -1161,8 +1184,11 @@
       <c r="T15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1206,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>20187100</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>26981500</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>23733800</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>23296200</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>19852900</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>26534900</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>23341000</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>23394200</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>18854900</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>20593000</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>18141500</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>19282200</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1814600</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>7215500</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>6269300</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>7593700</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1784600</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>7096000</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6165500</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>6268200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>5026600</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>5125300</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>3977500</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>4677600</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,288 +1347,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-294300</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-155500</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>20300</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-289400</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-152900</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>-332400</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>56000</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>57200</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>66200</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>-248800</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>5025200</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>10342300</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
-        <v>9117400</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="D21" s="3">
+        <v>11268700</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4942100</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>10171200</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>8966500</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>7397900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>6253100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>6715100</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>5176900</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>5954700</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>258400</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>267900</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>265600</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="D22" s="3">
+        <v>176500</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>254100</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>263500</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>261200</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>100500</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>80200</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>102100</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>87500</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>63400</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1262000</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>6792000</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>6024100</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>7421900</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1241100</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>6679600</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>5924400</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>5835200</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>5002500</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>5080400</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>3956100</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>4365400</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>611300</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1795500</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1711800</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>2232800</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>601100</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1765800</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1683400</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>1460900</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>1387900</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>1154500</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>1329600</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>1430900</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1699,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>650700</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>4996500</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>4312300</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>5189100</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>640000</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>4913800</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>4240900</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>4374400</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>3614600</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>3925800</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>2626600</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <v>2934500</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>624400</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>4668800</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>3909200</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>4917400</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>614100</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>4591500</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>3844500</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>3962700</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>3298400</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>3633000</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>2386500</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3">
         <v>2664500</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1876,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1874,8 +1935,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1994,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,120 +2053,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>294300</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>155500</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-20300</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>289400</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>152900</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>332400</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>-56000</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>-57200</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>-66200</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>248800</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>624400</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>4668800</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>3909200</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>4917400</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>614100</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>4591500</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
+        <v>3844500</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>3962700</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>3298400</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>3633000</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>2386500</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3">
         <v>2664500</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2230,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>624400</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>4668800</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>3909200</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>4917400</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>614100</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>4591500</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3844500</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>3962700</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>3298400</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>3633000</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>2386500</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="3">
         <v>2664500</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2378,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,512 +2401,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="3">
-        <v>17256400</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3">
-        <v>6786000</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
-        <v>4783600</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="D41" s="3">
+        <v>23484500</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
+        <v>16970700</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
+        <v>6673700</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
+        <v>4704400</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>5453200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>4635800</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>4194000</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>9479700</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>4160000</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1140000</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3">
-        <v>876800</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
-        <v>942600</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="D42" s="3">
+        <v>884700</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1121100</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>862300</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
+        <v>927000</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>787800</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>799300</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>577800</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>572200</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>439000</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
-        <v>5800400</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
-        <v>6579100</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
-        <v>5856600</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>5503200</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3">
+        <v>5704400</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3">
+        <v>6470200</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="3">
+        <v>5759700</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>5939300</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>4967400</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>5413600</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>4061600</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>4816100</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3">
-        <v>16840100</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3">
-        <v>16408300</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3">
-        <v>16221700</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>15312000</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
+        <v>16561400</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3">
+        <v>16136700</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3">
+        <v>15953200</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>14768500</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>13047500</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>12216200</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>12190400</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>12379000</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="3">
-        <v>2123300</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1061000</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1031100</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="D45" s="3">
+        <v>1839900</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2088100</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1043500</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1014100</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
         <v>909700</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
         <v>888300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>1228600</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>1173600</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
         <v>975400</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="3">
-        <v>43160100</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3">
-        <v>31711300</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="3">
-        <v>28835600</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="D46" s="3">
+        <v>47024200</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>42445700</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="3">
+        <v>31186400</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3">
+        <v>28358300</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>27858500</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>24338300</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>23630200</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>27477500</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>22769600</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3">
-        <v>3093400</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3">
-        <v>3240500</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3">
-        <v>2796700</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>2844500</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
+        <v>3042200</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3">
+        <v>3186900</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2750400</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>2862600</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>2390300</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>2257400</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>2228300</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>2461500</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3">
-        <v>37602500</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
-        <v>36579800</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
-        <v>33482800</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>35799000</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
+        <v>36980100</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
+        <v>35974300</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
+        <v>32928600</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>17876000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>15549900</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>30370000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>27241900</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>14248900</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3">
-        <v>37104900</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3">
-        <v>40201900</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3">
-        <v>40277300</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>39252900</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
+        <v>36490800</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
+        <v>39536500</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
+        <v>39610600</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>36647400</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>34095100</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>68466100</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>56139900</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>27861600</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2989,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,64 +3048,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
-        <v>3016800</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3">
-        <v>3708200</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3370900</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>2919800</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2966900</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
+        <v>3646800</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
+        <v>3315100</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>2645000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>2396900</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>2273200</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>2462800</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>2643400</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3166,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="3">
-        <v>123977800</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3">
-        <v>115441700</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
-        <v>108763300</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="D54" s="3">
+        <v>127840600</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3">
+        <v>121925600</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
+        <v>113530800</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3">
+        <v>106963000</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>87889500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>78770500</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>78264400</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>73859500</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>69984900</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3250,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,344 +3273,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3">
-        <v>5024000</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3">
-        <v>6954700</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3">
-        <v>6176000</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>5997300</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
+        <v>4940900</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
+        <v>6839600</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
+        <v>6073800</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>6285900</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>5059600</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>5092700</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>4320800</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>4911200</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3">
-        <v>13148600</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3">
-        <v>11676100</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3">
-        <v>11865100</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>15001500</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>12931000</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3">
+        <v>11482800</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
+        <v>11668700</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>5924000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>6213600</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>5487700</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>5463000</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>4013300</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3">
-        <v>9588700</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3">
-        <v>8430800</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
-        <v>7136500</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>8785400</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
+        <v>9430000</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
+        <v>8291300</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
+        <v>7018400</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>7701900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>6037900</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>6679200</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>5213900</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>6112000</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="3">
-        <v>27761400</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3">
-        <v>27061600</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" s="3">
-        <v>25177600</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="D60" s="3">
+        <v>29784100</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="3">
+        <v>27301900</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="3">
+        <v>26613700</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="3">
+        <v>24760900</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>19911800</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>17311100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>16817500</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>14997600</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>15036500</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>29092400</v>
       </c>
       <c r="E61" s="3">
-        <v>31102400</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>30587600</v>
       </c>
       <c r="G61" s="3">
-        <v>18510000</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>18203600</v>
       </c>
       <c r="I61" s="3">
-        <v>18812600</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>18501200</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>7103300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>7347800</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>7905500</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>9213800</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>4615400</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3">
-        <v>20218200</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3">
-        <v>23977800</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3">
-        <v>22439500</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>23285700</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
+        <v>19883500</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
+        <v>23580900</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
+        <v>22068100</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>20706700</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>19544400</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>19458700</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>17915900</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>17580200</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3684,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3743,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3802,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3">
-        <v>81140600</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3">
-        <v>71677500</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3">
-        <v>68477700</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="D66" s="3">
+        <v>83829100</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
+        <v>79797600</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
+        <v>70491100</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
+        <v>67344200</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>49690100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>45841500</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>45761500</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>43746400</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>39004500</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3886,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3943,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4002,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4061,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4120,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
-        <v>38541600</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
-        <v>39286800</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
-        <v>35992500</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>41601000</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
+        <v>37903600</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
+        <v>38636500</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
+        <v>35396700</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>34086400</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>29060800</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>28350400</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>25598200</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>25760400</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4238,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4297,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4356,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="3">
-        <v>42837100</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="3">
-        <v>43764200</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I76" s="3">
-        <v>40285600</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="D76" s="3">
+        <v>44011500</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="3">
+        <v>42128100</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="3">
+        <v>43039800</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="3">
+        <v>39618800</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3">
         <v>38199400</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>32929000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>32502900</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>30113100</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>30980400</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4474,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
-        <v>624400</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>4668800</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>3909200</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>4917400</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
+        <v>614100</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>4591500</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
+        <v>3844500</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>3962700</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>3298400</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>3633000</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>2386500</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81" s="3">
         <v>2664500</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,64 +4622,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3">
-        <v>3504900</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3">
-        <v>3282400</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3">
-        <v>2827800</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>3670400</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3">
+        <v>3446900</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
+        <v>3228000</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2781000</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>1462100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>1170500</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>1532600</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>1133200</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>1526000</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4738,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4797,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4856,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4915,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4974,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3">
-        <v>1016800</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
-        <v>8922500</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3">
-        <v>5010900</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>11819300</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3">
+        <v>999900</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
+        <v>8774800</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
+        <v>4927900</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>6303700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>3470800</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>5345200</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>2542400</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>5407700</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,64 +5058,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-1226100</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-2085000</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-1336200</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>-1709300</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-1205800</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-2050500</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1314000</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1961200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1038700</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1257800</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-861700</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-1928600</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5174,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,64 +5233,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-1783500</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-2967800</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-4052700</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>-1703400</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-1754000</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-2918600</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-3985600</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-2602400</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1360400</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-8053600</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-1603300</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-1367500</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,64 +5317,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-3238600</v>
       </c>
       <c r="E96" s="3">
-        <v>-55000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-54100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1514400</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-1489300</v>
       </c>
       <c r="I96" s="3">
-        <v>-2885200</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-2837500</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1190000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1876500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-902100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1465300</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-826400</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5433,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5492,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,172 +5551,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3">
-        <v>11250300</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-4014400</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-1648400</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>-2355200</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
+        <v>11064000</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-3948000</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1621100</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-3320400</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1664600</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>4794300</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>-3366500</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3">
-        <v>37100</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3">
-        <v>28700</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3">
-        <v>17900</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>-1274000</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3">
+        <v>36500</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3">
+        <v>28200</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>45000</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>31800</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>-30300</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>-97600</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3">
         <v>-1200</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3">
-        <v>10520600</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
-        <v>1968900</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-672300</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>6486700</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3">
+        <v>10346400</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
+        <v>1936400</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-661100</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>425800</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>477600</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>-5270000</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>5585300</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>672600</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="U102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVMUY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVMUY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="92">
   <si>
     <t>LVMUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,271 +665,284 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>30889900</v>
+        <v>17099600</v>
       </c>
       <c r="E8" s="3">
-        <v>14063900</v>
+        <v>32165800</v>
       </c>
       <c r="F8" s="3">
-        <v>21637500</v>
+        <v>14644800</v>
       </c>
       <c r="G8" s="3">
-        <v>12465100</v>
+        <v>22531200</v>
       </c>
       <c r="H8" s="3">
-        <v>33630900</v>
+        <v>12980000</v>
       </c>
       <c r="I8" s="3">
-        <v>15664900</v>
+        <v>35020000</v>
       </c>
       <c r="J8" s="3">
+        <v>16312000</v>
+      </c>
+      <c r="K8" s="3">
         <v>29506500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14998000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>29662400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12603400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>23881500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12178100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>25718300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11647400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>22118900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11601900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>23959800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10726300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>10433500</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>8237200</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>11382800</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10864400</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>8577400</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>11853000</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>9937100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>10048700</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>7828700</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>8866000</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>7720400</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>8359900</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>20456400</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>13400400</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>22248100</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>21301400</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>13953900</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>23167000</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>19569400</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>19613700</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>16052800</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>16852300</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>14398500</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>15599900</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -951,8 +964,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1010,8 +1024,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1069,67 +1086,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>177600</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>147100</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>102300</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>185000</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>153100</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>106600</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>48200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>62700</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>80200</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>150300</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>111100</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
         <v>159600</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1178,8 +1201,8 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>5</v>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>5</v>
@@ -1187,8 +1210,11 @@
       <c r="U15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1207,126 +1233,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>23296200</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>19852900</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>26534900</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>24258500</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>20672900</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>27630900</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>23341000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>23394200</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>18854900</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>20593000</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>18141500</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>19282200</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>7593700</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1784600</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>7096000</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>7907300</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1858300</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>7389100</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>6165500</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>6268200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>5026600</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>5125300</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>3977500</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>4677600</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1348,303 +1381,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>4700</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-289400</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-152900</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-301300</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-159200</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>20000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>-332400</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>56000</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>57200</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>66200</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>-248800</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>11268700</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3">
-        <v>4942100</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="3">
-        <v>10171200</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>11734200</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>5146200</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>10591300</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>8966500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>7397900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>6253100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>6715100</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>5176900</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>5954700</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>176500</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>254100</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>263500</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>183700</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>264600</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>274400</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>261200</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>100500</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>80200</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>102100</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>87500</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
         <v>63400</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>7421900</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1241100</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>6679600</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>7728500</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1292400</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>6955500</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>5924400</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>5835200</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>5002500</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>5080400</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>3956100</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>4365400</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>2232800</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>601100</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1765800</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2325000</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>626000</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1838700</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>1683400</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>1460900</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>1387900</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>1154500</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>1329600</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>1430900</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1702,126 +1751,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>5189100</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>640000</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>4913800</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5403400</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>666400</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>5116800</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>4240900</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>4374400</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>3614600</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>3925800</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>2626600</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
         <v>2934500</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>4917400</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>614100</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>4591500</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5120500</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>639400</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>4781100</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>3844500</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>3962700</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>3298400</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>3633000</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>2386500</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="3">
         <v>2664500</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1879,8 +1937,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1938,8 +1999,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1997,8 +2061,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2056,126 +2123,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
-        <v>289400</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
-        <v>152900</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>301300</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>159200</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>-20000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>332400</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>-56000</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-57200</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>-66200</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>248800</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>4917400</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>614100</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>4591500</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5120500</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>639400</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>4781100</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>3844500</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>3962700</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>3298400</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>3633000</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>2386500</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="3">
         <v>2664500</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2233,131 +2309,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>4917400</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>614100</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>4591500</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>5120500</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>639400</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>4781100</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>3844500</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>3962700</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>3298400</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>3633000</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>2386500</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
         <v>2664500</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2379,8 +2464,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2402,539 +2488,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>23484500</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3">
-        <v>16970700</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3">
-        <v>6673700</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3">
+        <v>24454500</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
+        <v>17671700</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
+        <v>6949400</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>4704400</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>5453200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>4635800</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>4194000</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>9479700</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>4160000</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>884700</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1121100</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3">
-        <v>862300</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
+        <v>921200</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1167400</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
+        <v>897900</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>927000</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>787800</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>799300</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>577800</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>572200</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>439000</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>5503200</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3">
-        <v>5704400</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3">
-        <v>6470200</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3">
+        <v>5730500</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
+        <v>5940000</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
+        <v>6737400</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>5759700</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>5939300</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>4967400</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>5413600</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>4061600</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>4816100</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>15312000</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3">
-        <v>16561400</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3">
-        <v>16136700</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
+        <v>15944500</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
+        <v>17245400</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
+        <v>16803200</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>15953200</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>14768500</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>13047500</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>12216200</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>12190400</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>12379000</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>1839900</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3">
-        <v>2088100</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1043500</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1915900</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
+        <v>2174400</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1086600</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
         <v>1014100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>909700</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>888300</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1228600</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>1173600</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
         <v>975400</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>47024200</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="3">
-        <v>42445700</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="3">
-        <v>31186400</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
+        <v>48966500</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3">
+        <v>44198900</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="3">
+        <v>32474500</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>28358300</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>27858500</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>24338300</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>23630200</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>27477500</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>22769600</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>2844500</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3">
-        <v>3042200</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3">
-        <v>3186900</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2962000</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3">
+        <v>3167800</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
+        <v>3318500</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>2750400</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>2862600</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>2390300</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>2257400</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>2228300</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>2461500</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>35799000</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3">
-        <v>36980100</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3">
-        <v>35974300</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>37277700</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
+        <v>38507600</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>37460200</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>32928600</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>17876000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>15549900</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>30370000</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>27241900</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>14248900</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>39252900</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3">
-        <v>36490800</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3">
-        <v>39536500</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3">
+        <v>40874200</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
+        <v>37998000</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
+        <v>41169500</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>39610600</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>36647400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>34095100</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>68466100</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>56139900</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>27861600</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2992,8 +3106,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3051,67 +3168,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>2919800</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3">
-        <v>2966900</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
-        <v>3646800</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3040400</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>3089400</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
+        <v>3797500</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>3315100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>2645000</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>2396900</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>2273200</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>2462800</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>2643400</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3169,67 +3292,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>127840600</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="3">
-        <v>121925600</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3">
-        <v>113530800</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3">
+        <v>133120900</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3">
+        <v>126961600</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
+        <v>118220100</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>106963000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>87889500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>78770500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>78264400</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>73859500</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>69984900</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3251,8 +3380,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3274,362 +3404,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>5997300</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3">
-        <v>4940900</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3">
-        <v>6839600</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6245000</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>5145000</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
+        <v>7122100</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>6073800</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>6285900</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>5059600</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>5092700</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>4320800</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>4911200</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>15001500</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3">
-        <v>12931000</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3">
-        <v>11482800</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
+        <v>15621100</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
+        <v>13465100</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
+        <v>11957100</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>11668700</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>5924000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>6213600</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>5487700</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>5463000</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>4013300</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>8785400</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3">
-        <v>9430000</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3">
-        <v>8291300</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>9148200</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
+        <v>9819500</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
+        <v>8633700</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>7018400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>7701900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>6037900</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>6679200</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>5213900</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>6112000</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>29784100</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="3">
-        <v>27301900</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="3">
-        <v>26613700</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3">
+        <v>31014300</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="3">
+        <v>28429600</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="3">
+        <v>27712900</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>24760900</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>19911800</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>17311100</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>16817500</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>14997600</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>15036500</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>29092400</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>30294000</v>
       </c>
       <c r="F61" s="3">
-        <v>30587600</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>31851000</v>
       </c>
       <c r="H61" s="3">
-        <v>18203600</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>18955500</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>18501200</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>7103300</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>7347800</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>7905500</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>9213800</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>4615400</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>23285700</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3">
-        <v>19883500</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3">
-        <v>23580900</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>24247500</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3">
+        <v>20704800</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
+        <v>24554900</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>22068100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>20706700</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>19544400</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>19458700</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>17915900</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>17580200</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3687,8 +3836,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3746,8 +3898,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3805,67 +3960,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>83829100</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3">
-        <v>79797600</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3">
-        <v>70491100</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
+        <v>87291600</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
+        <v>83093500</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
+        <v>73402600</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>67344200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>49690100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>45841500</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>45761500</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>43746400</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>39004500</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3887,8 +4048,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3946,8 +4108,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4005,8 +4170,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4064,8 +4232,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4123,67 +4294,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>41601000</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
-        <v>37903600</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
-        <v>38636500</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
+        <v>43319300</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
+        <v>39469200</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
+        <v>40232300</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>35396700</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>34086400</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>29060800</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>28350400</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>25598200</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>25760400</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4241,8 +4418,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4300,8 +4480,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4359,67 +4542,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>44011500</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" s="3">
-        <v>42128100</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="3">
-        <v>43039800</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="3">
+        <v>45829300</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="3">
+        <v>43868100</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="3">
+        <v>44817500</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
         <v>39618800</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>38199400</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>32929000</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>32502900</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>30113100</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>30980400</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4477,131 +4666,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>4917400</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>614100</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>4591500</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>5120500</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
+        <v>639400</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
+        <v>4781100</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>3844500</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>3962700</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>3298400</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>3633000</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>2386500</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="3">
         <v>2664500</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4623,67 +4821,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>3670400</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3">
-        <v>3446900</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3">
-        <v>3228000</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3822000</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3">
+        <v>3589200</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3">
+        <v>3361400</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>2781000</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>1462100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>1170500</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1532600</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>1133200</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>1526000</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4741,8 +4943,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4800,8 +5005,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4859,8 +5067,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4918,8 +5129,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4977,67 +5191,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>11819300</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3">
-        <v>999900</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3">
-        <v>8774800</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3">
+        <v>12307500</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3">
+        <v>1041200</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
+        <v>9137200</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>4927900</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>6303700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>3470800</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>5345200</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>2542400</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>5407700</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5059,67 +5279,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-1709300</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-1205800</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-2050500</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1174800</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-1255600</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-2135200</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1314000</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1961200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1038700</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1257800</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-861700</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-1928600</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5177,8 +5401,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5236,67 +5463,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-1703400</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-1754000</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-2918600</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1773800</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-1826500</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-3039200</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3985600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-2602400</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-1360400</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-8053600</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-1603300</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-1367500</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5318,67 +5551,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3238600</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-3372400</v>
       </c>
       <c r="F96" s="3">
-        <v>-54100</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-56300</v>
       </c>
       <c r="H96" s="3">
-        <v>-1489300</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-1550800</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2837500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1190000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1876500</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-902100</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1465300</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-826400</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5436,8 +5673,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5495,8 +5735,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5554,181 +5797,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-2355200</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3">
-        <v>11064000</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-3948000</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2452400</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3">
+        <v>11521000</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-4111100</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1621100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-3320400</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1664600</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>4794300</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>-3366500</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-1274000</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="3">
-        <v>36500</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="3">
-        <v>28200</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-1326700</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="3">
+        <v>38000</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3">
+        <v>29400</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>17600</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>45000</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>31800</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-30300</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>-97600</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
         <v>-1200</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>6486700</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3">
-        <v>10346400</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3">
-        <v>1936400</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3">
+        <v>6754600</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3">
+        <v>10773800</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3">
+        <v>2016300</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>-661100</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>425800</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>477600</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-5270000</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>5585300</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>672600</v>
       </c>
-      <c r="U102" s="3" t="s">
+      <c r="V102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVMUY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVMUY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="92">
   <si>
     <t>LVMUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,284 +665,297 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17099600</v>
+        <v>33463800</v>
       </c>
       <c r="E8" s="3">
-        <v>32165800</v>
+        <v>16295900</v>
       </c>
       <c r="F8" s="3">
-        <v>14644800</v>
+        <v>30653900</v>
       </c>
       <c r="G8" s="3">
-        <v>22531200</v>
+        <v>13956400</v>
       </c>
       <c r="H8" s="3">
-        <v>12980000</v>
+        <v>21472200</v>
       </c>
       <c r="I8" s="3">
-        <v>35020000</v>
+        <v>12369900</v>
       </c>
       <c r="J8" s="3">
+        <v>33373900</v>
+      </c>
+      <c r="K8" s="3">
         <v>16312000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>29506500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14998000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>29662400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12603400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>23881500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12178100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>25718300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11647400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>22118900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11601900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>23959800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10726300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>10864400</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>8577400</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>11853000</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>10633900</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>10353800</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>8174200</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>11295900</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>9937100</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>10048700</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>7828700</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>8866000</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>7720400</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
         <v>8359900</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>21301400</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>13953900</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>23167000</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="3">
+        <v>22829900</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>20300100</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>13298000</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>22078100</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>19569400</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>19613700</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>16052800</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>16852300</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>14398500</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
         <v>15599900</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -965,8 +978,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1027,8 +1041,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1089,70 +1106,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>185000</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>153100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>106600</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="D14" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>176300</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>145900</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>101600</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>48200</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>62700</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>80200</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>150300</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
         <v>111100</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
         <v>159600</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1204,8 +1227,8 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>5</v>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>5</v>
@@ -1213,8 +1236,11 @@
       <c r="V15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1234,132 +1260,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>24258500</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>20672900</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>27630900</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>24593800</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>23118200</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>19701200</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>26332100</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>23341000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>23394200</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>18854900</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>20593000</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>18141500</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="3">
         <v>19282200</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>7907300</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1858300</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>7389100</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>8870000</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>7535600</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1771000</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>7041800</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>6165500</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>6268200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>5026600</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>5125300</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>3977500</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="3">
         <v>4677600</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1382,318 +1415,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4900</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-301300</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-159200</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>156400</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-287200</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-151800</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>20000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>-332400</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>56000</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>57200</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>66200</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="3">
         <v>-248800</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>11734200</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>5146200</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
-        <v>10591300</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="D21" s="3">
+        <v>12229800</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>11182600</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>4904300</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>10093400</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>8966500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>7397900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>6253100</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>6715100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>5176900</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>5954700</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>183700</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>264600</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>274400</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="D22" s="3">
+        <v>170400</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>175100</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>252200</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>261500</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>261200</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>100500</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>80200</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>102100</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>87500</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3">
         <v>63400</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>7728500</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1292400</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>6955500</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>8856000</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>7365200</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1231600</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>6628600</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>5924400</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>5835200</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>5002500</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>5080400</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>3956100</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="3">
         <v>4365400</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2325000</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>626000</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1838700</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>2346500</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2215700</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>596500</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1752300</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>1683400</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>1460900</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>1387900</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>1154500</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>1329600</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
         <v>1430900</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1754,132 +1803,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>5403400</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>666400</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>5116800</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>6509500</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5149400</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>635100</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>4876300</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>4240900</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>4374400</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>3614600</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>3925800</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <v>2626600</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="3">
         <v>2934500</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>5120500</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>639400</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>4781100</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>6174400</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4879800</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>609400</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>4556400</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>3844500</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>3962700</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>3298400</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>3633000</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3">
         <v>2386500</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V27" s="3">
         <v>2664500</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1940,8 +1998,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2002,8 +2063,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2064,8 +2128,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2126,132 +2193,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>301300</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>159200</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>-156400</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>287200</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>151800</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>-20000</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>332400</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>-56000</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>-57200</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>-66200</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="3">
         <v>248800</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>5120500</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>639400</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>4781100</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>6174400</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4879800</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>609400</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
+        <v>4556400</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>3844500</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>3962700</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>3298400</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>3633000</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3">
         <v>2386500</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V33" s="3">
         <v>2664500</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2312,137 +2388,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>5120500</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>639400</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>4781100</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>6174400</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>4879800</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>609400</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>4556400</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>3844500</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>3962700</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>3298400</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>3633000</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="3">
         <v>2386500</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V35" s="3">
         <v>2664500</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2465,8 +2550,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2489,566 +2575,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="3">
-        <v>24454500</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3">
-        <v>17671700</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
-        <v>6949400</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="D41" s="3">
+        <v>8441500</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
+        <v>23305000</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
+        <v>16841100</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
+        <v>6622700</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>4704400</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>5453200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>4635800</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>4194000</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>9479700</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>4160000</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3">
-        <v>921200</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1167400</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
-        <v>897900</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="D42" s="3">
+        <v>1714900</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
+        <v>877900</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1112500</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
+        <v>855700</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>927000</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>787800</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>799300</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>577800</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>572200</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>439000</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
-        <v>5730500</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
-        <v>5940000</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
-        <v>6737400</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>5583700</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3">
+        <v>5461100</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3">
+        <v>5660800</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="3">
+        <v>6420800</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>5759700</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>5939300</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>4967400</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>5413600</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>4061600</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
         <v>4816100</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3">
-        <v>15944500</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3">
-        <v>17245400</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3">
-        <v>16803200</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>18741600</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
+        <v>15195000</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3">
+        <v>16434800</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3">
+        <v>16013400</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>15953200</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>14768500</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>13047500</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>12216200</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>12190400</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
         <v>12379000</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1915900</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
-        <v>2174400</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1086600</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="D45" s="3">
+        <v>1257300</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1825800</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3">
+        <v>2072200</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1035500</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
         <v>1014100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
         <v>909700</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>888300</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>1228600</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
         <v>1173600</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3">
         <v>975400</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="3">
-        <v>48966500</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3">
-        <v>44198900</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="3">
-        <v>32474500</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="D46" s="3">
+        <v>35739100</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>46664900</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="3">
+        <v>42121300</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3">
+        <v>30948000</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>28358300</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>27858500</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>24338300</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>23630200</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>27477500</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="3">
         <v>22769600</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3">
-        <v>2962000</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3">
-        <v>3167800</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3">
-        <v>3318500</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>3247700</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2822800</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3">
+        <v>3018900</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
+        <v>3162500</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>2750400</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>2862600</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>2390300</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>2257400</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>2228300</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3">
         <v>2461500</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3">
-        <v>37277700</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
-        <v>38507600</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
-        <v>37460200</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>38343600</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
+        <v>35525500</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
+        <v>36697500</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
+        <v>35699400</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>32928600</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>17876000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>15549900</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>30370000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>27241900</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>14248900</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3">
-        <v>40874200</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3">
-        <v>37998000</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3">
-        <v>41169500</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>55443800</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
+        <v>38953000</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
+        <v>36211900</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
+        <v>39234300</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>39610600</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>36647400</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>34095100</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>68466100</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>56139900</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>27861600</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3109,8 +3223,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3171,70 +3288,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
-        <v>3040400</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3">
-        <v>3089400</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3797500</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>3329500</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2897500</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2944200</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
+        <v>3619000</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>3315100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>2645000</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>2396900</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>2273200</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>2462800</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>2643400</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3295,70 +3418,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="3">
-        <v>133120900</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3">
-        <v>126961600</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
-        <v>118220100</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="D54" s="3">
+        <v>136103700</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3">
+        <v>126863600</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
+        <v>120993900</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3">
+        <v>112663200</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>106963000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>87889500</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>78770500</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>78264400</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>73859500</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>69984900</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3381,8 +3510,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3405,380 +3535,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3">
-        <v>6245000</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3">
-        <v>5145000</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3">
-        <v>7122100</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>6609900</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
+        <v>5951500</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
+        <v>4903100</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
+        <v>6787300</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>6073800</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>6285900</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>5059600</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>5092700</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>4320800</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>4911200</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3">
-        <v>15621100</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3">
-        <v>13465100</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3">
-        <v>11957100</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>16947300</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>14886800</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3">
+        <v>12832200</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
+        <v>11395100</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>11668700</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>5924000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>6213600</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>5487700</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>5463000</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>4013300</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3">
-        <v>9148200</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3">
-        <v>9819500</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
-        <v>8633700</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>9047400</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
+        <v>8718200</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
+        <v>9358000</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
+        <v>8227900</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>7018400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>7701900</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>6037900</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>6679200</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>5213900</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>6112000</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="3">
-        <v>31014300</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3">
-        <v>28429600</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" s="3">
-        <v>27712900</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="D60" s="3">
+        <v>32604600</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="3">
+        <v>29556500</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="3">
+        <v>27093300</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="3">
+        <v>26410300</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>24760900</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>19911800</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>17311100</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>16817500</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>14997600</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>15036500</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>27996800</v>
       </c>
       <c r="E61" s="3">
-        <v>30294000</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>28870000</v>
       </c>
       <c r="G61" s="3">
-        <v>31851000</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>30353800</v>
       </c>
       <c r="I61" s="3">
-        <v>18955500</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>18064500</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>18501200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>7103300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>7347800</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>7905500</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>9213800</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>4615400</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3">
-        <v>24247500</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3">
-        <v>20704800</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3">
-        <v>24554900</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>25742600</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
+        <v>23107700</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
+        <v>19731600</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
+        <v>23400700</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>22068100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>20706700</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>19544400</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>19458700</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>17915900</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>17580200</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3839,8 +3988,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3901,8 +4053,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3963,70 +4118,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3">
-        <v>87291600</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3">
-        <v>83093500</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3">
-        <v>73402600</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="D66" s="3">
+        <v>88026200</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
+        <v>83188500</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
+        <v>79187800</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
+        <v>69952400</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>67344200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>49690100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>45841500</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>45761500</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>43746400</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>39004500</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4049,8 +4210,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4111,8 +4273,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4173,8 +4338,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4235,8 +4403,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4297,70 +4468,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
-        <v>43319300</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
-        <v>39469200</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
-        <v>40232300</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>44860100</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
+        <v>41283100</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
+        <v>37614000</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
+        <v>38341200</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>35396700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>34086400</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>29060800</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>28350400</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>25598200</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>25760400</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4421,8 +4598,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4483,8 +4663,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4545,70 +4728,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="3">
-        <v>45829300</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="3">
-        <v>43868100</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I76" s="3">
-        <v>44817500</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="D76" s="3">
+        <v>48077400</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="3">
+        <v>43675100</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="3">
+        <v>41806100</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="3">
+        <v>42710900</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3">
         <v>39618800</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>38199400</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>32929000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>32502900</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>30113100</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>30980400</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4669,137 +4858,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
-        <v>5120500</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>639400</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>4781100</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>6174400</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
+        <v>4879800</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>609400</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
+        <v>4556400</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>3844500</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>3962700</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>3298400</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>3633000</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81" s="3">
         <v>2386500</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V81" s="3">
         <v>2664500</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4822,70 +5020,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3">
-        <v>3822000</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3">
-        <v>3589200</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3">
-        <v>3361400</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>3203400</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3">
+        <v>3642300</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
+        <v>3420500</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
+        <v>3203400</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>2781000</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>1462100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>1170500</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>1532600</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>1133200</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
         <v>1526000</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4946,8 +5148,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5008,8 +5213,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5070,8 +5278,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5132,8 +5343,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5194,70 +5408,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3">
-        <v>12307500</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
-        <v>1041200</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3">
-        <v>9137200</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>9014700</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3">
+        <v>11729000</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
+        <v>992300</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
+        <v>8707700</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>4927900</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>6303700</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>3470800</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>5345200</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>2542400</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>5407700</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5280,70 +5500,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-1174800</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-1255600</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-2135200</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-1119500</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-1196600</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2034800</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1314000</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1961200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1038700</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-1257800</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-861700</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-1928600</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5404,8 +5628,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5466,70 +5693,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-1773800</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-1826500</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-3039200</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>-16307600</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-1690400</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-1740600</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2896300</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-3985600</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-2602400</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-1360400</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-8053600</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-1603300</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-1367500</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5552,70 +5785,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-2432900</v>
       </c>
       <c r="E96" s="3">
-        <v>-3372400</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-2794800</v>
       </c>
       <c r="G96" s="3">
-        <v>-56300</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-46700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1550800</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-1367000</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-2837500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1190000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1876500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-902100</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1465300</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-826400</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5676,8 +5913,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5738,8 +5978,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5800,190 +6043,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-2452400</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
-        <v>11521000</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-4111100</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>-7890500</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-2337200</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>10979500</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-3917800</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1621100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-3320400</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>-1664600</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>4794300</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>-3366500</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-1326700</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3">
-        <v>38000</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3">
-        <v>29400</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>134300</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-1264300</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3">
+        <v>36200</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>17600</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>45000</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>31800</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>-30300</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3">
         <v>-97600</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V101" s="3">
         <v>-1200</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3">
-        <v>6754600</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
-        <v>10773800</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
-        <v>2016300</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>-15049100</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3">
+        <v>6437100</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
+        <v>10267400</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1921600</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>-661100</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>425800</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>477600</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>-5270000</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>5585300</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>672600</v>
       </c>
-      <c r="V102" s="3" t="s">
+      <c r="W102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVMUY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVMUY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="92">
   <si>
     <t>LVMUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,297 +665,310 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>33463800</v>
+        <v>17514600</v>
       </c>
       <c r="E8" s="3">
-        <v>16295900</v>
+        <v>32365700</v>
       </c>
       <c r="F8" s="3">
-        <v>30653900</v>
+        <v>15761100</v>
       </c>
       <c r="G8" s="3">
-        <v>13956400</v>
+        <v>29647900</v>
       </c>
       <c r="H8" s="3">
-        <v>21472200</v>
+        <v>13498400</v>
       </c>
       <c r="I8" s="3">
-        <v>12369900</v>
+        <v>20767500</v>
       </c>
       <c r="J8" s="3">
+        <v>11963900</v>
+      </c>
+      <c r="K8" s="3">
         <v>33373900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16312000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>29506500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14998000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>29662400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12603400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>23881500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12178100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>25718300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11647400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>22118900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11601900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>23959800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10726300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>10633900</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>10353800</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>8174200</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10285000</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10014000</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>7906000</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>11295900</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>9937100</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>10048700</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>7828700</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>8866000</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>7720400</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3">
         <v>8359900</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>22829900</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>20300100</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>13298000</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>22080700</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>19633900</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>12861600</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>22078100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>19569400</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>19613700</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>16052800</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>16852300</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>14398500</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3">
         <v>15599900</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -979,8 +992,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1044,8 +1058,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1109,73 +1126,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>23300</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>176300</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>145900</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>22600</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>170500</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>141100</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>101600</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>48200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>62700</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>80200</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>150300</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
         <v>111100</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="3">
         <v>159600</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1230,8 +1253,8 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>5</v>
+      <c r="U15" s="3">
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>5</v>
@@ -1239,8 +1262,11 @@
       <c r="W15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1261,138 +1287,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>24593800</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>23118200</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>19701200</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>23786700</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>22359600</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>19054700</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>26332100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>23341000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>23394200</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>18854900</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>20593000</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>18141500</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="3">
         <v>19282200</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>8870000</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>7535600</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1771000</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>8578900</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>7288300</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1712800</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>7041800</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>6165500</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>6268200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>5026600</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>5125300</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>3977500</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="3">
         <v>4677600</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1416,333 +1449,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>156400</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>4700</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-287200</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>151300</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-277800</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>-151800</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>20000</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>-332400</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>56000</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>57200</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>66200</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="3">
         <v>-248800</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>12229800</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="3">
-        <v>11182600</v>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3">
-        <v>4904300</v>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>10093400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>8966500</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>7397900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>6253100</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>6715100</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>5176900</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>5954700</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>170400</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>175100</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>252200</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>164800</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>169400</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>243900</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>261500</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>261200</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>100500</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>80200</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>102100</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
         <v>87500</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="3">
         <v>63400</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>8856000</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>7365200</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1231600</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>8565400</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>7123500</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1191200</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>6628600</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>5924400</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>5835200</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>5002500</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>5080400</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>3956100</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="3">
         <v>4365400</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>2346500</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2215700</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>596500</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2269500</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2143000</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>577000</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>1752300</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>1683400</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>1460900</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>1387900</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>1154500</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>1329600</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="3">
         <v>1430900</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1806,138 +1855,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>6509500</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>5149400</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>635100</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>6295900</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4980500</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>614200</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>4876300</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>4240900</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>4374400</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>3614600</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>3925800</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
         <v>2626600</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W26" s="3">
         <v>2934500</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>6174400</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>4879800</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>609400</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5971800</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>4719600</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>589400</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>4556400</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>3844500</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>3962700</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>3298400</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>3633000</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="3">
         <v>2386500</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W27" s="3">
         <v>2664500</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2001,8 +2059,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2066,8 +2127,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2131,8 +2195,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2196,138 +2263,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-156400</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
-        <v>287200</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-151300</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>277800</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>151800</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>-20000</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>332400</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-56000</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>-57200</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>-66200</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W32" s="3">
         <v>248800</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>6174400</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>4879800</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>609400</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5971800</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>4719600</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>589400</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>4556400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>3844500</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>3962700</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>3298400</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>3633000</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="3">
         <v>2386500</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" s="3">
         <v>2664500</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2391,143 +2467,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>6174400</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>4879800</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>609400</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>5971800</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>4719600</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>589400</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>4556400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>3844500</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>3962700</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>3298400</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>3633000</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
         <v>2386500</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="3">
         <v>2664500</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2551,8 +2636,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2576,593 +2662,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>8441500</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3">
-        <v>23305000</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3">
-        <v>16841100</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3">
+        <v>8164500</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
+        <v>22540200</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
+        <v>16288400</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>6622700</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>4704400</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>5453200</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>4635800</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>4194000</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>9479700</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>4160000</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>1714900</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3">
-        <v>877900</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3">
-        <v>1112500</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1658600</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
+        <v>849100</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1076000</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>855700</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>927000</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>787800</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>799300</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>577800</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>572200</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>439000</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>5583700</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3">
-        <v>5461100</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3">
-        <v>5660800</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3">
+        <v>5400500</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
+        <v>5281900</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
+        <v>5475000</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>6420800</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>5759700</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>5939300</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>4967400</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>5413600</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>4061600</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3">
         <v>4816100</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>18741600</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3">
-        <v>15195000</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3">
-        <v>16434800</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
+        <v>18126600</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
+        <v>14696400</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
+        <v>15895500</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>16013400</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>15953200</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>14768500</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>13047500</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>12216200</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>12190400</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="3">
         <v>12379000</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>1257300</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1825800</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3">
-        <v>2072200</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1216000</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1765900</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2004200</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
         <v>1035500</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>1014100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>909700</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>888300</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>1228600</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
         <v>1173600</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
         <v>975400</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>35739100</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="3">
-        <v>46664900</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="3">
-        <v>42121300</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
+        <v>34566300</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3">
+        <v>45133500</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="3">
+        <v>40739100</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>30948000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>28358300</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>27858500</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>24338300</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>23630200</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>27477500</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="3">
         <v>22769600</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>3247700</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3">
-        <v>2822800</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3">
-        <v>3018900</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3141200</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3">
+        <v>2730200</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2919900</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>3162500</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>2750400</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>2862600</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>2390300</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>2257400</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>2228300</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="3">
         <v>2461500</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>38343600</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3">
-        <v>35525500</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3">
-        <v>36697500</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>37085300</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
+        <v>34359600</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>35493300</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>35699400</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>32928600</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>17876000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>15549900</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>30370000</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>27241900</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>14248900</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>55443800</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3">
-        <v>38953000</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3">
-        <v>36211900</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3">
+        <v>53624300</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
+        <v>37674700</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
+        <v>35023600</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>39234300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>39610600</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>36647400</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>34095100</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>68466100</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>56139900</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>27861600</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3226,8 +3340,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3291,73 +3408,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>3329500</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3">
-        <v>2897500</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2944200</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3220200</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>2802400</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2847600</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>3619000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>3315100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>2645000</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>2396900</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>2273200</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>2462800</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>2643400</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3421,73 +3544,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>136103700</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="3">
-        <v>126863600</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3">
-        <v>120993900</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3">
+        <v>131637300</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3">
+        <v>122700400</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
+        <v>117023300</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>112663200</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>106963000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>87889500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>78770500</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>78264400</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>73859500</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="3">
         <v>69984900</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3511,8 +3640,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3536,398 +3666,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>6609900</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3">
-        <v>5951500</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3">
-        <v>4903100</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6393000</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>5756200</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
+        <v>4742200</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>6787300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>6073800</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>6285900</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>5059600</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>5092700</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>4320800</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>4911200</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>16947300</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3">
-        <v>14886800</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3">
-        <v>12832200</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
+        <v>16391100</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
+        <v>14398300</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
+        <v>12411100</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>11395100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>11668700</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>5924000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>6213600</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>5487700</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>5463000</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>4013300</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>9047400</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3">
-        <v>8718200</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3">
-        <v>9358000</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>8750500</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
+        <v>8432100</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
+        <v>9050900</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>8227900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>7018400</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>7701900</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>6037900</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>6679200</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>5213900</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>6112000</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>32604600</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="3">
-        <v>29556500</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="3">
-        <v>27093300</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3">
+        <v>31534600</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="3">
+        <v>28586600</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="3">
+        <v>26204200</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>26410300</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>24760900</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>19911800</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>17311100</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>16817500</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>14997600</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="3">
         <v>15036500</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>27996800</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>27078100</v>
       </c>
       <c r="F61" s="3">
-        <v>28870000</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>27922600</v>
       </c>
       <c r="H61" s="3">
-        <v>30353800</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>29357700</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>18064500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>18501200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>7103300</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>7347800</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>7905500</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>9213800</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>4615400</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>25742600</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3">
-        <v>23107700</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3">
-        <v>19731600</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>24897800</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3">
+        <v>22349400</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
+        <v>19084000</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>23400700</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>22068100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>20706700</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>19544400</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>19458700</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>17915900</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
         <v>17580200</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3991,8 +4140,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4056,8 +4208,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4121,73 +4276,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>88026200</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3">
-        <v>83188500</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3">
-        <v>79187800</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
+        <v>85137500</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
+        <v>80458500</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
+        <v>76589100</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>69952400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>67344200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>49690100</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>45841500</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>45761500</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>43746400</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>39004500</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4211,8 +4372,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4276,8 +4438,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4341,8 +4506,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4406,8 +4574,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4471,73 +4642,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>44860100</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
-        <v>41283100</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
-        <v>37614000</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
+        <v>43387900</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
+        <v>39928400</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
+        <v>36379600</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>38341200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>35396700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>34086400</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>29060800</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>28350400</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>25598200</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>25760400</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4601,8 +4778,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4666,8 +4846,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4731,73 +4914,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>48077400</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" s="3">
-        <v>43675100</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="3">
-        <v>41806100</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="3">
+        <v>46499700</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="3">
+        <v>42241900</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="3">
+        <v>40434200</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
         <v>42710900</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>39618800</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>38199400</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>32929000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>32502900</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>30113100</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W76" s="3">
         <v>30980400</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4861,143 +5050,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>6174400</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>4879800</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>609400</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>5971800</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
+        <v>4719600</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
+        <v>589400</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>4556400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>3844500</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>3962700</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>3298400</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>3633000</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="3">
         <v>2386500</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W81" s="3">
         <v>2664500</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5021,73 +5219,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>3203400</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3">
-        <v>3642300</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3">
-        <v>3420500</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3">
-        <v>3203400</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>2781000</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>1462100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1170500</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>1532600</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>1133200</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3">
         <v>1526000</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5151,8 +5353,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5216,8 +5421,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5281,8 +5489,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5346,8 +5557,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5411,73 +5625,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>9014700</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F89" s="3">
-        <v>11729000</v>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="3">
-        <v>992300</v>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>8707700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>4927900</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>6303700</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>3470800</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>5345200</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>2542400</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>5407700</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5501,73 +5721,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-1200</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3">
-        <v>-1119500</v>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H91" s="3">
-        <v>-1196600</v>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2034800</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1314000</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1961200</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1038700</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-1257800</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-861700</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-1928600</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5631,8 +5855,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5696,73 +5923,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-16307600</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="3">
-        <v>-1690400</v>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H94" s="3">
-        <v>-1740600</v>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2896300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-3985600</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-2602400</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-1360400</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-8053600</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-1603300</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>-1367500</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5786,73 +6019,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2432900</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-2794800</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-46700</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1367000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-2837500</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1190000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1876500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-902100</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1465300</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-826400</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5916,8 +6153,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5981,8 +6221,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6046,199 +6289,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-7890500</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F100" s="3">
-        <v>-2337200</v>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H100" s="3">
-        <v>10979500</v>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3917800</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1621100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-3320400</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-1664600</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>4794300</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>-3366500</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>134300</v>
+      <c r="D101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F101" s="3">
-        <v>-1264300</v>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H101" s="3">
-        <v>36200</v>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>28000</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>17600</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>45000</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>31800</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>-30300</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
         <v>-97600</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W101" s="3">
         <v>-1200</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-15049100</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F102" s="3">
-        <v>6437100</v>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H102" s="3">
-        <v>10267400</v>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>1921600</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>-661100</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>425800</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>477600</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>-5270000</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>5585300</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>672600</v>
       </c>
-      <c r="W102" s="3" t="s">
+      <c r="X102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVMUY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVMUY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="92">
   <si>
     <t>LVMUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,310 +665,319 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17514600</v>
+        <v>38781900</v>
       </c>
       <c r="E8" s="3">
-        <v>32365700</v>
+        <v>16922200</v>
       </c>
       <c r="F8" s="3">
-        <v>15761100</v>
+        <v>31270900</v>
       </c>
       <c r="G8" s="3">
-        <v>29647900</v>
+        <v>15228000</v>
       </c>
       <c r="H8" s="3">
-        <v>13498400</v>
+        <v>28645100</v>
       </c>
       <c r="I8" s="3">
-        <v>20767500</v>
+        <v>13041800</v>
       </c>
       <c r="J8" s="3">
+        <v>20065100</v>
+      </c>
+      <c r="K8" s="3">
         <v>11963900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33373900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16312000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>29506500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14998000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>29662400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12603400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>23881500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12178100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>25718300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11647400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>22118900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11601900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>23959800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10726300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>10285000</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>10014000</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>7906000</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>12268400</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>9937100</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>9675300</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>7638600</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>11295900</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>9937100</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>10048700</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>7828700</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>8866000</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
         <v>7720400</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3">
         <v>8359900</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>22080700</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>19633900</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>12861600</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="3">
+        <v>26513500</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>21333800</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>18969800</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>12426600</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>22078100</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>19569400</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>19613700</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>16052800</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>16852300</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
         <v>14398500</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3">
         <v>15599900</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -993,8 +1002,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1061,8 +1071,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1129,76 +1142,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>22600</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>170500</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>141100</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="D14" s="3">
+        <v>94900</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>21800</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>164700</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>136400</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>101600</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>48200</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>62700</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>80200</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
         <v>150300</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
         <v>111100</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="3">
         <v>159600</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1256,8 +1275,8 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>5</v>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>5</v>
@@ -1265,8 +1284,11 @@
       <c r="X15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1288,144 +1310,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>23786700</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>22359600</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>19054700</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>28356000</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>22982200</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>21603300</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>18410200</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>26332100</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>23341000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>23394200</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>18854900</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>20593000</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="3">
         <v>18141500</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="3">
         <v>19282200</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>8578900</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>7288300</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1712800</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>10425800</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>8288700</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
         <v>7041800</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1654900</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
+        <v>7041800</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>6165500</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>6268200</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>5026600</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>5125300</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="3">
         <v>3977500</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="3">
         <v>4677600</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1450,76 +1479,80 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>151300</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>4500</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-277800</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>182200</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>146200</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-268400</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>-151800</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>20000</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>-332400</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>56000</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>57200</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="3">
         <v>66200</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="3">
         <v>-248800</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1544,254 +1577,266 @@
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>10093400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>8966500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>7397900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>6253100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>6715100</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>5176900</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3">
         <v>5954700</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>164800</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>169400</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>243900</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="D22" s="3">
+        <v>111300</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>159300</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>163600</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>235600</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>261500</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>261200</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>100500</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>80200</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>102100</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3">
         <v>87500</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" s="3">
         <v>63400</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>8565400</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>7123500</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1191200</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>10496700</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>8275600</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>6882600</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1150900</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>6628600</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>5924400</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>5835200</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>5002500</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>5080400</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="3">
         <v>3956100</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="3">
         <v>4365400</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2269500</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>2143000</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>577000</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>2727300</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2192700</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2070500</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>557500</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>1752300</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>1683400</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>1460900</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>1387900</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>1154500</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
         <v>1329600</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X24" s="3">
         <v>1430900</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1858,144 +1903,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>6295900</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>4980500</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>614200</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>7769500</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>6082900</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>4812000</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>593500</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>4876300</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>4240900</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>4374400</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>3614600</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <v>3925800</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="3">
         <v>2626600</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X26" s="3">
         <v>2934500</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>5971800</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>4719600</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>589400</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>7360400</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5769800</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>4560000</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>569500</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>4556400</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>3844500</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>3962700</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>3298400</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3">
         <v>3633000</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V27" s="3">
         <v>2386500</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X27" s="3">
         <v>2664500</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2062,8 +2116,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2130,8 +2187,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2198,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2266,144 +2329,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-151300</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>277800</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>-182200</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-146200</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>268400</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>151800</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>-20000</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>332400</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>-56000</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>-57200</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="3">
         <v>-66200</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X32" s="3">
         <v>248800</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>5971800</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>4719600</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>589400</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>7360400</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>5769800</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>4560000</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
+        <v>569500</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>4556400</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>3844500</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>3962700</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>3298400</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3">
         <v>3633000</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V33" s="3">
         <v>2386500</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X33" s="3">
         <v>2664500</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2470,149 +2542,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>5971800</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>4719600</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>589400</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>7360400</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>5769800</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>4560000</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>569500</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>4556400</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>3844500</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>3962700</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>3298400</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="3">
         <v>3633000</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V35" s="3">
         <v>2386500</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X35" s="3">
         <v>2664500</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2637,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2663,620 +2745,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
+      <c r="D41" s="3">
+        <v>8750200</v>
       </c>
       <c r="E41" s="3">
-        <v>8164500</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
+        <v>7888400</v>
+      </c>
+      <c r="F41" s="3">
+        <v>21777800</v>
       </c>
       <c r="G41" s="3">
-        <v>22540200</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
+        <v>15737500</v>
+      </c>
+      <c r="H41" s="3">
+        <v>6188700</v>
       </c>
       <c r="I41" s="3">
-        <v>16288400</v>
+        <v>4362500</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>6622700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>4704400</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>5453200</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>4635800</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>4194000</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>9479700</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="3">
         <v>4160000</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
+      <c r="D42" s="3">
+        <v>2775300</v>
       </c>
       <c r="E42" s="3">
-        <v>1658600</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
+        <v>1602500</v>
+      </c>
+      <c r="F42" s="3">
+        <v>820400</v>
       </c>
       <c r="G42" s="3">
-        <v>849100</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
+        <v>1039600</v>
+      </c>
+      <c r="H42" s="3">
+        <v>799600</v>
       </c>
       <c r="I42" s="3">
-        <v>1076000</v>
+        <v>859600</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>855700</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>927000</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>787800</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>799300</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>577800</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>572200</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W42" s="3">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X42" s="3">
         <v>439000</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
+      <c r="D43" s="3">
+        <v>6667600</v>
       </c>
       <c r="E43" s="3">
-        <v>5400500</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
+        <v>5217800</v>
+      </c>
+      <c r="F43" s="3">
+        <v>5103300</v>
       </c>
       <c r="G43" s="3">
-        <v>5281900</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
+        <v>5289800</v>
+      </c>
+      <c r="H43" s="3">
+        <v>6000000</v>
       </c>
       <c r="I43" s="3">
-        <v>5475000</v>
+        <v>5341100</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>6420800</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>5759700</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>5939300</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>4967400</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>5413600</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
         <v>4061600</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X43" s="3">
         <v>4816100</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
+      <c r="D44" s="3">
+        <v>18053500</v>
       </c>
       <c r="E44" s="3">
-        <v>18126600</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
+        <v>17513500</v>
+      </c>
+      <c r="F44" s="3">
+        <v>14199300</v>
       </c>
       <c r="G44" s="3">
-        <v>14696400</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
+        <v>15357800</v>
+      </c>
+      <c r="H44" s="3">
+        <v>14964000</v>
       </c>
       <c r="I44" s="3">
-        <v>15895500</v>
+        <v>14793800</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>16013400</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>15953200</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>14768500</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>13047500</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>12216200</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
         <v>12190400</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X44" s="3">
         <v>12379000</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
+      <c r="D45" s="3">
+        <v>1172700</v>
       </c>
       <c r="E45" s="3">
-        <v>1216000</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
+        <v>1174900</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1706200</v>
       </c>
       <c r="G45" s="3">
-        <v>1765900</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
+        <v>1936400</v>
+      </c>
+      <c r="H45" s="3">
+        <v>967600</v>
       </c>
       <c r="I45" s="3">
-        <v>2004200</v>
+        <v>940400</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
         <v>1035500</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
         <v>1014100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>909700</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>888300</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
         <v>1228600</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3">
         <v>1173600</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X45" s="3">
         <v>975400</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
+      <c r="D46" s="3">
+        <v>37419300</v>
       </c>
       <c r="E46" s="3">
-        <v>34566300</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
+        <v>33397100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>43606900</v>
       </c>
       <c r="G46" s="3">
-        <v>45133500</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
+        <v>39361100</v>
+      </c>
+      <c r="H46" s="3">
+        <v>28920000</v>
       </c>
       <c r="I46" s="3">
-        <v>40739100</v>
+        <v>26297500</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>30948000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>28358300</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>27858500</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>24338300</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>23630200</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="3">
         <v>27477500</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X46" s="3">
         <v>22769600</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
+      <c r="D47" s="3">
+        <v>3645800</v>
       </c>
       <c r="E47" s="3">
-        <v>3141200</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
+        <v>3034900</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2637800</v>
       </c>
       <c r="G47" s="3">
-        <v>2730200</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
+        <v>2821100</v>
+      </c>
+      <c r="H47" s="3">
+        <v>2955300</v>
       </c>
       <c r="I47" s="3">
-        <v>2919900</v>
+        <v>2550500</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>3162500</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>2750400</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>2862600</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>2390300</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>2257400</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3">
         <v>2228300</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X47" s="3">
         <v>2461500</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
+      <c r="D48" s="3">
+        <v>36644800</v>
       </c>
       <c r="E48" s="3">
-        <v>37085300</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
+        <v>35830900</v>
+      </c>
+      <c r="F48" s="3">
+        <v>33197500</v>
       </c>
       <c r="G48" s="3">
-        <v>34359600</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
+        <v>34292800</v>
+      </c>
+      <c r="H48" s="3">
+        <v>33360000</v>
       </c>
       <c r="I48" s="3">
-        <v>35493300</v>
+        <v>30535700</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>35699400</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>32928600</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>17876000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>15549900</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>30370000</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>27241900</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
         <v>14248900</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
+      <c r="D49" s="3">
+        <v>55376800</v>
       </c>
       <c r="E49" s="3">
-        <v>53624300</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
+        <v>51810600</v>
+      </c>
+      <c r="F49" s="3">
+        <v>36400400</v>
       </c>
       <c r="G49" s="3">
-        <v>37674700</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
+        <v>33838900</v>
+      </c>
+      <c r="H49" s="3">
+        <v>36663300</v>
       </c>
       <c r="I49" s="3">
-        <v>35023600</v>
+        <v>36732000</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>39234300</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>39610600</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>36647400</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>34095100</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>68466100</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>56139900</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3">
         <v>27861600</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3343,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3411,76 +3524,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>3616400</v>
       </c>
       <c r="E52" s="3">
-        <v>3220200</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
+        <v>3111300</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2707600</v>
       </c>
       <c r="G52" s="3">
-        <v>2802400</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
+        <v>2751300</v>
+      </c>
+      <c r="H52" s="3">
+        <v>3381800</v>
       </c>
       <c r="I52" s="3">
-        <v>2847600</v>
+        <v>3074200</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>3619000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>3315100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>2645000</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>2396900</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>2273200</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>2462800</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>2643400</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3547,76 +3666,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
+      <c r="D54" s="3">
+        <v>136703000</v>
       </c>
       <c r="E54" s="3">
-        <v>131637300</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
+        <v>127184800</v>
+      </c>
+      <c r="F54" s="3">
+        <v>118550300</v>
       </c>
       <c r="G54" s="3">
-        <v>122700400</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
+        <v>113065200</v>
+      </c>
+      <c r="H54" s="3">
+        <v>105280500</v>
       </c>
       <c r="I54" s="3">
-        <v>117023300</v>
+        <v>99189900</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>112663200</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>106963000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>87889500</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>78770500</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>78264400</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>73859500</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X54" s="3">
         <v>69984900</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3641,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3667,416 +3793,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
+      <c r="D57" s="3">
+        <v>7730200</v>
       </c>
       <c r="E57" s="3">
-        <v>6393000</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
+        <v>6176700</v>
+      </c>
+      <c r="F57" s="3">
+        <v>5561500</v>
       </c>
       <c r="G57" s="3">
-        <v>5756200</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
+        <v>4581800</v>
+      </c>
+      <c r="H57" s="3">
+        <v>6342600</v>
       </c>
       <c r="I57" s="3">
-        <v>4742200</v>
+        <v>5632400</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>6787300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>6073800</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>6285900</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>5059600</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>5092700</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>4320800</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X57" s="3">
         <v>4911200</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
+      <c r="D58" s="3">
+        <v>11346600</v>
       </c>
       <c r="E58" s="3">
-        <v>16391100</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
+        <v>15836700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>13911300</v>
       </c>
       <c r="G58" s="3">
-        <v>14398300</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
+        <v>11991300</v>
+      </c>
+      <c r="H58" s="3">
+        <v>10648400</v>
       </c>
       <c r="I58" s="3">
-        <v>12411100</v>
+        <v>10820700</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>11395100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>11668700</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>5924000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>6213600</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>5487700</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>5463000</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="3">
         <v>4013300</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
+      <c r="D59" s="3">
+        <v>11456700</v>
       </c>
       <c r="E59" s="3">
-        <v>8750500</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
+        <v>8454600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>8146900</v>
       </c>
       <c r="G59" s="3">
-        <v>8432100</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
+        <v>8744700</v>
+      </c>
+      <c r="H59" s="3">
+        <v>7688700</v>
       </c>
       <c r="I59" s="3">
-        <v>9050900</v>
+        <v>6508400</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>8227900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>7018400</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>7701900</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>6037900</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>6679200</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>5213900</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3">
         <v>6112000</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
+      <c r="D60" s="3">
+        <v>30533500</v>
       </c>
       <c r="E60" s="3">
-        <v>31534600</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
+        <v>30468000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>27619700</v>
       </c>
       <c r="G60" s="3">
-        <v>28586600</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
+        <v>25317800</v>
+      </c>
+      <c r="H60" s="3">
+        <v>24679700</v>
       </c>
       <c r="I60" s="3">
-        <v>26204200</v>
+        <v>22961500</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>26410300</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>24760900</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>19911800</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>17311100</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>16817500</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>14997600</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X60" s="3">
         <v>15036500</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>26238600</v>
       </c>
       <c r="E61" s="3">
-        <v>27078100</v>
+        <v>26162200</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>26978200</v>
       </c>
       <c r="G61" s="3">
-        <v>27922600</v>
+        <v>28364800</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>16880700</v>
       </c>
       <c r="I61" s="3">
-        <v>29357700</v>
+        <v>17156700</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>18064500</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>18501200</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>7103300</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>7347800</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>7905500</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>9213800</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>4615400</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
+      <c r="D62" s="3">
+        <v>26575700</v>
       </c>
       <c r="E62" s="3">
-        <v>24897800</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
+        <v>24055700</v>
+      </c>
+      <c r="F62" s="3">
+        <v>21593500</v>
       </c>
       <c r="G62" s="3">
-        <v>22349400</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
+        <v>18438600</v>
+      </c>
+      <c r="H62" s="3">
+        <v>21867300</v>
       </c>
       <c r="I62" s="3">
-        <v>19084000</v>
+        <v>20464400</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>23400700</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>22068100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>20706700</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>19544400</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>19458700</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>17915900</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3">
         <v>17580200</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4143,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4211,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4279,76 +4430,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
+      <c r="D66" s="3">
+        <v>85300400</v>
       </c>
       <c r="E66" s="3">
-        <v>85137500</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
+        <v>82257900</v>
+      </c>
+      <c r="F66" s="3">
+        <v>77737200</v>
       </c>
       <c r="G66" s="3">
-        <v>80458500</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
+        <v>73998600</v>
+      </c>
+      <c r="H66" s="3">
+        <v>65368400</v>
       </c>
       <c r="I66" s="3">
-        <v>76589100</v>
+        <v>62450200</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>69952400</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>67344200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>49690100</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>45841500</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>45761500</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>43746400</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X66" s="3">
         <v>39004500</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4373,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4441,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4509,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4577,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4645,76 +4812,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
+      <c r="D72" s="3">
+        <v>47344400</v>
       </c>
       <c r="E72" s="3">
-        <v>43387900</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
+        <v>41920400</v>
+      </c>
+      <c r="F72" s="3">
+        <v>38577900</v>
       </c>
       <c r="G72" s="3">
-        <v>39928400</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
+        <v>35149100</v>
+      </c>
+      <c r="H72" s="3">
+        <v>35828800</v>
       </c>
       <c r="I72" s="3">
-        <v>36379600</v>
+        <v>32824400</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>38341200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>35396700</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>34086400</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>29060800</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>28350400</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>25598200</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>25760400</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4781,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4849,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4917,76 +5096,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
+      <c r="D76" s="3">
+        <v>51402600</v>
       </c>
       <c r="E76" s="3">
-        <v>46499700</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
+        <v>44926900</v>
+      </c>
+      <c r="F76" s="3">
+        <v>40813100</v>
       </c>
       <c r="G76" s="3">
-        <v>42241900</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
+        <v>39066600</v>
+      </c>
+      <c r="H76" s="3">
+        <v>39912000</v>
       </c>
       <c r="I76" s="3">
-        <v>40434200</v>
+        <v>36739700</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3">
         <v>42710900</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>39618800</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>38199400</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>32929000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>32502900</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>30113100</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X76" s="3">
         <v>30980400</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5053,149 +5238,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
-        <v>5971800</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>4719600</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>589400</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>7360400</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
+        <v>5769800</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>4560000</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
+        <v>569500</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>4556400</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>3844500</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>3962700</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>3298400</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81" s="3">
         <v>3633000</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V81" s="3">
         <v>2386500</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X81" s="3">
         <v>2664500</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5220,76 +5414,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>3203400</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>2781000</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>1462100</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>1170500</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>1532600</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
         <v>1133200</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="3">
         <v>1526000</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5356,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5424,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5492,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5560,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5628,76 +5838,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>8707700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>4927900</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>6303700</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>3470800</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>5345200</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>2542400</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X89" s="3">
         <v>5407700</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5722,76 +5938,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-2034800</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1314000</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1961200</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-1038700</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-1257800</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-861700</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3">
         <v>-1928600</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5858,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5926,76 +6149,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-2896300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-3985600</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-2602400</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-1360400</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-8053600</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-1603300</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3">
         <v>-1367500</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6020,8 +6249,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6047,49 +6277,52 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1367000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-2837500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1190000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1876500</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-902100</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-1465300</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-826400</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6156,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6224,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6292,208 +6531,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-3917800</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1621100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>-3320400</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-1664600</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>4794300</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X100" s="3">
         <v>-3366500</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>28000</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>17600</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>45000</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>31800</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3">
         <v>-30300</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V101" s="3">
         <v>-97600</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="W101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X101" s="3">
         <v>-1200</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>1921600</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>-661100</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>425800</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>477600</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>-5270000</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>5585300</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X102" s="3">
         <v>672600</v>
       </c>
-      <c r="X102" s="3" t="s">
+      <c r="Y102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVMUY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVMUY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="92">
   <si>
     <t>LVMUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,318 +666,330 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>38781900</v>
+        <v>18685300</v>
       </c>
       <c r="E8" s="3">
-        <v>16922200</v>
+        <v>36897300</v>
       </c>
       <c r="F8" s="3">
-        <v>31270900</v>
+        <v>16099900</v>
       </c>
       <c r="G8" s="3">
-        <v>15228000</v>
+        <v>29751400</v>
       </c>
       <c r="H8" s="3">
-        <v>28645100</v>
+        <v>14488000</v>
       </c>
       <c r="I8" s="3">
-        <v>13041800</v>
+        <v>27253200</v>
       </c>
       <c r="J8" s="3">
+        <v>12408100</v>
+      </c>
+      <c r="K8" s="3">
         <v>20065100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11963900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33373900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16312000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>29506500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14998000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>29662400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12603400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>23881500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12178100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>25718300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11647400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>22118900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11601900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>23959800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>10726300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>12268400</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>11672200</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>9454200</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>9205100</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
+        <v>7638600</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
+        <v>11295900</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>9937100</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>9675300</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
-        <v>7638600</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
-        <v>11295900</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
-        <v>9937100</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>10048700</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>7828700</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>8866000</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3">
         <v>7720400</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X9" s="3">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="3">
         <v>8359900</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>26513500</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>21333800</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>18969800</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>25225100</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>20297200</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>18048000</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>12426600</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>22078100</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>19569400</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>19613700</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>16052800</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>16852300</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3">
         <v>14398500</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X10" s="3">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="3">
         <v>15599900</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1003,8 +1015,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1074,8 +1087,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,79 +1161,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>94900</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>21800</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>164700</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>90300</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>20800</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>156700</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>136400</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>101600</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>48200</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>62700</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>80200</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
         <v>150300</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="3">
         <v>111100</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="3">
         <v>159600</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1278,8 +1300,8 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>5</v>
+      <c r="W15" s="3">
+        <v>0</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>5</v>
@@ -1287,8 +1309,11 @@
       <c r="Y15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,150 +1336,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>28356000</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>22982200</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>21603300</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>26978100</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>21865400</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>20553500</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>18410200</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>26332100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>23341000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>23394200</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>18854900</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>20593000</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="3">
         <v>18141500</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="3">
         <v>19282200</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>10425800</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>8288700</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>9919200</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>7886000</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>6699600</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1654900</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>7041800</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1654900</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
-        <v>7041800</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>6165500</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>6268200</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>5026600</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>5125300</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="3">
         <v>3977500</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="3">
         <v>4677600</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1480,99 +1512,103 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>182200</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>146200</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>4400</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>173300</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>139100</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>-268400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>-151800</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>20000</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-332400</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>56000</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>57200</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="3">
         <v>66200</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-248800</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
+      <c r="E21" s="3">
+        <v>16143500</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
+      <c r="G21" s="3">
+        <v>10873000</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
+      <c r="I21" s="3">
+        <v>12983100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
@@ -1580,263 +1616,275 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>10093400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>8966500</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>7397900</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>6253100</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>6715100</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>5176900</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3">
         <v>5954700</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>111300</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>159300</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>163600</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>105900</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>151500</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>155700</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>235600</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>261500</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>261200</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100500</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>80200</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
         <v>102100</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="3">
         <v>87500</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X22" s="3">
+      <c r="X22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="3">
         <v>63400</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>10496700</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>8275600</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>6882600</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>9986700</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>7873500</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>6548100</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>1150900</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>6628600</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>5924400</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>5835200</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>5002500</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>5080400</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="3">
         <v>3956100</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="X23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="3">
         <v>4365400</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>2727300</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2192700</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>2070500</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2594800</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2086200</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1969900</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>557500</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>1752300</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>1683400</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>1460900</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>1387900</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>1154500</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="3">
         <v>1329600</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X24" s="3">
+      <c r="X24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="3">
         <v>1430900</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1906,150 +1954,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>7769500</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>6082900</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>4812000</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>7391900</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>5787300</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>4578200</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>593500</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>4876300</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>4240900</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>4374400</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>3614600</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
         <v>3925800</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W26" s="3">
         <v>2626600</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="3">
         <v>2934500</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>7360400</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>5769800</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>4560000</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>7002700</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>5489500</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>4338400</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>569500</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>4556400</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>3844500</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>3962700</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>3298400</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="3">
         <v>3633000</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W27" s="3">
         <v>2386500</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="3">
         <v>2664500</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2119,8 +2176,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2190,8 +2250,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2324,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,150 +2398,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-182200</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-146200</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-173300</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-139100</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>268400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>151800</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>-20000</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>332400</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>-56000</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>-57200</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W32" s="3">
         <v>-66200</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y32" s="3">
         <v>248800</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>7360400</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>5769800</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>4560000</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>7002700</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>5489500</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>4338400</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>569500</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>4556400</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>3844500</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>3962700</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>3298400</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="3">
         <v>3633000</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" s="3">
         <v>2386500</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y33" s="3">
         <v>2664500</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,155 +2620,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>7360400</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>5769800</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>4560000</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>7002700</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>5489500</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>4338400</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>569500</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>4556400</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>3844500</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>3962700</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>3298400</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
         <v>3633000</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="3">
         <v>2386500</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="3">
         <v>2664500</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2803,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,28 +2831,29 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8750200</v>
+        <v>8325000</v>
       </c>
       <c r="E41" s="3">
-        <v>7888400</v>
+        <v>7505100</v>
       </c>
       <c r="F41" s="3">
-        <v>21777800</v>
+        <v>20719600</v>
       </c>
       <c r="G41" s="3">
-        <v>15737500</v>
+        <v>14972700</v>
       </c>
       <c r="H41" s="3">
-        <v>6188700</v>
-      </c>
-      <c r="I41" s="3">
-        <v>4362500</v>
+        <v>5888000</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -2775,70 +2861,73 @@
       <c r="K41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>6622700</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>4704400</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>5453200</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>4635800</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>4194000</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>9479700</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="3">
         <v>4160000</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2775300</v>
+        <v>2640400</v>
       </c>
       <c r="E42" s="3">
-        <v>1602500</v>
+        <v>1524700</v>
       </c>
       <c r="F42" s="3">
-        <v>820400</v>
+        <v>780500</v>
       </c>
       <c r="G42" s="3">
-        <v>1039600</v>
+        <v>989100</v>
       </c>
       <c r="H42" s="3">
-        <v>799600</v>
-      </c>
-      <c r="I42" s="3">
-        <v>859600</v>
+        <v>760800</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
@@ -2846,70 +2935,73 @@
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>855700</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>927000</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>787800</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>799300</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>577800</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>572200</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="3">
         <v>439000</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6667600</v>
+        <v>6343600</v>
       </c>
       <c r="E43" s="3">
-        <v>5217800</v>
+        <v>4964300</v>
       </c>
       <c r="F43" s="3">
-        <v>5103300</v>
+        <v>4855300</v>
       </c>
       <c r="G43" s="3">
-        <v>5289800</v>
+        <v>5032800</v>
       </c>
       <c r="H43" s="3">
-        <v>6000000</v>
-      </c>
-      <c r="I43" s="3">
-        <v>5341100</v>
+        <v>5708500</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
@@ -2917,70 +3009,73 @@
       <c r="K43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>6420800</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>5759700</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>5939300</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>4967400</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>5413600</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3">
         <v>4061600</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y43" s="3">
         <v>4816100</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>18053500</v>
+        <v>17176200</v>
       </c>
       <c r="E44" s="3">
-        <v>17513500</v>
+        <v>16662400</v>
       </c>
       <c r="F44" s="3">
-        <v>14199300</v>
+        <v>13509300</v>
       </c>
       <c r="G44" s="3">
-        <v>15357800</v>
+        <v>14611600</v>
       </c>
       <c r="H44" s="3">
-        <v>14964000</v>
-      </c>
-      <c r="I44" s="3">
-        <v>14793800</v>
+        <v>14236900</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
@@ -2988,70 +3083,73 @@
       <c r="K44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>16013400</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>15953200</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>14768500</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>13047500</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>12216200</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="3">
         <v>12190400</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y44" s="3">
         <v>12379000</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1172700</v>
+        <v>1115700</v>
       </c>
       <c r="E45" s="3">
-        <v>1174900</v>
+        <v>1117800</v>
       </c>
       <c r="F45" s="3">
-        <v>1706200</v>
+        <v>1623300</v>
       </c>
       <c r="G45" s="3">
-        <v>1936400</v>
+        <v>1842300</v>
       </c>
       <c r="H45" s="3">
-        <v>967600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>940400</v>
+        <v>920600</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
@@ -3059,70 +3157,73 @@
       <c r="K45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>1035500</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>1014100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>909700</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>888300</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
         <v>1228600</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
         <v>1173600</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X45" s="3">
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y45" s="3">
         <v>975400</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>37419300</v>
+        <v>35601000</v>
       </c>
       <c r="E46" s="3">
-        <v>33397100</v>
+        <v>31774300</v>
       </c>
       <c r="F46" s="3">
-        <v>43606900</v>
+        <v>41488000</v>
       </c>
       <c r="G46" s="3">
-        <v>39361100</v>
+        <v>37448500</v>
       </c>
       <c r="H46" s="3">
-        <v>28920000</v>
-      </c>
-      <c r="I46" s="3">
-        <v>26297500</v>
+        <v>27514700</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
@@ -3130,70 +3231,73 @@
       <c r="K46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>30948000</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>28358300</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>27858500</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>24338300</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>23630200</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="3">
         <v>27477500</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y46" s="3">
         <v>22769600</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3645800</v>
+        <v>3468700</v>
       </c>
       <c r="E47" s="3">
-        <v>3034900</v>
+        <v>2887400</v>
       </c>
       <c r="F47" s="3">
-        <v>2637800</v>
+        <v>2509600</v>
       </c>
       <c r="G47" s="3">
-        <v>2821100</v>
+        <v>2684000</v>
       </c>
       <c r="H47" s="3">
-        <v>2955300</v>
-      </c>
-      <c r="I47" s="3">
-        <v>2550500</v>
+        <v>2811700</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -3201,70 +3305,73 @@
       <c r="K47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>3162500</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>2750400</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>2862600</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>2390300</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>2257400</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="3">
         <v>2228300</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y47" s="3">
         <v>2461500</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>36644800</v>
+        <v>34864100</v>
       </c>
       <c r="E48" s="3">
-        <v>35830900</v>
+        <v>34089800</v>
       </c>
       <c r="F48" s="3">
-        <v>33197500</v>
+        <v>31584300</v>
       </c>
       <c r="G48" s="3">
-        <v>34292800</v>
+        <v>32626400</v>
       </c>
       <c r="H48" s="3">
-        <v>33360000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>30535700</v>
+        <v>31739000</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -3272,70 +3379,73 @@
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>35699400</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>32928600</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>17876000</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>15549900</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>30370000</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>27241900</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="3">
         <v>14248900</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>55376800</v>
+        <v>52685900</v>
       </c>
       <c r="E49" s="3">
-        <v>51810600</v>
+        <v>49293000</v>
       </c>
       <c r="F49" s="3">
-        <v>36400400</v>
+        <v>34631600</v>
       </c>
       <c r="G49" s="3">
-        <v>33838900</v>
+        <v>32194600</v>
       </c>
       <c r="H49" s="3">
-        <v>36663300</v>
-      </c>
-      <c r="I49" s="3">
-        <v>36732000</v>
+        <v>34881700</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -3343,50 +3453,53 @@
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>39234300</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>39610600</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>36647400</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>34095100</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>68466100</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>56139900</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y49" s="3">
         <v>27861600</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3569,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,28 +3643,31 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3616400</v>
+        <v>3440600</v>
       </c>
       <c r="E52" s="3">
-        <v>3111300</v>
+        <v>2960100</v>
       </c>
       <c r="F52" s="3">
-        <v>2707600</v>
+        <v>2576100</v>
       </c>
       <c r="G52" s="3">
-        <v>2751300</v>
+        <v>2617600</v>
       </c>
       <c r="H52" s="3">
-        <v>3381800</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3074200</v>
+        <v>3217500</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -3556,50 +3675,53 @@
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>3619000</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>3315100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>2645000</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>2396900</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>2273200</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>2462800</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="3">
         <v>2643400</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,28 +3791,31 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>136703000</v>
+        <v>130060300</v>
       </c>
       <c r="E54" s="3">
-        <v>127184800</v>
+        <v>121004600</v>
       </c>
       <c r="F54" s="3">
-        <v>118550300</v>
+        <v>112789600</v>
       </c>
       <c r="G54" s="3">
-        <v>113065200</v>
+        <v>107571100</v>
       </c>
       <c r="H54" s="3">
-        <v>105280500</v>
-      </c>
-      <c r="I54" s="3">
-        <v>99189900</v>
+        <v>100164600</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
@@ -3698,50 +3823,53 @@
       <c r="K54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>112663200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>106963000</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>87889500</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>78770500</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>78264400</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="3">
         <v>73859500</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y54" s="3">
         <v>69984900</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +3895,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,28 +3923,29 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7730200</v>
+        <v>7354600</v>
       </c>
       <c r="E57" s="3">
-        <v>6176700</v>
+        <v>5876600</v>
       </c>
       <c r="F57" s="3">
-        <v>5561500</v>
+        <v>5291200</v>
       </c>
       <c r="G57" s="3">
-        <v>4581800</v>
+        <v>4359200</v>
       </c>
       <c r="H57" s="3">
-        <v>6342600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>5632400</v>
+        <v>6034400</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -3823,70 +3953,73 @@
       <c r="K57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>6787300</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>6073800</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>6285900</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>5059600</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>5092700</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>4320800</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y57" s="3">
         <v>4911200</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11346600</v>
+        <v>10795200</v>
       </c>
       <c r="E58" s="3">
-        <v>15836700</v>
+        <v>15067200</v>
       </c>
       <c r="F58" s="3">
-        <v>13911300</v>
+        <v>13235300</v>
       </c>
       <c r="G58" s="3">
-        <v>11991300</v>
+        <v>11408600</v>
       </c>
       <c r="H58" s="3">
-        <v>10648400</v>
-      </c>
-      <c r="I58" s="3">
-        <v>10820700</v>
+        <v>10130900</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -3894,70 +4027,73 @@
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>11395100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>11668700</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>5924000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>6213600</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>5487700</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>5463000</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="3">
         <v>4013300</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11456700</v>
+        <v>10900000</v>
       </c>
       <c r="E59" s="3">
-        <v>8454600</v>
+        <v>8043700</v>
       </c>
       <c r="F59" s="3">
-        <v>8146900</v>
+        <v>7751000</v>
       </c>
       <c r="G59" s="3">
-        <v>8744700</v>
+        <v>8319800</v>
       </c>
       <c r="H59" s="3">
-        <v>7688700</v>
-      </c>
-      <c r="I59" s="3">
-        <v>6508400</v>
+        <v>7315100</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -3965,70 +4101,73 @@
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>8227900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>7018400</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>7701900</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>6037900</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>6679200</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>5213900</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="3">
         <v>6112000</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>30533500</v>
+        <v>29049800</v>
       </c>
       <c r="E60" s="3">
-        <v>30468000</v>
+        <v>28987500</v>
       </c>
       <c r="F60" s="3">
-        <v>27619700</v>
+        <v>26277600</v>
       </c>
       <c r="G60" s="3">
-        <v>25317800</v>
+        <v>24087600</v>
       </c>
       <c r="H60" s="3">
-        <v>24679700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>22961500</v>
+        <v>23480400</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
@@ -4036,70 +4175,73 @@
       <c r="K60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>26410300</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>24760900</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>19911800</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>17311100</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>16817500</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="3">
         <v>14997600</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y60" s="3">
         <v>15036500</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>26238600</v>
+        <v>24963600</v>
       </c>
       <c r="E61" s="3">
-        <v>26162200</v>
+        <v>24890900</v>
       </c>
       <c r="F61" s="3">
-        <v>26978200</v>
+        <v>25667300</v>
       </c>
       <c r="G61" s="3">
-        <v>28364800</v>
+        <v>26986400</v>
       </c>
       <c r="H61" s="3">
-        <v>16880700</v>
+        <v>16060500</v>
       </c>
       <c r="I61" s="3">
-        <v>17156700</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4108,69 +4250,72 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>18064500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>18501200</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>7103300</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>7347800</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>7905500</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>9213800</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>4615400</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26575700</v>
+        <v>25284300</v>
       </c>
       <c r="E62" s="3">
-        <v>24055700</v>
+        <v>22886700</v>
       </c>
       <c r="F62" s="3">
-        <v>21593500</v>
+        <v>20544200</v>
       </c>
       <c r="G62" s="3">
-        <v>18438600</v>
+        <v>17542600</v>
       </c>
       <c r="H62" s="3">
-        <v>21867300</v>
-      </c>
-      <c r="I62" s="3">
-        <v>20464400</v>
+        <v>20804700</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -4178,50 +4323,53 @@
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>23400700</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>22068100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>20706700</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>19544400</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>19458700</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
         <v>17915900</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y62" s="3">
         <v>17580200</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4439,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4362,8 +4513,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,28 +4587,31 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>85300400</v>
+        <v>81155500</v>
       </c>
       <c r="E66" s="3">
-        <v>82257900</v>
+        <v>78260800</v>
       </c>
       <c r="F66" s="3">
-        <v>77737200</v>
+        <v>73959700</v>
       </c>
       <c r="G66" s="3">
-        <v>73998600</v>
+        <v>70402800</v>
       </c>
       <c r="H66" s="3">
-        <v>65368400</v>
-      </c>
-      <c r="I66" s="3">
-        <v>62450200</v>
+        <v>62192000</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -4462,50 +4619,53 @@
       <c r="K66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>69952400</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>67344200</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>49690100</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>45841500</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>45761500</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>43746400</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y66" s="3">
         <v>39004500</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4691,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4763,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +4837,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4744,8 +4911,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,28 +4985,31 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>47344400</v>
+        <v>45043800</v>
       </c>
       <c r="E72" s="3">
-        <v>41920400</v>
+        <v>39883400</v>
       </c>
       <c r="F72" s="3">
-        <v>38577900</v>
+        <v>36703300</v>
       </c>
       <c r="G72" s="3">
-        <v>35149100</v>
+        <v>33441100</v>
       </c>
       <c r="H72" s="3">
-        <v>35828800</v>
-      </c>
-      <c r="I72" s="3">
-        <v>32824400</v>
+        <v>34087700</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -4844,50 +5017,53 @@
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>38341200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>35396700</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>34086400</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>29060800</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>28350400</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>25598200</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3">
         <v>25760400</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5133,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5207,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,28 +5281,31 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>51402600</v>
+        <v>48904800</v>
       </c>
       <c r="E76" s="3">
-        <v>44926900</v>
+        <v>42743800</v>
       </c>
       <c r="F76" s="3">
-        <v>40813100</v>
+        <v>38829900</v>
       </c>
       <c r="G76" s="3">
-        <v>39066600</v>
+        <v>37168200</v>
       </c>
       <c r="H76" s="3">
-        <v>39912000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>36739700</v>
+        <v>37972600</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
@@ -5128,50 +5313,53 @@
       <c r="K76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>42710900</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>39618800</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>38199400</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>32929000</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>32502900</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W76" s="3">
         <v>30113100</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y76" s="3">
         <v>30980400</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,155 +5429,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>7360400</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>5769800</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>4560000</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>7002700</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
+        <v>5489500</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
+        <v>4338400</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>569500</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>4556400</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>3844500</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>3962700</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>3298400</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="3">
         <v>3633000</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W81" s="3">
         <v>2386500</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y81" s="3">
         <v>2664500</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,79 +5612,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
+        <v>6051000</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
+        <v>2848000</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+        <v>6279300</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>3203400</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>2781000</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1462100</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>1170500</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>1532600</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3">
         <v>1133200</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y83" s="3">
         <v>1526000</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5758,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +5832,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +5906,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +5980,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,79 +6054,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
+        <v>19354800</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
+        <v>8014700</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+        <v>11310000</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>8707700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>4927900</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>6303700</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>3470800</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>5345200</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>2542400</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y89" s="3">
         <v>5407700</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,79 +6158,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+        <v>-2765000</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+        <v>-1000</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+        <v>-2059200</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-2034800</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1314000</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1961200</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-1038700</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-1257800</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-861700</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-1928600</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6304,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,79 +6378,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+        <v>-16584600</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+        <v>-14498400</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+        <v>-3050400</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-2896300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-3985600</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-2602400</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-1360400</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-8053600</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>-1603300</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-1367500</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,8 +6482,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6259,19 +6492,19 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-4318700</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-2163000</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-2526200</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -6280,49 +6513,52 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1367000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-2837500</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1190000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1876500</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-902100</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-1465300</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-826400</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6628,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6702,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,217 +6776,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
+        <v>-15730400</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
+        <v>-7015200</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+        <v>7683600</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-3917800</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1621100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-3320400</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-1664600</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>4794300</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-3366500</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
+        <v>516900</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
+        <v>119400</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+        <v>-1091900</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>28000</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>17600</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>45000</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>31800</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
         <v>-30300</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W101" s="3">
         <v>-97600</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="X101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
+        <v>-12443400</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
+        <v>-13379600</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+        <v>14851300</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>1921600</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>-661100</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>425800</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>477600</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>-5270000</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>5585300</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y102" s="3">
         <v>672600</v>
       </c>
-      <c r="Y102" s="3" t="s">
+      <c r="Z102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVMUY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVMUY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="92">
   <si>
     <t>LVMUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,330 +666,343 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18685300</v>
+        <v>36633500</v>
       </c>
       <c r="E8" s="3">
-        <v>36897300</v>
+        <v>17956200</v>
       </c>
       <c r="F8" s="3">
-        <v>16099900</v>
+        <v>35457600</v>
       </c>
       <c r="G8" s="3">
-        <v>29751400</v>
+        <v>15471700</v>
       </c>
       <c r="H8" s="3">
-        <v>14488000</v>
+        <v>28590500</v>
       </c>
       <c r="I8" s="3">
-        <v>27253200</v>
+        <v>13922700</v>
       </c>
       <c r="J8" s="3">
+        <v>26189700</v>
+      </c>
+      <c r="K8" s="3">
         <v>12408100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20065100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11963900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>33373900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16312000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>29506500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14998000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>29662400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12603400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>23881500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12178100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>25718300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11647400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>22118900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11601900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>23959800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>10726300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>11672200</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>9454200</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>9205100</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>11388300</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>11216800</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>9083300</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>8845900</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>7638600</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>11295900</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>9937100</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>10048700</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>7828700</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
         <v>8866000</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3">
         <v>7720400</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="3">
         <v>8359900</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>25225100</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>20297200</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>18048000</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="3">
+        <v>25245200</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>24240800</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>19507100</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>17343800</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>12426600</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>22078100</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>19569400</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>19613700</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>16052800</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
         <v>16852300</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3">
         <v>14398500</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3">
         <v>15599900</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1016,8 +1029,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1090,8 +1104,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1164,82 +1181,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>90300</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>20800</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>156700</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="D14" s="3">
+        <v>105700</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>86800</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>30900</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>150600</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>136400</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>101600</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>48200</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>62700</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
         <v>80200</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
         <v>150300</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="3">
         <v>111100</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="3">
         <v>159600</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1303,8 +1326,8 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>5</v>
+      <c r="X15" s="3">
+        <v>0</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>5</v>
@@ -1312,8 +1335,11 @@
       <c r="Z15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1337,156 +1363,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>26978100</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>21865400</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>20553500</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>26532800</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>25925400</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>21023200</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>19751500</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>18410200</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>26332100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>23341000</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>23394200</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>18854900</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="3">
         <v>20593000</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="3">
         <v>18141500</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="3">
         <v>19282200</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>9919200</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>7886000</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>6699600</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>10100700</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>9532200</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>7567300</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6438200</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>1654900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>7041800</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>6165500</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>6268200</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>5026600</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="3">
         <v>5125300</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="3">
         <v>3977500</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="3">
         <v>4677600</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1513,105 +1546,109 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>173300</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>139100</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>4200</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>-665300</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>166600</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>144600</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>-268400</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>-151800</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>20000</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>-332400</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>56000</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="3">
         <v>57200</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="3">
         <v>66200</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-248800</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>16143500</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>10873000</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
-        <v>12983100</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>12433600</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>15513600</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>10406900</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>12476500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1619,272 +1656,284 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>10093400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>8966500</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>7397900</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>6253100</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>6715100</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3">
         <v>5176900</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="3">
         <v>5954700</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>105900</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>151500</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>155700</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="D22" s="3">
+        <v>130700</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>101700</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>132700</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>149600</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>235600</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>261500</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>261200</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>100500</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>80200</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3">
         <v>102100</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" s="3">
         <v>87500</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="3">
         <v>63400</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>9986700</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>7873500</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>6548100</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>9304700</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>9597000</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>7579200</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>6292600</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>1150900</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>6628600</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>5924400</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>5835200</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>5002500</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="3">
         <v>5080400</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="3">
         <v>3956100</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="3">
         <v>4365400</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2594800</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>2086200</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1969900</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>2378800</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2493500</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2006800</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1893100</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>557500</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>1752300</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>1683400</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>1460900</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>1387900</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
         <v>1154500</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X24" s="3">
         <v>1329600</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="3">
         <v>1430900</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1957,156 +2006,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>7391900</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>5787300</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>4578200</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>6925900</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>7103500</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>5572500</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>4399500</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>593500</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>4876300</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>4240900</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>4374400</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <v>3614600</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="3">
         <v>3925800</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X26" s="3">
         <v>2626600</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Y26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="3">
         <v>2934500</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>7002700</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>5489500</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>4338400</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>6515000</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>6729500</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>5286200</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>4169100</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>569500</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>4556400</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>3844500</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>3962700</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3">
         <v>3298400</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V27" s="3">
         <v>3633000</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X27" s="3">
         <v>2386500</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Y27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="3">
         <v>2664500</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2179,8 +2237,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2253,8 +2314,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2327,8 +2391,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2401,156 +2468,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-173300</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-139100</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>665300</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-166600</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-144600</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>268400</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>151800</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>-20000</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>332400</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>-56000</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="3">
         <v>-57200</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X32" s="3">
         <v>-66200</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="3">
         <v>248800</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>7002700</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>5489500</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>4338400</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>6515000</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>6729500</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>5286200</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
+        <v>4169100</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>569500</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>4556400</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>3844500</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>3962700</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3">
         <v>3298400</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V33" s="3">
         <v>3633000</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X33" s="3">
         <v>2386500</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z33" s="3">
         <v>2664500</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2623,161 +2699,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>7002700</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>5489500</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>4338400</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>6515000</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>6729500</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>5286200</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>4169100</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>569500</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>4556400</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>3844500</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>3962700</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="3">
         <v>3298400</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V35" s="3">
         <v>3633000</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X35" s="3">
         <v>2386500</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Y35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z35" s="3">
         <v>2664500</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2804,8 +2889,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2832,28 +2918,29 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8325000</v>
+        <v>7878500</v>
       </c>
       <c r="E41" s="3">
-        <v>7505100</v>
+        <v>8000100</v>
       </c>
       <c r="F41" s="3">
-        <v>20719600</v>
+        <v>7211200</v>
       </c>
       <c r="G41" s="3">
-        <v>14972700</v>
+        <v>19911100</v>
       </c>
       <c r="H41" s="3">
-        <v>5888000</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
+        <v>14388500</v>
+      </c>
+      <c r="I41" s="3">
+        <v>5658300</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -2864,70 +2951,73 @@
       <c r="L41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>6622700</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>4704400</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>5453200</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>4635800</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>4194000</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="3">
         <v>9479700</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="3">
         <v>4160000</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2640400</v>
+        <v>2491500</v>
       </c>
       <c r="E42" s="3">
-        <v>1524700</v>
+        <v>2537400</v>
       </c>
       <c r="F42" s="3">
-        <v>780500</v>
+        <v>1465200</v>
       </c>
       <c r="G42" s="3">
-        <v>989100</v>
+        <v>750000</v>
       </c>
       <c r="H42" s="3">
-        <v>760800</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
+        <v>950500</v>
+      </c>
+      <c r="I42" s="3">
+        <v>731100</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
@@ -2938,70 +3028,73 @@
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>855700</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>927000</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>787800</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>799300</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>577800</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W42" s="3">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X42" s="3">
         <v>572200</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="3">
         <v>439000</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6343600</v>
+        <v>6621700</v>
       </c>
       <c r="E43" s="3">
-        <v>4964300</v>
+        <v>6096100</v>
       </c>
       <c r="F43" s="3">
-        <v>4855300</v>
+        <v>4814400</v>
       </c>
       <c r="G43" s="3">
-        <v>5032800</v>
+        <v>4665800</v>
       </c>
       <c r="H43" s="3">
-        <v>5708500</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
+        <v>4836400</v>
+      </c>
+      <c r="I43" s="3">
+        <v>5485700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
@@ -3012,70 +3105,73 @@
       <c r="L43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>6420800</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>5759700</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>5939300</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>4967400</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
         <v>5413600</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X43" s="3">
         <v>4061600</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y43" s="3">
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z43" s="3">
         <v>4816100</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>17176200</v>
+        <v>18870800</v>
       </c>
       <c r="E44" s="3">
-        <v>16662400</v>
+        <v>16506000</v>
       </c>
       <c r="F44" s="3">
-        <v>13509300</v>
+        <v>15790800</v>
       </c>
       <c r="G44" s="3">
-        <v>14611600</v>
+        <v>12982200</v>
       </c>
       <c r="H44" s="3">
-        <v>14236900</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
+        <v>14041400</v>
+      </c>
+      <c r="I44" s="3">
+        <v>13681300</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
@@ -3086,70 +3182,73 @@
       <c r="L44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>16013400</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>15953200</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>14768500</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>13047500</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
         <v>12216200</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X44" s="3">
         <v>12190400</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y44" s="3">
+      <c r="Y44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z44" s="3">
         <v>12379000</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1115700</v>
+        <v>1331500</v>
       </c>
       <c r="E45" s="3">
-        <v>1117800</v>
+        <v>1072200</v>
       </c>
       <c r="F45" s="3">
-        <v>1623300</v>
+        <v>1074200</v>
       </c>
       <c r="G45" s="3">
-        <v>1842300</v>
+        <v>1559900</v>
       </c>
       <c r="H45" s="3">
-        <v>920600</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
+        <v>1770400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>884700</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
@@ -3160,70 +3259,73 @@
       <c r="L45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
         <v>1035500</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>1014100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>909700</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
         <v>888300</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3">
         <v>1228600</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X45" s="3">
         <v>1173600</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y45" s="3">
+      <c r="Y45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="3">
         <v>975400</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>35601000</v>
+        <v>37194000</v>
       </c>
       <c r="E46" s="3">
-        <v>31774300</v>
+        <v>34211800</v>
       </c>
       <c r="F46" s="3">
-        <v>41488000</v>
+        <v>30355900</v>
       </c>
       <c r="G46" s="3">
-        <v>37448500</v>
+        <v>39869100</v>
       </c>
       <c r="H46" s="3">
-        <v>27514700</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
+        <v>35987200</v>
+      </c>
+      <c r="I46" s="3">
+        <v>26441100</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
@@ -3234,70 +3336,73 @@
       <c r="L46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>30948000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>28358300</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>27858500</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>24338300</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="3">
         <v>23630200</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X46" s="3">
         <v>27477500</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y46" s="3">
+      <c r="Y46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z46" s="3">
         <v>22769600</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3468700</v>
+        <v>3420100</v>
       </c>
       <c r="E47" s="3">
-        <v>2887400</v>
+        <v>3333300</v>
       </c>
       <c r="F47" s="3">
-        <v>2509600</v>
+        <v>2776800</v>
       </c>
       <c r="G47" s="3">
-        <v>2684000</v>
+        <v>2411700</v>
       </c>
       <c r="H47" s="3">
-        <v>2811700</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
+        <v>2579300</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2702000</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -3308,70 +3413,73 @@
       <c r="L47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>3162500</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>2750400</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>2862600</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>2390300</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3">
         <v>2257400</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X47" s="3">
         <v>2228300</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y47" s="3">
+      <c r="Y47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z47" s="3">
         <v>2461500</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>34864100</v>
+        <v>35322900</v>
       </c>
       <c r="E48" s="3">
-        <v>34089800</v>
+        <v>33503700</v>
       </c>
       <c r="F48" s="3">
-        <v>31584300</v>
+        <v>65639900</v>
       </c>
       <c r="G48" s="3">
-        <v>32626400</v>
+        <v>30351900</v>
       </c>
       <c r="H48" s="3">
-        <v>31739000</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
+        <v>31353300</v>
+      </c>
+      <c r="I48" s="3">
+        <v>30500500</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -3382,70 +3490,73 @@
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>35699400</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>32928600</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>17876000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>15549900</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>30370000</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
         <v>27241900</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="3">
         <v>14248900</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>52685900</v>
+        <v>51128700</v>
       </c>
       <c r="E49" s="3">
-        <v>49293000</v>
+        <v>50630000</v>
       </c>
       <c r="F49" s="3">
-        <v>34631600</v>
+        <v>96543300</v>
       </c>
       <c r="G49" s="3">
-        <v>32194600</v>
+        <v>33280200</v>
       </c>
       <c r="H49" s="3">
-        <v>34881700</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
+        <v>30938400</v>
+      </c>
+      <c r="I49" s="3">
+        <v>33520600</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -3456,50 +3567,53 @@
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>39234300</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>39610600</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>36647400</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>34095100</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>68466100</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3">
         <v>56139900</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z49" s="3">
         <v>27861600</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3572,8 +3686,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3646,28 +3763,31 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3440600</v>
+        <v>3901800</v>
       </c>
       <c r="E52" s="3">
-        <v>2960100</v>
+        <v>3306400</v>
       </c>
       <c r="F52" s="3">
-        <v>2576100</v>
+        <v>3029100</v>
       </c>
       <c r="G52" s="3">
-        <v>2617600</v>
+        <v>2475500</v>
       </c>
       <c r="H52" s="3">
-        <v>3217500</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
+        <v>2515400</v>
+      </c>
+      <c r="I52" s="3">
+        <v>3091900</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -3678,50 +3798,53 @@
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>3619000</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>3315100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>2645000</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>2396900</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>2273200</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>2462800</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="3">
         <v>2643400</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3794,28 +3917,31 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>130060300</v>
+        <v>130967600</v>
       </c>
       <c r="E54" s="3">
-        <v>121004600</v>
+        <v>124985200</v>
       </c>
       <c r="F54" s="3">
-        <v>112789600</v>
+        <v>118216800</v>
       </c>
       <c r="G54" s="3">
-        <v>107571100</v>
+        <v>108388500</v>
       </c>
       <c r="H54" s="3">
-        <v>100164600</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
+        <v>103373500</v>
+      </c>
+      <c r="I54" s="3">
+        <v>96256100</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
@@ -3826,50 +3952,53 @@
       <c r="L54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>112663200</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>106963000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>87889500</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>78770500</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>78264400</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X54" s="3">
         <v>73859500</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z54" s="3">
         <v>69984900</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3896,8 +4025,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3924,28 +4054,29 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7354600</v>
+        <v>7549300</v>
       </c>
       <c r="E57" s="3">
-        <v>5876600</v>
+        <v>7067600</v>
       </c>
       <c r="F57" s="3">
-        <v>5291200</v>
+        <v>5646300</v>
       </c>
       <c r="G57" s="3">
-        <v>4359200</v>
+        <v>5084700</v>
       </c>
       <c r="H57" s="3">
-        <v>6034400</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
+        <v>4189100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>5798900</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -3956,70 +4087,73 @@
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>6787300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>6073800</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>6285900</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>5059600</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>5092700</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X57" s="3">
         <v>4320800</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z57" s="3">
         <v>4911200</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10795200</v>
+        <v>13609500</v>
       </c>
       <c r="E58" s="3">
-        <v>15067200</v>
+        <v>10374000</v>
       </c>
       <c r="F58" s="3">
-        <v>13235300</v>
+        <v>14422400</v>
       </c>
       <c r="G58" s="3">
-        <v>11408600</v>
+        <v>12718800</v>
       </c>
       <c r="H58" s="3">
-        <v>10130900</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+        <v>10963400</v>
+      </c>
+      <c r="I58" s="3">
+        <v>9735600</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -4030,70 +4164,73 @@
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>11395100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>11668700</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>5924000</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>6213600</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>5487700</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="3">
         <v>5463000</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z58" s="3">
         <v>4013300</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10900000</v>
+        <v>10692100</v>
       </c>
       <c r="E59" s="3">
-        <v>8043700</v>
+        <v>10474700</v>
       </c>
       <c r="F59" s="3">
-        <v>7751000</v>
+        <v>7778700</v>
       </c>
       <c r="G59" s="3">
-        <v>8319800</v>
+        <v>7448600</v>
       </c>
       <c r="H59" s="3">
-        <v>7315100</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
+        <v>7995200</v>
+      </c>
+      <c r="I59" s="3">
+        <v>7029700</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -4104,70 +4241,73 @@
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>8227900</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>7018400</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>7701900</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>6037900</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>6679200</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3">
         <v>5213900</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z59" s="3">
         <v>6112000</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>29049800</v>
+        <v>31851000</v>
       </c>
       <c r="E60" s="3">
-        <v>28987500</v>
+        <v>27916200</v>
       </c>
       <c r="F60" s="3">
-        <v>26277600</v>
+        <v>27847400</v>
       </c>
       <c r="G60" s="3">
-        <v>24087600</v>
+        <v>25252200</v>
       </c>
       <c r="H60" s="3">
-        <v>23480400</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
+        <v>23147700</v>
+      </c>
+      <c r="I60" s="3">
+        <v>22564200</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
@@ -4178,70 +4318,73 @@
       <c r="L60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>26410300</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>24760900</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>19911800</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>17311100</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>16817500</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X60" s="3">
         <v>14997600</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z60" s="3">
         <v>15036500</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>24963600</v>
+        <v>23071900</v>
       </c>
       <c r="E61" s="3">
-        <v>24890900</v>
+        <v>23989500</v>
       </c>
       <c r="F61" s="3">
-        <v>25667300</v>
+        <v>24082200</v>
       </c>
       <c r="G61" s="3">
-        <v>26986400</v>
+        <v>24665700</v>
       </c>
       <c r="H61" s="3">
-        <v>16060500</v>
+        <v>25933400</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>15433800</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4253,69 +4396,72 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>18064500</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>18501200</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>7103300</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>7347800</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>7905500</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>9213800</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>4615400</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>25284300</v>
+        <v>23468800</v>
       </c>
       <c r="E62" s="3">
-        <v>22886700</v>
+        <v>24297700</v>
       </c>
       <c r="F62" s="3">
-        <v>20544200</v>
+        <v>23774000</v>
       </c>
       <c r="G62" s="3">
-        <v>17542600</v>
+        <v>19742500</v>
       </c>
       <c r="H62" s="3">
-        <v>20804700</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
+        <v>16858100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>19992900</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -4326,50 +4472,53 @@
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>23400700</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>22068100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>20706700</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>19544400</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>19458700</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3">
         <v>17915900</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y62" s="3">
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z62" s="3">
         <v>17580200</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4442,8 +4591,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4516,8 +4668,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4590,28 +4745,31 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>81155500</v>
+        <v>80345600</v>
       </c>
       <c r="E66" s="3">
-        <v>78260800</v>
+        <v>77988700</v>
       </c>
       <c r="F66" s="3">
-        <v>73959700</v>
+        <v>77129900</v>
       </c>
       <c r="G66" s="3">
-        <v>70402800</v>
+        <v>71073700</v>
       </c>
       <c r="H66" s="3">
-        <v>62192000</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
+        <v>67655600</v>
+      </c>
+      <c r="I66" s="3">
+        <v>59765200</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -4622,50 +4780,53 @@
       <c r="L66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>69952400</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>67344200</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>49690100</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>45841500</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>45761500</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X66" s="3">
         <v>43746400</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z66" s="3">
         <v>39004500</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4692,8 +4853,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4766,8 +4928,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4840,8 +5005,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4914,8 +5082,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4988,28 +5159,31 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>45043800</v>
+        <v>46111800</v>
       </c>
       <c r="E72" s="3">
-        <v>39883400</v>
+        <v>43286200</v>
       </c>
       <c r="F72" s="3">
-        <v>36703300</v>
+        <v>38338100</v>
       </c>
       <c r="G72" s="3">
-        <v>33441100</v>
+        <v>35271100</v>
       </c>
       <c r="H72" s="3">
-        <v>34087700</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
+        <v>32136200</v>
+      </c>
+      <c r="I72" s="3">
+        <v>32757600</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -5020,50 +5194,53 @@
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>38341200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>35396700</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>34086400</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>29060800</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>28350400</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>25598200</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z72" s="3">
         <v>25760400</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5136,8 +5313,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5210,8 +5390,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5284,28 +5467,31 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>48904800</v>
+        <v>50622000</v>
       </c>
       <c r="E76" s="3">
-        <v>42743800</v>
+        <v>46996500</v>
       </c>
       <c r="F76" s="3">
-        <v>38829900</v>
+        <v>41086900</v>
       </c>
       <c r="G76" s="3">
-        <v>37168200</v>
+        <v>37314700</v>
       </c>
       <c r="H76" s="3">
-        <v>37972600</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
+        <v>35717900</v>
+      </c>
+      <c r="I76" s="3">
+        <v>36490900</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
@@ -5316,50 +5502,53 @@
       <c r="L76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>42710900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>39618800</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>38199400</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>32929000</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>32502900</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X76" s="3">
         <v>30113100</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z76" s="3">
         <v>30980400</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5432,161 +5621,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
-        <v>7002700</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>5489500</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>4338400</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>6515000</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
+        <v>6729500</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>5286200</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
+        <v>4169100</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>569500</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>4556400</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>3844500</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>3962700</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81" s="3">
         <v>3298400</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V81" s="3">
         <v>3633000</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X81" s="3">
         <v>2386500</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Y81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z81" s="3">
         <v>2664500</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5613,82 +5811,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3">
-        <v>6051000</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3">
-        <v>2848000</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3">
-        <v>6279300</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="D83" s="3">
+        <v>2998200</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3">
+        <v>5814800</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
+        <v>2736900</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
+        <v>6034300</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>3203400</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>2781000</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>1462100</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>1170500</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
         <v>1532600</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="3">
         <v>1133200</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z83" s="3">
         <v>1526000</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5761,8 +5963,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5835,8 +6040,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5909,8 +6117,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5983,8 +6194,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6057,82 +6271,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3">
-        <v>19354800</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
-        <v>8014700</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3">
-        <v>11310000</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="D89" s="3">
+        <v>7247100</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3">
+        <v>18599500</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
+        <v>7701900</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
+        <v>10868700</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>8707700</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>4927900</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>6303700</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>3470800</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>5345200</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X89" s="3">
         <v>2542400</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="Y89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z89" s="3">
         <v>5407700</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6159,82 +6379,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-2765000</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="D91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-2059200</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-2657100</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1978800</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-2034800</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1314000</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-1961200</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-1038700</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-1257800</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3">
         <v>-861700</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-1928600</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6307,8 +6531,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6381,82 +6608,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-16584600</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-14498400</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-3050400</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="D94" s="3">
+        <v>-2038700</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-15937500</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-13932700</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2931400</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-2896300</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-3985600</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-2602400</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-1360400</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-8053600</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3">
         <v>-1603300</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="Y94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-1367500</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6483,31 +6716,32 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-3751200</v>
       </c>
       <c r="E96" s="3">
-        <v>-4318700</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-4150200</v>
       </c>
       <c r="G96" s="3">
-        <v>-2163000</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-2078600</v>
       </c>
       <c r="I96" s="3">
-        <v>-2526200</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-2427700</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -6516,49 +6750,52 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1367000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-2837500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1190000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1876500</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-902100</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-1465300</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-826400</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6631,8 +6868,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6705,8 +6945,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6779,226 +7022,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-15730400</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-7015200</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
-        <v>7683600</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="D100" s="3">
+        <v>-5818800</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-15116600</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-6699500</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
+        <v>7383800</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-3917800</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>-1621100</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-3320400</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>-1664600</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X100" s="3">
         <v>4794300</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Y100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-3366500</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3">
-        <v>516900</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3">
-        <v>119400</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-1091900</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="D101" s="3">
+        <v>293200</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3">
+        <v>496700</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3">
+        <v>124700</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-1049300</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>28000</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>17600</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>45000</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3">
         <v>31800</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V101" s="3">
         <v>-30300</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="W101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X101" s="3">
         <v>-97600</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y101" s="3">
+      <c r="Y101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-12443400</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-13379600</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
-        <v>14851300</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="D102" s="3">
+        <v>-317200</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-11957800</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-12857500</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
+        <v>14271800</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>1921600</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>-661100</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>425800</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>477600</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>-5270000</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X102" s="3">
         <v>5585300</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Y102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z102" s="3">
         <v>672600</v>
       </c>
-      <c r="Z102" s="3" t="s">
+      <c r="AA102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVMUY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVMUY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="92">
   <si>
     <t>LVMUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,343 +666,356 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>36633500</v>
+        <v>20165900</v>
       </c>
       <c r="E8" s="3">
-        <v>17956200</v>
+        <v>37493000</v>
       </c>
       <c r="F8" s="3">
-        <v>35457600</v>
+        <v>18377500</v>
       </c>
       <c r="G8" s="3">
-        <v>15471700</v>
+        <v>36289400</v>
       </c>
       <c r="H8" s="3">
-        <v>28590500</v>
+        <v>15834600</v>
       </c>
       <c r="I8" s="3">
-        <v>13922700</v>
+        <v>29261200</v>
       </c>
       <c r="J8" s="3">
+        <v>14249300</v>
+      </c>
+      <c r="K8" s="3">
         <v>26189700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12408100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20065100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11963900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>33373900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16312000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>29506500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14998000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>29662400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12603400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>23881500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>12178100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>25718300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11647400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>22118900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>11601900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>23959800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>10726300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>11388300</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>11216800</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>9083300</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>11655500</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>11479900</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>9296400</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>8845900</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>7638600</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>11295900</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>9937100</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>10048700</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>7828700</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3">
         <v>8866000</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X9" s="3">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="3">
         <v>7720400</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3">
         <v>8359900</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>25245200</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>24240800</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>19507100</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>25837500</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>24809500</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>19964800</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>17343800</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>12426600</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>22078100</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>19569400</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>19613700</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>16052800</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3">
         <v>16852300</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X10" s="3">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="3">
         <v>14398500</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3">
         <v>15599900</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1030,8 +1043,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1121,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1184,85 +1201,91 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>105700</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>86800</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>30900</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>108200</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>88800</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>31600</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>150600</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>136400</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>101600</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>48200</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>62700</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
         <v>80200</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="3">
         <v>150300</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="3">
         <v>111100</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="3">
         <v>159600</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1329,8 +1352,8 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>5</v>
+      <c r="Y15" s="3">
+        <v>0</v>
       </c>
       <c r="Z15" s="3" t="s">
         <v>5</v>
@@ -1338,8 +1361,11 @@
       <c r="AA15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1364,162 +1390,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>26532800</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>25925400</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>21023200</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>27155300</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>26533700</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>21516400</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>19751500</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>18410200</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>26332100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>23341000</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>23394200</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>18854900</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="3">
         <v>20593000</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="3">
         <v>18141500</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="3">
+      <c r="Z17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="3">
         <v>19282200</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>10100700</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>9532200</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>7567300</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>10337600</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>9755800</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>7744800</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>6438200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>1654900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>7041800</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>6165500</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>6268200</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>5026600</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="3">
         <v>5125300</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="3">
         <v>3977500</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="3">
         <v>4677600</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1547,393 +1580,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-665300</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>166600</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>144600</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-680900</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>170500</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>148000</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>4000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>-268400</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>-151800</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>20000</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>-332400</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>56000</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="3">
         <v>57200</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="3">
         <v>66200</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-248800</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>12433600</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="3">
-        <v>15513600</v>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3">
-        <v>10406900</v>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>12476500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>10093400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>8966500</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>7397900</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>6253100</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>6715100</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3">
         <v>5176900</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="3">
         <v>5954700</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>130700</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>101700</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>132700</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>133700</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>104100</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>135800</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>149600</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>235600</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>261500</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>261200</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>100500</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
         <v>80200</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="3">
         <v>102100</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X22" s="3">
+      <c r="X22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="3">
         <v>87500</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="3">
+      <c r="Z22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="3">
         <v>63400</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>9304700</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>9597000</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>7579200</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>9523000</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>9822100</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>7757100</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>6292600</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>1150900</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>6628600</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>5924400</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>5835200</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>5002500</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="3">
         <v>5080400</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="X23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="3">
         <v>3956100</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z23" s="3">
+      <c r="Z23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="3">
         <v>4365400</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>2378800</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2493500</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>2006800</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2434600</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2552000</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2053800</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>1893100</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>557500</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>1752300</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>1683400</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>1460900</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>1387900</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="3">
         <v>1154500</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X24" s="3">
+      <c r="X24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="3">
         <v>1329600</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="3">
+      <c r="Z24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="3">
         <v>1430900</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2009,162 +2058,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>6925900</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>7103500</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>5572500</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>7088400</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>7270100</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>5703200</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>4399500</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>593500</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>4876300</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>4240900</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>4374400</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
         <v>3614600</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W26" s="3">
         <v>3925800</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="3">
         <v>2626600</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z26" s="3">
+      <c r="Z26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA26" s="3">
         <v>2934500</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>6515000</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>6729500</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>5286200</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6667900</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>6887300</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>5410200</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>4169100</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>569500</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>4556400</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>3844500</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>3962700</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="3">
         <v>3298400</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W27" s="3">
         <v>3633000</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="3">
         <v>2386500</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z27" s="3">
+      <c r="Z27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA27" s="3">
         <v>2664500</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2240,8 +2298,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2317,8 +2378,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2394,8 +2458,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2471,162 +2538,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>665300</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-166600</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-144600</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>680900</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-170500</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-148000</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>268400</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>151800</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>332400</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>-56000</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W32" s="3">
         <v>-57200</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-66200</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z32" s="3">
+      <c r="Z32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA32" s="3">
         <v>248800</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>6515000</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>6729500</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>5286200</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>6667900</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>6887300</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>5410200</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>4169100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>569500</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>4556400</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>3844500</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>3962700</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="3">
         <v>3298400</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" s="3">
         <v>3633000</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y33" s="3">
         <v>2386500</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z33" s="3">
+      <c r="Z33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA33" s="3">
         <v>2664500</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2702,167 +2778,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>6515000</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>6729500</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>5286200</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>6667900</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>6887300</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>5410200</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>4169100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>569500</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>4556400</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>3844500</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>3962700</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
         <v>3298400</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="3">
         <v>3633000</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="3">
         <v>2386500</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z35" s="3">
+      <c r="Z35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA35" s="3">
         <v>2664500</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2890,8 +2975,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2919,28 +3005,29 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7878500</v>
+        <v>8063300</v>
       </c>
       <c r="E41" s="3">
-        <v>8000100</v>
+        <v>8187800</v>
       </c>
       <c r="F41" s="3">
-        <v>7211200</v>
+        <v>7380400</v>
       </c>
       <c r="G41" s="3">
-        <v>19911100</v>
+        <v>20378200</v>
       </c>
       <c r="H41" s="3">
-        <v>14388500</v>
-      </c>
-      <c r="I41" s="3">
-        <v>5658300</v>
+        <v>14726100</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -2954,70 +3041,73 @@
       <c r="M41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>6622700</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>4704400</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>5453200</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>4635800</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>4194000</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="3">
         <v>9479700</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z41" s="3">
+      <c r="Z41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA41" s="3">
         <v>4160000</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2491500</v>
+        <v>2550000</v>
       </c>
       <c r="E42" s="3">
-        <v>2537400</v>
+        <v>2596900</v>
       </c>
       <c r="F42" s="3">
-        <v>1465200</v>
+        <v>1499600</v>
       </c>
       <c r="G42" s="3">
-        <v>750000</v>
+        <v>767600</v>
       </c>
       <c r="H42" s="3">
-        <v>950500</v>
-      </c>
-      <c r="I42" s="3">
-        <v>731100</v>
+        <v>972800</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
@@ -3031,70 +3121,73 @@
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>855700</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>927000</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>787800</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>799300</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>577800</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="3">
         <v>572200</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z42" s="3">
+      <c r="Z42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA42" s="3">
         <v>439000</v>
       </c>
-      <c r="AA42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6621700</v>
+        <v>6777100</v>
       </c>
       <c r="E43" s="3">
-        <v>6096100</v>
+        <v>6239100</v>
       </c>
       <c r="F43" s="3">
-        <v>4814400</v>
+        <v>4927400</v>
       </c>
       <c r="G43" s="3">
-        <v>4665800</v>
+        <v>4775300</v>
       </c>
       <c r="H43" s="3">
-        <v>4836400</v>
-      </c>
-      <c r="I43" s="3">
-        <v>5485700</v>
+        <v>4949900</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
@@ -3108,70 +3201,73 @@
       <c r="M43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>6420800</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>5759700</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>5939300</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>4967400</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3">
         <v>5413600</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y43" s="3">
         <v>4061600</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z43" s="3">
+      <c r="Z43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA43" s="3">
         <v>4816100</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>18870800</v>
+        <v>19313500</v>
       </c>
       <c r="E44" s="3">
-        <v>16506000</v>
+        <v>16893200</v>
       </c>
       <c r="F44" s="3">
-        <v>15790800</v>
+        <v>16161300</v>
       </c>
       <c r="G44" s="3">
-        <v>12982200</v>
+        <v>13286700</v>
       </c>
       <c r="H44" s="3">
-        <v>14041400</v>
-      </c>
-      <c r="I44" s="3">
-        <v>13681300</v>
+        <v>14370800</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
@@ -3185,70 +3281,73 @@
       <c r="M44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>16013400</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>15953200</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>14768500</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>13047500</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="3">
         <v>12216200</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y44" s="3">
         <v>12190400</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z44" s="3">
+      <c r="Z44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA44" s="3">
         <v>12379000</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1331500</v>
+        <v>1362800</v>
       </c>
       <c r="E45" s="3">
-        <v>1072200</v>
+        <v>1097400</v>
       </c>
       <c r="F45" s="3">
-        <v>1074200</v>
+        <v>1099400</v>
       </c>
       <c r="G45" s="3">
-        <v>1559900</v>
+        <v>1596500</v>
       </c>
       <c r="H45" s="3">
-        <v>1770400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>884700</v>
+        <v>1811900</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
@@ -3262,70 +3361,73 @@
       <c r="M45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>1035500</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1014100</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>909700</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
         <v>888300</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
         <v>1228600</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X45" s="3">
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y45" s="3">
         <v>1173600</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z45" s="3">
+      <c r="Z45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA45" s="3">
         <v>975400</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>37194000</v>
+        <v>38066700</v>
       </c>
       <c r="E46" s="3">
-        <v>34211800</v>
+        <v>35014500</v>
       </c>
       <c r="F46" s="3">
-        <v>30355900</v>
+        <v>31068000</v>
       </c>
       <c r="G46" s="3">
-        <v>39869100</v>
+        <v>40804400</v>
       </c>
       <c r="H46" s="3">
-        <v>35987200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>26441100</v>
+        <v>36831500</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
@@ -3339,70 +3441,73 @@
       <c r="M46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>30948000</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>28358300</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>27858500</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>24338300</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="3">
         <v>23630200</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y46" s="3">
         <v>27477500</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z46" s="3">
+      <c r="Z46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA46" s="3">
         <v>22769600</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3420100</v>
+        <v>3500300</v>
       </c>
       <c r="E47" s="3">
-        <v>3333300</v>
+        <v>3411500</v>
       </c>
       <c r="F47" s="3">
-        <v>2776800</v>
+        <v>2841900</v>
       </c>
       <c r="G47" s="3">
-        <v>2411700</v>
+        <v>2468300</v>
       </c>
       <c r="H47" s="3">
-        <v>2579300</v>
-      </c>
-      <c r="I47" s="3">
-        <v>2702000</v>
+        <v>2639800</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -3416,70 +3521,73 @@
       <c r="M47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>3162500</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>2750400</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>2862600</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>2390300</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="3">
         <v>2257400</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y47" s="3">
         <v>2228300</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z47" s="3">
+      <c r="Z47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA47" s="3">
         <v>2461500</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35322900</v>
+        <v>36151600</v>
       </c>
       <c r="E48" s="3">
-        <v>33503700</v>
+        <v>34289700</v>
       </c>
       <c r="F48" s="3">
-        <v>65639900</v>
+        <v>67179900</v>
       </c>
       <c r="G48" s="3">
-        <v>30351900</v>
+        <v>31064000</v>
       </c>
       <c r="H48" s="3">
-        <v>31353300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>30500500</v>
+        <v>32088800</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -3493,70 +3601,73 @@
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>35699400</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>32928600</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>17876000</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>15549900</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>30370000</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="3">
         <v>27241900</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z48" s="3">
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA48" s="3">
         <v>14248900</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>51128700</v>
+        <v>52328200</v>
       </c>
       <c r="E49" s="3">
-        <v>50630000</v>
+        <v>51817800</v>
       </c>
       <c r="F49" s="3">
-        <v>96543300</v>
+        <v>98808300</v>
       </c>
       <c r="G49" s="3">
-        <v>33280200</v>
+        <v>34061000</v>
       </c>
       <c r="H49" s="3">
-        <v>30938400</v>
-      </c>
-      <c r="I49" s="3">
-        <v>33520600</v>
+        <v>31664200</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -3570,50 +3681,53 @@
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>39234300</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>39610600</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>36647400</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>34095100</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>68466100</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y49" s="3">
         <v>56139900</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z49" s="3">
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA49" s="3">
         <v>27861600</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3689,8 +3803,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3766,28 +3883,31 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3901800</v>
+        <v>3993400</v>
       </c>
       <c r="E52" s="3">
-        <v>3306400</v>
+        <v>3384000</v>
       </c>
       <c r="F52" s="3">
-        <v>3029100</v>
+        <v>3100200</v>
       </c>
       <c r="G52" s="3">
-        <v>2475500</v>
+        <v>2533600</v>
       </c>
       <c r="H52" s="3">
-        <v>2515400</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3091900</v>
+        <v>2574500</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -3801,50 +3921,53 @@
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>3619000</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>3315100</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>2645000</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>2396900</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>2273200</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="3">
         <v>2462800</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z52" s="3">
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA52" s="3">
         <v>2643400</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3920,28 +4043,31 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>130967600</v>
+        <v>134040200</v>
       </c>
       <c r="E54" s="3">
-        <v>124985200</v>
+        <v>127917500</v>
       </c>
       <c r="F54" s="3">
-        <v>118216800</v>
+        <v>120990300</v>
       </c>
       <c r="G54" s="3">
-        <v>108388500</v>
+        <v>110931400</v>
       </c>
       <c r="H54" s="3">
-        <v>103373500</v>
-      </c>
-      <c r="I54" s="3">
-        <v>96256100</v>
+        <v>105798800</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
@@ -3955,50 +4081,53 @@
       <c r="M54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>112663200</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>106963000</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>87889500</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>78770500</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="3">
         <v>78264400</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y54" s="3">
         <v>73859500</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z54" s="3">
+      <c r="Z54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA54" s="3">
         <v>69984900</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4026,8 +4155,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4055,28 +4185,29 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7549300</v>
+        <v>7726400</v>
       </c>
       <c r="E57" s="3">
-        <v>7067600</v>
+        <v>7233400</v>
       </c>
       <c r="F57" s="3">
-        <v>5646300</v>
+        <v>5778700</v>
       </c>
       <c r="G57" s="3">
-        <v>5084700</v>
+        <v>5204000</v>
       </c>
       <c r="H57" s="3">
-        <v>4189100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>5798900</v>
+        <v>4287400</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -4090,70 +4221,73 @@
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>6787300</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>6073800</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>6285900</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>5059600</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>5092700</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y57" s="3">
         <v>4320800</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z57" s="3">
+      <c r="Z57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA57" s="3">
         <v>4911200</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13609500</v>
+        <v>13928800</v>
       </c>
       <c r="E58" s="3">
-        <v>10374000</v>
+        <v>10617300</v>
       </c>
       <c r="F58" s="3">
-        <v>14422400</v>
+        <v>14760800</v>
       </c>
       <c r="G58" s="3">
-        <v>12718800</v>
+        <v>13017200</v>
       </c>
       <c r="H58" s="3">
-        <v>10963400</v>
-      </c>
-      <c r="I58" s="3">
-        <v>9735600</v>
+        <v>11220600</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -4167,70 +4301,73 @@
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>11395100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>11668700</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>5924000</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>6213600</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>5487700</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="3">
         <v>5463000</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z58" s="3">
+      <c r="Z58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA58" s="3">
         <v>4013300</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10692100</v>
+        <v>10943000</v>
       </c>
       <c r="E59" s="3">
-        <v>10474700</v>
+        <v>10720400</v>
       </c>
       <c r="F59" s="3">
-        <v>7778700</v>
+        <v>7961200</v>
       </c>
       <c r="G59" s="3">
-        <v>7448600</v>
+        <v>7623300</v>
       </c>
       <c r="H59" s="3">
-        <v>7995200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>7029700</v>
+        <v>8182700</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -4244,70 +4381,73 @@
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>8227900</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>7018400</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>7701900</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>6037900</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>6679200</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="3">
         <v>5213900</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA59" s="3">
         <v>6112000</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>31851000</v>
+        <v>32598200</v>
       </c>
       <c r="E60" s="3">
-        <v>27916200</v>
+        <v>28571200</v>
       </c>
       <c r="F60" s="3">
-        <v>27847400</v>
+        <v>28500700</v>
       </c>
       <c r="G60" s="3">
-        <v>25252200</v>
+        <v>25844600</v>
       </c>
       <c r="H60" s="3">
-        <v>23147700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>22564200</v>
+        <v>23690700</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
@@ -4321,70 +4461,73 @@
       <c r="M60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>26410300</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>24760900</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>19911800</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>17311100</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="3">
         <v>16817500</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y60" s="3">
         <v>14997600</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z60" s="3">
+      <c r="Z60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA60" s="3">
         <v>15036500</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>23071900</v>
+        <v>23613100</v>
       </c>
       <c r="E61" s="3">
-        <v>23989500</v>
+        <v>24552300</v>
       </c>
       <c r="F61" s="3">
-        <v>24082200</v>
+        <v>24647200</v>
       </c>
       <c r="G61" s="3">
-        <v>24665700</v>
+        <v>25244400</v>
       </c>
       <c r="H61" s="3">
-        <v>25933400</v>
+        <v>26541800</v>
       </c>
       <c r="I61" s="3">
-        <v>15433800</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4399,69 +4542,72 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>18064500</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>18501200</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>7103300</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>7347800</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>7905500</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>9213800</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>4615400</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23468800</v>
+        <v>24019400</v>
       </c>
       <c r="E62" s="3">
-        <v>24297700</v>
+        <v>24867700</v>
       </c>
       <c r="F62" s="3">
-        <v>23774000</v>
+        <v>24331800</v>
       </c>
       <c r="G62" s="3">
-        <v>19742500</v>
+        <v>20205700</v>
       </c>
       <c r="H62" s="3">
-        <v>16858100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>19992900</v>
+        <v>17253600</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -4475,50 +4621,53 @@
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>23400700</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>22068100</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>20706700</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>19544400</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
         <v>19458700</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y62" s="3">
         <v>17915900</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z62" s="3">
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA62" s="3">
         <v>17580200</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4594,8 +4743,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4671,8 +4823,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4748,28 +4903,31 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>80345600</v>
+        <v>82230500</v>
       </c>
       <c r="E66" s="3">
-        <v>77988700</v>
+        <v>79818400</v>
       </c>
       <c r="F66" s="3">
-        <v>77129900</v>
+        <v>78939500</v>
       </c>
       <c r="G66" s="3">
-        <v>71073700</v>
+        <v>72741200</v>
       </c>
       <c r="H66" s="3">
-        <v>67655600</v>
-      </c>
-      <c r="I66" s="3">
-        <v>59765200</v>
+        <v>69242900</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -4783,50 +4941,53 @@
       <c r="M66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>69952400</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>67344200</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>49690100</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>45841500</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>45761500</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y66" s="3">
         <v>43746400</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z66" s="3">
+      <c r="Z66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA66" s="3">
         <v>39004500</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4854,8 +5015,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4931,8 +5093,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5008,8 +5173,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5085,8 +5253,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5162,28 +5333,31 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>46111800</v>
+        <v>47193600</v>
       </c>
       <c r="E72" s="3">
-        <v>43286200</v>
+        <v>44301700</v>
       </c>
       <c r="F72" s="3">
-        <v>38338100</v>
+        <v>39237500</v>
       </c>
       <c r="G72" s="3">
-        <v>35271100</v>
+        <v>36098600</v>
       </c>
       <c r="H72" s="3">
-        <v>32136200</v>
-      </c>
-      <c r="I72" s="3">
-        <v>32757600</v>
+        <v>32890200</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -5197,50 +5371,53 @@
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>38341200</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>35396700</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>34086400</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>29060800</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>28350400</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3">
         <v>25598200</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA72" s="3">
         <v>25760400</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5316,8 +5493,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5393,8 +5573,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5470,28 +5653,31 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>50622000</v>
+        <v>51809700</v>
       </c>
       <c r="E76" s="3">
-        <v>46996500</v>
+        <v>48099100</v>
       </c>
       <c r="F76" s="3">
-        <v>41086900</v>
+        <v>42050800</v>
       </c>
       <c r="G76" s="3">
-        <v>37314700</v>
+        <v>38190200</v>
       </c>
       <c r="H76" s="3">
-        <v>35717900</v>
-      </c>
-      <c r="I76" s="3">
-        <v>36490900</v>
+        <v>36555900</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
@@ -5505,50 +5691,53 @@
       <c r="M76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>42710900</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>39618800</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>38199400</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>32929000</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W76" s="3">
         <v>32502900</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y76" s="3">
         <v>30113100</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z76" s="3">
+      <c r="Z76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA76" s="3">
         <v>30980400</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5624,167 +5813,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>6515000</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>6729500</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>5286200</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>6667900</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
+        <v>6887300</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
+        <v>5410200</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>4169100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>569500</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>4556400</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>3844500</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>3962700</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="3">
         <v>3298400</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W81" s="3">
         <v>3633000</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y81" s="3">
         <v>2386500</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z81" s="3">
+      <c r="Z81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA81" s="3">
         <v>2664500</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5812,85 +6010,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>2998200</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F83" s="3">
-        <v>5814800</v>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H83" s="3">
-        <v>2736900</v>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>6034300</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>3203400</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>2781000</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>1462100</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>1170500</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3">
         <v>1532600</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y83" s="3">
         <v>1133200</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z83" s="3">
+      <c r="Z83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA83" s="3">
         <v>1526000</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5966,8 +6168,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6043,8 +6248,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6120,8 +6328,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6197,8 +6408,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6274,85 +6488,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>7247100</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F89" s="3">
-        <v>18599500</v>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="3">
-        <v>7701900</v>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>10868700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>8707700</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>4927900</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>6303700</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>3470800</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>5345200</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y89" s="3">
         <v>2542400</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z89" s="3">
+      <c r="Z89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA89" s="3">
         <v>5407700</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6380,85 +6600,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-1000</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3">
-        <v>-2657100</v>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H91" s="3">
-        <v>-1000</v>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1978800</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-2034800</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1314000</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-1961200</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-1038700</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-1257800</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-861700</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z91" s="3">
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-1928600</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6534,8 +6758,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6611,85 +6838,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-2038700</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="3">
-        <v>-15937500</v>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H94" s="3">
-        <v>-13932700</v>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2931400</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-2896300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-3985600</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-2602400</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-1360400</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>-8053600</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-1603300</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z94" s="3">
+      <c r="Z94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-1367500</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6717,35 +6950,36 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3751200</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-4150200</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-2078600</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2427700</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -6753,49 +6987,52 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1367000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-2837500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1190000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1876500</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-902100</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-1465300</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-826400</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6871,8 +7108,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6948,8 +7188,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7025,235 +7268,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-5818800</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F100" s="3">
-        <v>-15116600</v>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H100" s="3">
-        <v>-6699500</v>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>7383800</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-3917800</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-1621100</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-3320400</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>-1664600</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y100" s="3">
         <v>4794300</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="Z100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-3366500</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>293200</v>
+      <c r="D101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F101" s="3">
-        <v>496700</v>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H101" s="3">
-        <v>124700</v>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1049300</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>28000</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>17600</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>45000</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
         <v>31800</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W101" s="3">
         <v>-30300</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="X101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-97600</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z101" s="3">
+      <c r="Z101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA101" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-317200</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F102" s="3">
-        <v>-11957800</v>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H102" s="3">
-        <v>-12857500</v>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>14271800</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>1921600</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-661100</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>425800</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>477600</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>-5270000</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y102" s="3">
         <v>5585300</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z102" s="3">
+      <c r="Z102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA102" s="3">
         <v>672600</v>
       </c>
-      <c r="AA102" s="3" t="s">
+      <c r="AB102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVMUY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVMUY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="92">
   <si>
     <t>LVMUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,357 +665,369 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20165900</v>
+        <v>44917400</v>
       </c>
       <c r="E8" s="3">
-        <v>37493000</v>
+        <v>20900800</v>
       </c>
       <c r="F8" s="3">
-        <v>18377500</v>
+        <v>38859300</v>
       </c>
       <c r="G8" s="3">
-        <v>36289400</v>
+        <v>19047200</v>
       </c>
       <c r="H8" s="3">
-        <v>15834600</v>
+        <v>37611900</v>
       </c>
       <c r="I8" s="3">
-        <v>29261200</v>
+        <v>16411700</v>
       </c>
       <c r="J8" s="3">
+        <v>30327600</v>
+      </c>
+      <c r="K8" s="3">
         <v>14249300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26189700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12408100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20065100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11963900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>33373900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16312000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>29506500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14998000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>29662400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12603400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>23881500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>12178100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>25718300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11647400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>22118900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>11601900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>23959800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>10726300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>11655500</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>11479900</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>9296400</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>14357100</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>12080200</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>11898300</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>9635200</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>8845900</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>7638600</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>11295900</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>9937100</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>10048700</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
         <v>7828700</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3">
         <v>8866000</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="3">
         <v>7720400</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA9" s="3">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="3">
         <v>8359900</v>
       </c>
-      <c r="AB9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>25837500</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>24809500</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>19964800</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="3">
+        <v>30560300</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>26779000</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>25713600</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>20692400</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>17343800</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>12426600</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>22078100</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>19569400</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>19613700</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
         <v>16052800</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3">
         <v>16852300</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3">
         <v>14398500</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="3">
         <v>15599900</v>
       </c>
-      <c r="AB10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1044,8 +1056,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1124,8 +1137,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1204,88 +1220,94 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>108200</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>88800</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>31600</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="D14" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>112100</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>92000</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>32800</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>150600</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>136400</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>101600</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>48200</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
         <v>62700</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
         <v>80200</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="3">
         <v>150300</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="3">
         <v>111100</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="3">
         <v>159600</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1355,8 +1377,8 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>5</v>
+      <c r="Z15" s="3">
+        <v>0</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>5</v>
@@ -1364,8 +1386,11 @@
       <c r="AB15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1391,168 +1416,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>27155300</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>26533700</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>21516400</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>33412700</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>28144900</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>27500600</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>22300500</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>19751500</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>18410200</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>26332100</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>23341000</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>23394200</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="3">
         <v>18854900</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="3">
         <v>20593000</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="3">
         <v>18141500</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA17" s="3">
+      <c r="AA17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB17" s="3">
         <v>19282200</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>10337600</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>9755800</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>7744800</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>11504700</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>10714400</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>10111300</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>8027000</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>6438200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>1654900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>7041800</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>6165500</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>6268200</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="3">
         <v>5026600</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="3">
         <v>5125300</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="3">
         <v>3977500</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA18" s="3">
+      <c r="AA18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="3">
         <v>4677600</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1581,88 +1613,92 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-680900</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>170500</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>148000</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>170300</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-705700</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>176700</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>153400</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>4000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>-268400</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>-151800</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>20000</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>-332400</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="3">
         <v>56000</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="3">
         <v>57200</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="3">
         <v>66200</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA20" s="3">
+      <c r="AA20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-248800</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1687,302 +1723,314 @@
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>12476500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>10093400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>8966500</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>7397900</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>6253100</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3">
         <v>6715100</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="3">
         <v>5176900</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="3">
         <v>5954700</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>133700</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>104100</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>135800</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="D22" s="3">
+        <v>265600</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>138600</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>107900</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>140700</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>149600</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>235600</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>261500</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>261200</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>100500</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3">
         <v>80200</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" s="3">
         <v>102100</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="3">
         <v>87500</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA22" s="3">
+      <c r="AA22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB22" s="3">
         <v>63400</v>
       </c>
-      <c r="AB22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>9523000</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>9822100</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>7757100</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>11409500</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>9870100</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>10180100</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>8039700</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>6292600</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>1150900</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>6628600</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>5924400</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>5835200</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="3">
         <v>5002500</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="3">
         <v>5080400</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="3">
         <v>3956100</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA23" s="3">
+      <c r="AA23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB23" s="3">
         <v>4365400</v>
       </c>
-      <c r="AB23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2434600</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>2552000</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>2053800</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>3149700</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2523300</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2645000</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2128700</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>1893100</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>557500</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>1752300</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>1683400</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>1460900</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
         <v>1387900</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X24" s="3">
         <v>1154500</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="3">
         <v>1329600</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA24" s="3">
+      <c r="AA24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="3">
         <v>1430900</v>
       </c>
-      <c r="AB24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2061,168 +2109,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>7088400</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>7270100</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>5703200</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>8259800</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>7346800</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>7535100</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>5911000</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>4399500</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>593500</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>4876300</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>4240900</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <v>4374400</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="3">
         <v>3614600</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X26" s="3">
         <v>3925800</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Y26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="3">
         <v>2626600</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA26" s="3">
+      <c r="AA26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB26" s="3">
         <v>2934500</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>6667900</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>6887300</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>5410200</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>7990000</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>6910900</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>7138300</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>5607400</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>4169100</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>569500</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>4556400</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>3844500</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3">
         <v>3962700</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V27" s="3">
         <v>3298400</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X27" s="3">
         <v>3633000</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Y27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="3">
         <v>2386500</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA27" s="3">
+      <c r="AA27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB27" s="3">
         <v>2664500</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2301,8 +2358,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2381,8 +2441,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2461,8 +2524,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2541,168 +2607,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>680900</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-170500</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-148000</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>-170300</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>705700</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-176700</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-153400</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>-4000</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>268400</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>151800</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>-20000</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>332400</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="3">
         <v>-56000</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X32" s="3">
         <v>-57200</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-66200</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA32" s="3">
+      <c r="AA32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB32" s="3">
         <v>248800</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>6667900</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>6887300</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>5410200</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>7990000</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>6910900</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>7138300</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
+        <v>5607400</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>4169100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>569500</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>4556400</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>3844500</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3">
         <v>3962700</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V33" s="3">
         <v>3298400</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X33" s="3">
         <v>3633000</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z33" s="3">
         <v>2386500</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA33" s="3">
+      <c r="AA33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB33" s="3">
         <v>2664500</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2781,173 +2856,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>6667900</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>6887300</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>5410200</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>7990000</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>6910900</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>7138300</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>5607400</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>4169100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>569500</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>4556400</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>3844500</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="3">
         <v>3962700</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V35" s="3">
         <v>3298400</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X35" s="3">
         <v>3633000</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Y35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z35" s="3">
         <v>2386500</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA35" s="3">
+      <c r="AA35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB35" s="3">
         <v>2664500</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2976,8 +3060,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3006,28 +3091,29 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8063300</v>
+        <v>7723400</v>
       </c>
       <c r="E41" s="3">
-        <v>8187800</v>
+        <v>8357100</v>
       </c>
       <c r="F41" s="3">
-        <v>7380400</v>
+        <v>8486200</v>
       </c>
       <c r="G41" s="3">
-        <v>20378200</v>
+        <v>7649300</v>
       </c>
       <c r="H41" s="3">
-        <v>14726100</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
+        <v>21120900</v>
+      </c>
+      <c r="I41" s="3">
+        <v>15262700</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -3044,70 +3130,73 @@
       <c r="N41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>6622700</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>4704400</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>5453200</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>4635800</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="3">
         <v>4194000</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="3">
         <v>9479700</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA41" s="3">
+      <c r="AA41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB41" s="3">
         <v>4160000</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2550000</v>
+        <v>3758000</v>
       </c>
       <c r="E42" s="3">
-        <v>2596900</v>
+        <v>2642900</v>
       </c>
       <c r="F42" s="3">
-        <v>1499600</v>
+        <v>2691600</v>
       </c>
       <c r="G42" s="3">
-        <v>767600</v>
+        <v>1554200</v>
       </c>
       <c r="H42" s="3">
-        <v>972800</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
+        <v>795600</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1008300</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
@@ -3124,70 +3213,73 @@
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>855700</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>927000</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>787800</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>799300</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W42" s="3">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X42" s="3">
         <v>577800</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="3">
         <v>572200</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA42" s="3">
+      <c r="AA42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB42" s="3">
         <v>439000</v>
       </c>
-      <c r="AB42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6777100</v>
+        <v>7522400</v>
       </c>
       <c r="E43" s="3">
-        <v>6239100</v>
+        <v>7024100</v>
       </c>
       <c r="F43" s="3">
-        <v>4927400</v>
+        <v>6466500</v>
       </c>
       <c r="G43" s="3">
-        <v>4775300</v>
+        <v>5107000</v>
       </c>
       <c r="H43" s="3">
-        <v>4949900</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
+        <v>4949300</v>
+      </c>
+      <c r="I43" s="3">
+        <v>5130200</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
@@ -3204,70 +3296,73 @@
       <c r="N43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>6420800</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>5759700</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>5939300</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
         <v>4967400</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X43" s="3">
         <v>5413600</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y43" s="3">
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z43" s="3">
         <v>4061600</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA43" s="3">
+      <c r="AA43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB43" s="3">
         <v>4816100</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>19313500</v>
+        <v>21497500</v>
       </c>
       <c r="E44" s="3">
-        <v>16893200</v>
+        <v>20017400</v>
       </c>
       <c r="F44" s="3">
-        <v>16161300</v>
+        <v>17508800</v>
       </c>
       <c r="G44" s="3">
-        <v>13286700</v>
+        <v>16750300</v>
       </c>
       <c r="H44" s="3">
-        <v>14370800</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
+        <v>13770900</v>
+      </c>
+      <c r="I44" s="3">
+        <v>14894500</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
@@ -3284,70 +3379,73 @@
       <c r="N44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>16013400</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>15953200</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>14768500</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
         <v>13047500</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X44" s="3">
         <v>12216200</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y44" s="3">
+      <c r="Y44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z44" s="3">
         <v>12190400</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA44" s="3">
+      <c r="AA44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB44" s="3">
         <v>12379000</v>
       </c>
-      <c r="AB44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1362800</v>
+        <v>1543600</v>
       </c>
       <c r="E45" s="3">
-        <v>1097400</v>
+        <v>1412400</v>
       </c>
       <c r="F45" s="3">
-        <v>1099400</v>
+        <v>1137400</v>
       </c>
       <c r="G45" s="3">
-        <v>1596500</v>
+        <v>1139500</v>
       </c>
       <c r="H45" s="3">
-        <v>1811900</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
+        <v>1654700</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1878000</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
@@ -3364,70 +3462,73 @@
       <c r="N45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>1035500</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>1014100</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
         <v>909700</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3">
         <v>888300</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X45" s="3">
         <v>1228600</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y45" s="3">
+      <c r="Y45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="3">
         <v>1173600</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA45" s="3">
+      <c r="AA45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB45" s="3">
         <v>975400</v>
       </c>
-      <c r="AB45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>38066700</v>
+        <v>42044900</v>
       </c>
       <c r="E46" s="3">
-        <v>35014500</v>
+        <v>39453900</v>
       </c>
       <c r="F46" s="3">
-        <v>31068000</v>
+        <v>36290500</v>
       </c>
       <c r="G46" s="3">
-        <v>40804400</v>
+        <v>32200200</v>
       </c>
       <c r="H46" s="3">
-        <v>36831500</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
+        <v>42291400</v>
+      </c>
+      <c r="I46" s="3">
+        <v>38173700</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
@@ -3444,70 +3545,73 @@
       <c r="N46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>30948000</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>28358300</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>27858500</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="3">
         <v>24338300</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X46" s="3">
         <v>23630200</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y46" s="3">
+      <c r="Y46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z46" s="3">
         <v>27477500</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA46" s="3">
+      <c r="AA46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB46" s="3">
         <v>22769600</v>
       </c>
-      <c r="AB46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3500300</v>
+        <v>3357000</v>
       </c>
       <c r="E47" s="3">
-        <v>3411500</v>
+        <v>3627900</v>
       </c>
       <c r="F47" s="3">
-        <v>2841900</v>
+        <v>3535800</v>
       </c>
       <c r="G47" s="3">
-        <v>2468300</v>
+        <v>2945500</v>
       </c>
       <c r="H47" s="3">
-        <v>2639800</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
+        <v>2558200</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2736000</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -3524,70 +3628,73 @@
       <c r="N47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>3162500</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>2750400</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>2862600</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3">
         <v>2390300</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X47" s="3">
         <v>2257400</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y47" s="3">
+      <c r="Y47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z47" s="3">
         <v>2228300</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA47" s="3">
+      <c r="AA47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB47" s="3">
         <v>2461500</v>
       </c>
-      <c r="AB47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>36151600</v>
+        <v>39555400</v>
       </c>
       <c r="E48" s="3">
-        <v>34289700</v>
+        <v>37469100</v>
       </c>
       <c r="F48" s="3">
-        <v>67179900</v>
+        <v>35539300</v>
       </c>
       <c r="G48" s="3">
-        <v>31064000</v>
+        <v>69628000</v>
       </c>
       <c r="H48" s="3">
-        <v>32088800</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
+        <v>32196000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>33258200</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -3604,70 +3711,73 @@
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>35699400</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>32928600</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>17876000</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>15549900</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
         <v>30370000</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="3">
         <v>27241900</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA48" s="3">
+      <c r="AA48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB48" s="3">
         <v>14248900</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>52328200</v>
+        <v>53425800</v>
       </c>
       <c r="E49" s="3">
-        <v>51817800</v>
+        <v>54235200</v>
       </c>
       <c r="F49" s="3">
-        <v>98808300</v>
+        <v>53706200</v>
       </c>
       <c r="G49" s="3">
-        <v>34061000</v>
+        <v>102409100</v>
       </c>
       <c r="H49" s="3">
-        <v>31664200</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
+        <v>35302300</v>
+      </c>
+      <c r="I49" s="3">
+        <v>32818100</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -3684,50 +3794,53 @@
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>39234300</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>39610600</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>36647400</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>34095100</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3">
         <v>68466100</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z49" s="3">
         <v>56139900</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA49" s="3">
+      <c r="AA49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB49" s="3">
         <v>27861600</v>
       </c>
-      <c r="AB49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3806,8 +3919,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3886,28 +4002,31 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3993400</v>
+        <v>4072200</v>
       </c>
       <c r="E52" s="3">
-        <v>3384000</v>
+        <v>4138900</v>
       </c>
       <c r="F52" s="3">
-        <v>3100200</v>
+        <v>3507300</v>
       </c>
       <c r="G52" s="3">
-        <v>2533600</v>
+        <v>3213100</v>
       </c>
       <c r="H52" s="3">
-        <v>2574500</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
+        <v>2626000</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2668300</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -3924,50 +4043,53 @@
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>3619000</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>3315100</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>2645000</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>2396900</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>2273200</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="3">
         <v>2462800</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA52" s="3">
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB52" s="3">
         <v>2643400</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4046,28 +4168,31 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>134040200</v>
+        <v>142455500</v>
       </c>
       <c r="E54" s="3">
-        <v>127917500</v>
+        <v>138924900</v>
       </c>
       <c r="F54" s="3">
-        <v>120990300</v>
+        <v>132579000</v>
       </c>
       <c r="G54" s="3">
-        <v>110931400</v>
+        <v>125399500</v>
       </c>
       <c r="H54" s="3">
-        <v>105798800</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
+        <v>114973900</v>
+      </c>
+      <c r="I54" s="3">
+        <v>109654300</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
@@ -4084,50 +4209,53 @@
       <c r="N54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>112663200</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>106963000</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>87889500</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>78770500</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X54" s="3">
         <v>78264400</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z54" s="3">
         <v>73859500</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA54" s="3">
+      <c r="AA54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB54" s="3">
         <v>69984900</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4156,8 +4284,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4186,28 +4315,29 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7726400</v>
+        <v>9297700</v>
       </c>
       <c r="E57" s="3">
-        <v>7233400</v>
+        <v>8008000</v>
       </c>
       <c r="F57" s="3">
-        <v>5778700</v>
+        <v>7497000</v>
       </c>
       <c r="G57" s="3">
-        <v>5204000</v>
+        <v>5989300</v>
       </c>
       <c r="H57" s="3">
-        <v>4287400</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
+        <v>5393700</v>
+      </c>
+      <c r="I57" s="3">
+        <v>4443600</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -4224,70 +4354,73 @@
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>6787300</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>6073800</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>6285900</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>5059600</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X57" s="3">
         <v>5092700</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z57" s="3">
         <v>4320800</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA57" s="3">
+      <c r="AA57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB57" s="3">
         <v>4911200</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13928800</v>
+        <v>12623000</v>
       </c>
       <c r="E58" s="3">
-        <v>10617300</v>
+        <v>14436400</v>
       </c>
       <c r="F58" s="3">
-        <v>14760800</v>
+        <v>11004300</v>
       </c>
       <c r="G58" s="3">
-        <v>13017200</v>
+        <v>15298700</v>
       </c>
       <c r="H58" s="3">
-        <v>11220600</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+        <v>13491600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>11629500</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -4304,70 +4437,73 @@
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>11395100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>11668700</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>5924000</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>6213600</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="3">
         <v>5487700</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z58" s="3">
         <v>5463000</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA58" s="3">
+      <c r="AA58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB58" s="3">
         <v>4013300</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10943000</v>
+        <v>11451800</v>
       </c>
       <c r="E59" s="3">
-        <v>10720400</v>
+        <v>11341800</v>
       </c>
       <c r="F59" s="3">
-        <v>7961200</v>
+        <v>11111100</v>
       </c>
       <c r="G59" s="3">
-        <v>7623300</v>
+        <v>8251300</v>
       </c>
       <c r="H59" s="3">
-        <v>8182700</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
+        <v>7901100</v>
+      </c>
+      <c r="I59" s="3">
+        <v>8480900</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -4384,70 +4520,73 @@
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>8227900</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>7018400</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>7701900</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>6037900</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3">
         <v>6679200</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z59" s="3">
         <v>5213900</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA59" s="3">
+      <c r="AA59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB59" s="3">
         <v>6112000</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>32598200</v>
+        <v>33372500</v>
       </c>
       <c r="E60" s="3">
-        <v>28571200</v>
+        <v>33786200</v>
       </c>
       <c r="F60" s="3">
-        <v>28500700</v>
+        <v>29612400</v>
       </c>
       <c r="G60" s="3">
-        <v>25844600</v>
+        <v>29539400</v>
       </c>
       <c r="H60" s="3">
-        <v>23690700</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
+        <v>26786400</v>
+      </c>
+      <c r="I60" s="3">
+        <v>24554100</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
@@ -4464,70 +4603,73 @@
       <c r="N60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>26410300</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>24760900</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>19911800</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>17311100</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X60" s="3">
         <v>16817500</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z60" s="3">
         <v>14997600</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA60" s="3">
+      <c r="AA60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB60" s="3">
         <v>15036500</v>
       </c>
-      <c r="AB60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>23613100</v>
+        <v>24499000</v>
       </c>
       <c r="E61" s="3">
-        <v>24552300</v>
+        <v>24473700</v>
       </c>
       <c r="F61" s="3">
-        <v>24647200</v>
+        <v>25447000</v>
       </c>
       <c r="G61" s="3">
-        <v>25244400</v>
+        <v>25545400</v>
       </c>
       <c r="H61" s="3">
-        <v>26541800</v>
+        <v>26164300</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>27509100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4545,69 +4687,72 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>18064500</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>18501200</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>7103300</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>7347800</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>7905500</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>9213800</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
         <v>4615400</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24019400</v>
+        <v>24696900</v>
       </c>
       <c r="E62" s="3">
-        <v>24867700</v>
+        <v>24894700</v>
       </c>
       <c r="F62" s="3">
-        <v>24331800</v>
+        <v>25773900</v>
       </c>
       <c r="G62" s="3">
-        <v>20205700</v>
+        <v>25218500</v>
       </c>
       <c r="H62" s="3">
-        <v>17253600</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
+        <v>20942100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>17882300</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -4624,50 +4769,53 @@
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>23400700</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>22068100</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>20706700</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>19544400</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3">
         <v>19458700</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y62" s="3">
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z62" s="3">
         <v>17915900</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA62" s="3">
+      <c r="AA62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB62" s="3">
         <v>17580200</v>
       </c>
-      <c r="AB62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4746,8 +4894,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4826,8 +4977,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4906,28 +5060,31 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>82230500</v>
+        <v>84148000</v>
       </c>
       <c r="E66" s="3">
-        <v>79818400</v>
+        <v>85227200</v>
       </c>
       <c r="F66" s="3">
-        <v>78939500</v>
+        <v>82727100</v>
       </c>
       <c r="G66" s="3">
-        <v>72741200</v>
+        <v>81816200</v>
       </c>
       <c r="H66" s="3">
-        <v>69242900</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
+        <v>75392000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>71766300</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -4944,50 +5101,53 @@
       <c r="N66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>69952400</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>67344200</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>49690100</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>45841500</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X66" s="3">
         <v>45761500</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z66" s="3">
         <v>43746400</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA66" s="3">
+      <c r="AA66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB66" s="3">
         <v>39004500</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5016,8 +5176,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5096,8 +5257,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5176,8 +5340,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5256,8 +5423,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5336,28 +5506,31 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>47193600</v>
+        <v>54055300</v>
       </c>
       <c r="E72" s="3">
-        <v>44301700</v>
+        <v>48913500</v>
       </c>
       <c r="F72" s="3">
-        <v>39237500</v>
+        <v>45916100</v>
       </c>
       <c r="G72" s="3">
-        <v>36098600</v>
+        <v>40667400</v>
       </c>
       <c r="H72" s="3">
-        <v>32890200</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
+        <v>37414100</v>
+      </c>
+      <c r="I72" s="3">
+        <v>34088800</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -5374,50 +5547,53 @@
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>38341200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>35396700</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>34086400</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>29060800</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>28350400</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z72" s="3">
         <v>25598200</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA72" s="3">
+      <c r="AA72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB72" s="3">
         <v>25760400</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5496,8 +5672,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5576,8 +5755,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5656,28 +5838,31 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>51809700</v>
+        <v>58307400</v>
       </c>
       <c r="E76" s="3">
-        <v>48099100</v>
+        <v>53697700</v>
       </c>
       <c r="F76" s="3">
-        <v>42050800</v>
+        <v>49851900</v>
       </c>
       <c r="G76" s="3">
-        <v>38190200</v>
+        <v>43583300</v>
       </c>
       <c r="H76" s="3">
-        <v>36555900</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
+        <v>39581900</v>
+      </c>
+      <c r="I76" s="3">
+        <v>37888000</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
@@ -5694,50 +5879,53 @@
       <c r="N76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>42710900</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>39618800</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>38199400</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>32929000</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X76" s="3">
         <v>32502900</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z76" s="3">
         <v>30113100</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA76" s="3">
+      <c r="AA76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB76" s="3">
         <v>30980400</v>
       </c>
-      <c r="AB76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5816,173 +6004,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
-        <v>6667900</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>6887300</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>5410200</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>7990000</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
+        <v>6910900</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>7138300</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
+        <v>5607400</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>4169100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>569500</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>4556400</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>3844500</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81" s="3">
         <v>3962700</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V81" s="3">
         <v>3298400</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X81" s="3">
         <v>3633000</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Y81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z81" s="3">
         <v>2386500</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA81" s="3">
+      <c r="AA81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB81" s="3">
         <v>2664500</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6011,88 +6208,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>6034300</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>3203400</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>2781000</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>1462100</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
         <v>1170500</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="3">
         <v>1532600</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z83" s="3">
         <v>1133200</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA83" s="3">
+      <c r="AA83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB83" s="3">
         <v>1526000</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6171,8 +6372,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6251,8 +6455,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6331,8 +6538,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6411,8 +6621,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6491,88 +6704,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>10868700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>8707700</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>4927900</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>6303700</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>3470800</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X89" s="3">
         <v>5345200</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="Y89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z89" s="3">
         <v>2542400</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA89" s="3">
+      <c r="AA89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB89" s="3">
         <v>5407700</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6601,88 +6820,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1978800</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-2034800</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-1314000</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-1961200</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-1038700</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3">
         <v>-1257800</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-861700</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA91" s="3">
+      <c r="AA91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-1928600</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6761,8 +6984,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6841,88 +7067,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-2931400</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-2896300</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-3985600</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-2602400</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-1360400</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3">
         <v>-8053600</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="Y94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-1603300</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA94" s="3">
+      <c r="AA94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-1367500</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6951,8 +7183,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6978,11 +7211,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-2427700</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -6990,49 +7223,52 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1367000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-2837500</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1190000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-1876500</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-902100</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-1465300</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-826400</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7111,8 +7347,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7191,8 +7430,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7271,244 +7513,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>7383800</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>-3917800</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-1621100</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>-3320400</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>-1664600</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Y100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z100" s="3">
         <v>4794300</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA100" s="3">
+      <c r="AA100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-3366500</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>-1049300</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>28000</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>17600</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3">
         <v>45000</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V101" s="3">
         <v>31800</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="W101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X101" s="3">
         <v>-30300</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y101" s="3">
+      <c r="Y101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-97600</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA101" s="3">
+      <c r="AA101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB101" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>14271800</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>1921600</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>-661100</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>425800</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>477600</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X102" s="3">
         <v>-5270000</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Y102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z102" s="3">
         <v>5585300</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AA102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB102" s="3">
         <v>672600</v>
       </c>
-      <c r="AB102" s="3" t="s">
+      <c r="AC102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVMUY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVMUY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="92">
   <si>
     <t>LVMUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,369 +665,383 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>44917400</v>
+        <v>22652600</v>
       </c>
       <c r="E8" s="3">
-        <v>20900800</v>
+        <v>45719800</v>
       </c>
       <c r="F8" s="3">
-        <v>38859300</v>
+        <v>21274200</v>
       </c>
       <c r="G8" s="3">
-        <v>19047200</v>
+        <v>39553500</v>
       </c>
       <c r="H8" s="3">
-        <v>37611900</v>
+        <v>19387400</v>
       </c>
       <c r="I8" s="3">
-        <v>16411700</v>
+        <v>38283800</v>
       </c>
       <c r="J8" s="3">
+        <v>16704900</v>
+      </c>
+      <c r="K8" s="3">
         <v>30327600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14249300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26189700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12408100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>20065100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11963900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>33373900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16312000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>29506500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14998000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>29662400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>12603400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>23881500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>12178100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>25718300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>11647400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>22118900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>11601900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>23959800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>10726300</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>14357100</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>12080200</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>11898300</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>14613500</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>12296000</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>12110800</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>9635200</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>8845900</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>7638600</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>11295900</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>9937100</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>10048700</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3">
         <v>7828700</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X9" s="3">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="3">
         <v>8866000</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3">
         <v>7720400</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB9" s="3">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="3">
         <v>8359900</v>
       </c>
-      <c r="AC9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>30560300</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>26779000</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>25713600</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>31106300</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>27257400</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>26173000</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>20692400</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>17343800</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>12426600</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>22078100</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>19569400</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>19613700</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3">
         <v>16052800</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X10" s="3">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="3">
         <v>16852300</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3">
         <v>14398500</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB10" s="3">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="3">
         <v>15599900</v>
       </c>
-      <c r="AC10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1057,8 +1071,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1140,8 +1155,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1223,91 +1241,97 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-36000</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>112100</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>92000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>187400</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>116300</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>93700</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>32800</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>150600</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>136400</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>101600</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>48200</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
         <v>62700</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="3">
         <v>80200</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="3">
         <v>150300</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="3">
         <v>111100</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB14" s="3">
+      <c r="AB14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC14" s="3">
         <v>159600</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1380,8 +1404,8 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>5</v>
+      <c r="AA15" s="3">
+        <v>0</v>
       </c>
       <c r="AB15" s="3" t="s">
         <v>5</v>
@@ -1389,8 +1413,11 @@
       <c r="AC15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1417,174 +1444,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>33412700</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>28144900</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>27500600</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>34009600</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>28647700</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>27991900</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>22300500</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>19751500</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>18410200</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>26332100</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>23341000</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>23394200</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="3">
         <v>18854900</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="3">
         <v>20593000</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="3">
+      <c r="Z17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="3">
         <v>18141500</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB17" s="3">
+      <c r="AB17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC17" s="3">
         <v>19282200</v>
       </c>
-      <c r="AC17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>11504700</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>10714400</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>10111300</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>11710200</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>10905800</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>10291900</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>8027000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>6438200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>1654900</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>7041800</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>6165500</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>6268200</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="3">
         <v>5026600</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="3">
         <v>5125300</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="3">
         <v>3977500</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB18" s="3">
+      <c r="AB18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC18" s="3">
         <v>4677600</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1614,111 +1648,115 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>170300</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-705700</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>176700</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>173400</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-718300</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>179800</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>153400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>4000</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>-268400</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-151800</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>20000</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>-332400</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="3">
         <v>56000</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="3">
         <v>57200</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="3">
         <v>66200</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB20" s="3">
+      <c r="AB20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-248800</v>
       </c>
-      <c r="AC20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
+      <c r="E21" s="3">
+        <v>18588400</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
+      <c r="G21" s="3">
+        <v>13424600</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
+      <c r="I21" s="3">
+        <v>16750100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
@@ -1726,311 +1764,323 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>12476500</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>10093400</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>8966500</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>7397900</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>6253100</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3">
         <v>6715100</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="3">
         <v>5176900</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC21" s="3">
         <v>5954700</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>265600</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>138600</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>107900</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>270300</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>141100</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>109800</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>140700</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>149600</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>235600</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>261500</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>261200</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
         <v>100500</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="3">
         <v>80200</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X22" s="3">
+      <c r="X22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="3">
         <v>102100</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="3">
+      <c r="Z22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="3">
         <v>87500</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB22" s="3">
+      <c r="AB22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC22" s="3">
         <v>63400</v>
       </c>
-      <c r="AC22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>11409500</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>9870100</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>10180100</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>11613300</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>10046400</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>10361900</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>8039700</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>6292600</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>1150900</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>6628600</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>5924400</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>5835200</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="3">
         <v>5002500</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="X23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="3">
         <v>5080400</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z23" s="3">
+      <c r="Z23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="3">
         <v>3956100</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB23" s="3">
+      <c r="AB23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC23" s="3">
         <v>4365400</v>
       </c>
-      <c r="AC23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>3149700</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2523300</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>2645000</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3205900</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2568400</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2692300</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>2128700</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>1893100</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>557500</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>1752300</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>1683400</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>1460900</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="3">
         <v>1387900</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X24" s="3">
+      <c r="X24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="3">
         <v>1154500</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="3">
+      <c r="Z24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="3">
         <v>1329600</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB24" s="3">
+      <c r="AB24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC24" s="3">
         <v>1430900</v>
       </c>
-      <c r="AC24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2112,174 +2162,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>8259800</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>7346800</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>7535100</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>8407400</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>7478000</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>7669700</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>5911000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>4399500</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>593500</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>4876300</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>4240900</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
         <v>4374400</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W26" s="3">
         <v>3614600</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="3">
         <v>3925800</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z26" s="3">
+      <c r="Z26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA26" s="3">
         <v>2626600</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB26" s="3">
+      <c r="AB26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC26" s="3">
         <v>2934500</v>
       </c>
-      <c r="AC26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>7990000</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>6910900</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>7138300</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>8132700</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>7034300</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>7265800</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>5607400</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>4169100</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>569500</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>4556400</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>3844500</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="3">
         <v>3962700</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W27" s="3">
         <v>3298400</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="3">
         <v>3633000</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z27" s="3">
+      <c r="Z27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA27" s="3">
         <v>2386500</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB27" s="3">
+      <c r="AB27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC27" s="3">
         <v>2664500</v>
       </c>
-      <c r="AC27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2361,8 +2420,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2444,8 +2506,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2527,8 +2592,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2610,174 +2678,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-170300</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
-        <v>705700</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-176700</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-173400</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>718300</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-179800</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>-153400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>-4000</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>268400</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>151800</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>-20000</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>332400</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W32" s="3">
         <v>-56000</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-57200</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z32" s="3">
+      <c r="Z32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-66200</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB32" s="3">
+      <c r="AB32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC32" s="3">
         <v>248800</v>
       </c>
-      <c r="AC32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>7990000</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>6910900</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>7138300</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>8132700</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>7034300</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>7265800</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>5607400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>4169100</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>569500</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>4556400</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>3844500</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="3">
         <v>3962700</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" s="3">
         <v>3298400</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y33" s="3">
         <v>3633000</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z33" s="3">
+      <c r="Z33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA33" s="3">
         <v>2386500</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB33" s="3">
+      <c r="AB33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC33" s="3">
         <v>2664500</v>
       </c>
-      <c r="AC33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2859,179 +2936,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>7990000</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>6910900</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>7138300</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>8132700</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>7034300</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>7265800</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>5607400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>4169100</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>569500</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>4556400</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>3844500</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
         <v>3962700</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="3">
         <v>3298400</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="3">
         <v>3633000</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z35" s="3">
+      <c r="Z35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA35" s="3">
         <v>2386500</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB35" s="3">
+      <c r="AB35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC35" s="3">
         <v>2664500</v>
       </c>
-      <c r="AC35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3061,8 +3147,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3092,28 +3179,29 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7723400</v>
+        <v>7861400</v>
       </c>
       <c r="E41" s="3">
-        <v>8357100</v>
+        <v>8506400</v>
       </c>
       <c r="F41" s="3">
-        <v>8486200</v>
+        <v>8637800</v>
       </c>
       <c r="G41" s="3">
-        <v>7649300</v>
+        <v>7786000</v>
       </c>
       <c r="H41" s="3">
-        <v>21120900</v>
-      </c>
-      <c r="I41" s="3">
-        <v>15262700</v>
+        <v>21498200</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -3133,70 +3221,73 @@
       <c r="O41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>6622700</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>4704400</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>5453200</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>4635800</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="3">
         <v>4194000</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z41" s="3">
+      <c r="Z41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA41" s="3">
         <v>9479700</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB41" s="3">
+      <c r="AB41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC41" s="3">
         <v>4160000</v>
       </c>
-      <c r="AC41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3758000</v>
+        <v>3825100</v>
       </c>
       <c r="E42" s="3">
-        <v>2642900</v>
+        <v>2690100</v>
       </c>
       <c r="F42" s="3">
-        <v>2691600</v>
+        <v>2739600</v>
       </c>
       <c r="G42" s="3">
-        <v>1554200</v>
+        <v>1582000</v>
       </c>
       <c r="H42" s="3">
-        <v>795600</v>
-      </c>
-      <c r="I42" s="3">
-        <v>1008300</v>
+        <v>809800</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
@@ -3216,70 +3307,73 @@
       <c r="O42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>855700</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>927000</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>787800</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>799300</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="3">
         <v>577800</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z42" s="3">
+      <c r="Z42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA42" s="3">
         <v>572200</v>
       </c>
-      <c r="AA42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB42" s="3">
+      <c r="AB42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC42" s="3">
         <v>439000</v>
       </c>
-      <c r="AC42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7522400</v>
+        <v>7656800</v>
       </c>
       <c r="E43" s="3">
-        <v>7024100</v>
+        <v>7149500</v>
       </c>
       <c r="F43" s="3">
-        <v>6466500</v>
+        <v>6582000</v>
       </c>
       <c r="G43" s="3">
-        <v>5107000</v>
+        <v>5198200</v>
       </c>
       <c r="H43" s="3">
-        <v>4949300</v>
-      </c>
-      <c r="I43" s="3">
-        <v>5130200</v>
+        <v>5037700</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
@@ -3299,70 +3393,73 @@
       <c r="O43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>6420800</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>5759700</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>5939300</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3">
         <v>4967400</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y43" s="3">
         <v>5413600</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z43" s="3">
+      <c r="Z43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA43" s="3">
         <v>4061600</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB43" s="3">
+      <c r="AB43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC43" s="3">
         <v>4816100</v>
       </c>
-      <c r="AC43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>21497500</v>
+        <v>21881500</v>
       </c>
       <c r="E44" s="3">
-        <v>20017400</v>
+        <v>20374900</v>
       </c>
       <c r="F44" s="3">
-        <v>17508800</v>
+        <v>17821600</v>
       </c>
       <c r="G44" s="3">
-        <v>16750300</v>
+        <v>17049500</v>
       </c>
       <c r="H44" s="3">
-        <v>13770900</v>
-      </c>
-      <c r="I44" s="3">
-        <v>14894500</v>
+        <v>14016900</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
@@ -3382,70 +3479,73 @@
       <c r="O44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>16013400</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>15953200</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>14768500</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="3">
         <v>13047500</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y44" s="3">
         <v>12216200</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z44" s="3">
+      <c r="Z44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA44" s="3">
         <v>12190400</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB44" s="3">
+      <c r="AB44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC44" s="3">
         <v>12379000</v>
       </c>
-      <c r="AC44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1543600</v>
+        <v>1571200</v>
       </c>
       <c r="E45" s="3">
-        <v>1412400</v>
+        <v>1437700</v>
       </c>
       <c r="F45" s="3">
-        <v>1137400</v>
+        <v>1157700</v>
       </c>
       <c r="G45" s="3">
-        <v>1139500</v>
+        <v>1159800</v>
       </c>
       <c r="H45" s="3">
-        <v>1654700</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1878000</v>
+        <v>1684300</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
@@ -3465,70 +3565,73 @@
       <c r="O45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1035500</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>1014100</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
         <v>909700</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
         <v>888300</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X45" s="3">
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y45" s="3">
         <v>1228600</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z45" s="3">
+      <c r="Z45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA45" s="3">
         <v>1173600</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB45" s="3">
+      <c r="AB45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC45" s="3">
         <v>975400</v>
       </c>
-      <c r="AC45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>42044900</v>
+        <v>42796000</v>
       </c>
       <c r="E46" s="3">
-        <v>39453900</v>
+        <v>40158700</v>
       </c>
       <c r="F46" s="3">
-        <v>36290500</v>
+        <v>36938700</v>
       </c>
       <c r="G46" s="3">
-        <v>32200200</v>
+        <v>32775500</v>
       </c>
       <c r="H46" s="3">
-        <v>42291400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>38173700</v>
+        <v>43046900</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
@@ -3548,70 +3651,73 @@
       <c r="O46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>30948000</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>28358300</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>27858500</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="3">
         <v>24338300</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y46" s="3">
         <v>23630200</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z46" s="3">
+      <c r="Z46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA46" s="3">
         <v>27477500</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB46" s="3">
+      <c r="AB46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC46" s="3">
         <v>22769600</v>
       </c>
-      <c r="AC46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3357000</v>
+        <v>3417000</v>
       </c>
       <c r="E47" s="3">
-        <v>3627900</v>
+        <v>3692700</v>
       </c>
       <c r="F47" s="3">
-        <v>3535800</v>
+        <v>3599000</v>
       </c>
       <c r="G47" s="3">
-        <v>2945500</v>
+        <v>2998100</v>
       </c>
       <c r="H47" s="3">
-        <v>2558200</v>
-      </c>
-      <c r="I47" s="3">
-        <v>2736000</v>
+        <v>2603900</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -3631,70 +3737,73 @@
       <c r="O47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>3162500</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>2750400</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>2862600</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="3">
         <v>2390300</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y47" s="3">
         <v>2257400</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z47" s="3">
+      <c r="Z47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA47" s="3">
         <v>2228300</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB47" s="3">
+      <c r="AB47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC47" s="3">
         <v>2461500</v>
       </c>
-      <c r="AC47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>39555400</v>
+        <v>40262100</v>
       </c>
       <c r="E48" s="3">
-        <v>37469100</v>
+        <v>38138400</v>
       </c>
       <c r="F48" s="3">
-        <v>35539300</v>
+        <v>36174100</v>
       </c>
       <c r="G48" s="3">
-        <v>69628000</v>
+        <v>70871900</v>
       </c>
       <c r="H48" s="3">
-        <v>32196000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>33258200</v>
+        <v>32771100</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -3714,70 +3823,73 @@
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>35699400</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>32928600</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>17876000</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>15549900</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="3">
         <v>30370000</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z48" s="3">
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA48" s="3">
         <v>27241900</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB48" s="3">
+      <c r="AB48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC48" s="3">
         <v>14248900</v>
       </c>
-      <c r="AC48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>53425800</v>
+        <v>54380200</v>
       </c>
       <c r="E49" s="3">
-        <v>54235200</v>
+        <v>55204000</v>
       </c>
       <c r="F49" s="3">
-        <v>53706200</v>
+        <v>54665600</v>
       </c>
       <c r="G49" s="3">
-        <v>102409100</v>
+        <v>104238500</v>
       </c>
       <c r="H49" s="3">
-        <v>35302300</v>
-      </c>
-      <c r="I49" s="3">
-        <v>32818100</v>
+        <v>35932900</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -3797,50 +3909,53 @@
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>39234300</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>39610600</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>36647400</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>34095100</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y49" s="3">
         <v>68466100</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z49" s="3">
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA49" s="3">
         <v>56139900</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB49" s="3">
+      <c r="AB49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC49" s="3">
         <v>27861600</v>
       </c>
-      <c r="AC49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3922,8 +4037,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4005,28 +4123,31 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4072200</v>
+        <v>4145000</v>
       </c>
       <c r="E52" s="3">
-        <v>4138900</v>
+        <v>4212800</v>
       </c>
       <c r="F52" s="3">
-        <v>3507300</v>
+        <v>3569900</v>
       </c>
       <c r="G52" s="3">
-        <v>3213100</v>
+        <v>3270500</v>
       </c>
       <c r="H52" s="3">
-        <v>2626000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2668300</v>
+        <v>2672900</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -4046,50 +4167,53 @@
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>3619000</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>3315100</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>2645000</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>2396900</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="3">
         <v>2273200</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z52" s="3">
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA52" s="3">
         <v>2462800</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB52" s="3">
+      <c r="AB52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC52" s="3">
         <v>2643400</v>
       </c>
-      <c r="AC52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4171,28 +4295,31 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>142455500</v>
+        <v>145000300</v>
       </c>
       <c r="E54" s="3">
-        <v>138924900</v>
+        <v>141406700</v>
       </c>
       <c r="F54" s="3">
-        <v>132579000</v>
+        <v>134947400</v>
       </c>
       <c r="G54" s="3">
-        <v>125399500</v>
+        <v>127639600</v>
       </c>
       <c r="H54" s="3">
-        <v>114973900</v>
-      </c>
-      <c r="I54" s="3">
-        <v>109654300</v>
+        <v>117027800</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
@@ -4212,50 +4339,53 @@
       <c r="O54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>112663200</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>106963000</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>87889500</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="3">
         <v>78770500</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y54" s="3">
         <v>78264400</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z54" s="3">
+      <c r="Z54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA54" s="3">
         <v>73859500</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB54" s="3">
+      <c r="AB54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC54" s="3">
         <v>69984900</v>
       </c>
-      <c r="AC54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4285,8 +4415,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4316,28 +4447,29 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9297700</v>
+        <v>9463800</v>
       </c>
       <c r="E57" s="3">
-        <v>8008000</v>
+        <v>8151100</v>
       </c>
       <c r="F57" s="3">
-        <v>7497000</v>
+        <v>7630900</v>
       </c>
       <c r="G57" s="3">
-        <v>5989300</v>
+        <v>6096300</v>
       </c>
       <c r="H57" s="3">
-        <v>5393700</v>
-      </c>
-      <c r="I57" s="3">
-        <v>4443600</v>
+        <v>5490000</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -4357,70 +4489,73 @@
       <c r="O57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>6787300</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>6073800</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>6285900</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>5059600</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y57" s="3">
         <v>5092700</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z57" s="3">
+      <c r="Z57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA57" s="3">
         <v>4320800</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB57" s="3">
+      <c r="AB57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC57" s="3">
         <v>4911200</v>
       </c>
-      <c r="AC57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12623000</v>
+        <v>12848500</v>
       </c>
       <c r="E58" s="3">
-        <v>14436400</v>
+        <v>14694300</v>
       </c>
       <c r="F58" s="3">
-        <v>11004300</v>
+        <v>11200800</v>
       </c>
       <c r="G58" s="3">
-        <v>15298700</v>
+        <v>15572000</v>
       </c>
       <c r="H58" s="3">
-        <v>13491600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>11629500</v>
+        <v>13732600</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -4440,70 +4575,73 @@
       <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>11395100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>11668700</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>5924000</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>6213600</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="3">
         <v>5487700</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z58" s="3">
+      <c r="Z58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA58" s="3">
         <v>5463000</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB58" s="3">
+      <c r="AB58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC58" s="3">
         <v>4013300</v>
       </c>
-      <c r="AC58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11451800</v>
+        <v>11656400</v>
       </c>
       <c r="E59" s="3">
-        <v>11341800</v>
+        <v>11544400</v>
       </c>
       <c r="F59" s="3">
-        <v>11111100</v>
+        <v>11309600</v>
       </c>
       <c r="G59" s="3">
-        <v>8251300</v>
+        <v>8398700</v>
       </c>
       <c r="H59" s="3">
-        <v>7901100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>8480900</v>
+        <v>8042300</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -4523,70 +4661,73 @@
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>8227900</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>7018400</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>7701900</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>6037900</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="3">
         <v>6679200</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA59" s="3">
         <v>5213900</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB59" s="3">
+      <c r="AB59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC59" s="3">
         <v>6112000</v>
       </c>
-      <c r="AC59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>33372500</v>
+        <v>33968700</v>
       </c>
       <c r="E60" s="3">
-        <v>33786200</v>
+        <v>34389700</v>
       </c>
       <c r="F60" s="3">
-        <v>29612400</v>
+        <v>30141400</v>
       </c>
       <c r="G60" s="3">
-        <v>29539400</v>
+        <v>30067000</v>
       </c>
       <c r="H60" s="3">
-        <v>26786400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>24554100</v>
+        <v>27265000</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
@@ -4606,70 +4747,73 @@
       <c r="O60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>26410300</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>24760900</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>19911800</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="3">
         <v>17311100</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y60" s="3">
         <v>16817500</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z60" s="3">
+      <c r="Z60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA60" s="3">
         <v>14997600</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB60" s="3">
+      <c r="AB60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC60" s="3">
         <v>15036500</v>
       </c>
-      <c r="AC60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>24499000</v>
+        <v>24936700</v>
       </c>
       <c r="E61" s="3">
-        <v>24473700</v>
+        <v>24910900</v>
       </c>
       <c r="F61" s="3">
-        <v>25447000</v>
+        <v>25901600</v>
       </c>
       <c r="G61" s="3">
-        <v>25545400</v>
+        <v>26001800</v>
       </c>
       <c r="H61" s="3">
-        <v>26164300</v>
+        <v>26631700</v>
       </c>
       <c r="I61" s="3">
-        <v>27509100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4690,69 +4834,72 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>18064500</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>18501200</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>7103300</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>7347800</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>7905500</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>9213800</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
         <v>4615400</v>
       </c>
-      <c r="AC61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24696900</v>
+        <v>25138100</v>
       </c>
       <c r="E62" s="3">
-        <v>24894700</v>
+        <v>25339500</v>
       </c>
       <c r="F62" s="3">
-        <v>25773900</v>
+        <v>26234400</v>
       </c>
       <c r="G62" s="3">
-        <v>25218500</v>
+        <v>25669000</v>
       </c>
       <c r="H62" s="3">
-        <v>20942100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>17882300</v>
+        <v>21316200</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -4772,50 +4919,53 @@
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>23400700</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>22068100</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>20706700</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
         <v>19544400</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y62" s="3">
         <v>19458700</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z62" s="3">
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA62" s="3">
         <v>17915900</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB62" s="3">
+      <c r="AB62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC62" s="3">
         <v>17580200</v>
       </c>
-      <c r="AC62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4897,8 +5047,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4980,8 +5133,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5063,28 +5219,31 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>84148000</v>
+        <v>85651200</v>
       </c>
       <c r="E66" s="3">
-        <v>85227200</v>
+        <v>86749700</v>
       </c>
       <c r="F66" s="3">
-        <v>82727100</v>
+        <v>84205000</v>
       </c>
       <c r="G66" s="3">
-        <v>81816200</v>
+        <v>83277800</v>
       </c>
       <c r="H66" s="3">
-        <v>75392000</v>
-      </c>
-      <c r="I66" s="3">
-        <v>71766300</v>
+        <v>76738800</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -5104,50 +5263,53 @@
       <c r="O66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>69952400</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>67344200</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>49690100</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>45841500</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y66" s="3">
         <v>45761500</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z66" s="3">
+      <c r="Z66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA66" s="3">
         <v>43746400</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB66" s="3">
+      <c r="AB66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC66" s="3">
         <v>39004500</v>
       </c>
-      <c r="AC66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5177,8 +5339,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5260,8 +5423,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5343,8 +5509,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5426,8 +5595,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5509,28 +5681,31 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>54055300</v>
+        <v>55021000</v>
       </c>
       <c r="E72" s="3">
-        <v>48913500</v>
+        <v>49787200</v>
       </c>
       <c r="F72" s="3">
-        <v>45916100</v>
+        <v>46736400</v>
       </c>
       <c r="G72" s="3">
-        <v>40667400</v>
+        <v>41393900</v>
       </c>
       <c r="H72" s="3">
-        <v>37414100</v>
-      </c>
-      <c r="I72" s="3">
-        <v>34088800</v>
+        <v>38082400</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -5550,50 +5725,53 @@
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>38341200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>35396700</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>34086400</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>29060800</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3">
         <v>28350400</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA72" s="3">
         <v>25598200</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB72" s="3">
+      <c r="AB72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC72" s="3">
         <v>25760400</v>
       </c>
-      <c r="AC72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5675,8 +5853,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5758,8 +5939,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5841,28 +6025,31 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>58307400</v>
+        <v>59349000</v>
       </c>
       <c r="E76" s="3">
-        <v>53697700</v>
+        <v>54657000</v>
       </c>
       <c r="F76" s="3">
-        <v>49851900</v>
+        <v>50742500</v>
       </c>
       <c r="G76" s="3">
-        <v>43583300</v>
+        <v>44361800</v>
       </c>
       <c r="H76" s="3">
-        <v>39581900</v>
-      </c>
-      <c r="I76" s="3">
-        <v>37888000</v>
+        <v>40289000</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
@@ -5882,50 +6069,53 @@
       <c r="O76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>42710900</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>39618800</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>38199400</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W76" s="3">
         <v>32929000</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y76" s="3">
         <v>32502900</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z76" s="3">
+      <c r="Z76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA76" s="3">
         <v>30113100</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB76" s="3">
+      <c r="AB76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC76" s="3">
         <v>30980400</v>
       </c>
-      <c r="AC76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6007,179 +6197,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>7990000</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>6910900</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>7138300</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>8132700</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
+        <v>7034300</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
+        <v>7265800</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>5607400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>4169100</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>569500</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>4556400</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>3844500</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="3">
         <v>3962700</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W81" s="3">
         <v>3298400</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y81" s="3">
         <v>3633000</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z81" s="3">
+      <c r="Z81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA81" s="3">
         <v>2386500</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB81" s="3">
+      <c r="AB81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC81" s="3">
         <v>2664500</v>
       </c>
-      <c r="AC81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6209,91 +6408,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
+        <v>6704800</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
+        <v>3237200</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+        <v>6278300</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>6034300</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>3203400</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>2781000</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>1462100</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3">
         <v>1170500</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y83" s="3">
         <v>1532600</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z83" s="3">
+      <c r="Z83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA83" s="3">
         <v>1133200</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB83" s="3">
+      <c r="AB83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC83" s="3">
         <v>1526000</v>
       </c>
-      <c r="AC83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6375,8 +6578,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6458,8 +6664,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6541,8 +6750,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6624,8 +6836,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6707,91 +6922,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
+        <v>19204400</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
+        <v>7824800</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+        <v>20082000</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>10868700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>8707700</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>4927900</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>6303700</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>3470800</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y89" s="3">
         <v>5345200</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z89" s="3">
+      <c r="Z89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA89" s="3">
         <v>2542400</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB89" s="3">
+      <c r="AB89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC89" s="3">
         <v>5407700</v>
       </c>
-      <c r="AC89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6821,91 +7042,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-3313000</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-1769000</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-1523000</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-1141000</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-1268000</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-1197000</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1978800</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-2034800</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-1314000</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-1961200</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-1038700</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-1257800</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z91" s="3">
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-861700</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB91" s="3">
+      <c r="AB91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-1928600</v>
       </c>
-      <c r="AC91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6987,8 +7212,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7070,91 +7298,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+        <v>-6375200</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+        <v>-2201200</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+        <v>-17207800</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-2931400</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-2896300</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-3985600</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-2602400</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>-1360400</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-8053600</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z94" s="3">
+      <c r="Z94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-1603300</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB94" s="3">
+      <c r="AB94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-1367500</v>
       </c>
-      <c r="AC94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7184,8 +7418,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7193,19 +7428,19 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-6841500</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-4050200</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-4481000</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -7214,11 +7449,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-2427700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -7226,49 +7461,52 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1367000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-2837500</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1190000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-1876500</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-902100</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-1465300</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-826400</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7350,8 +7588,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7433,8 +7674,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7516,253 +7760,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
+        <v>-13660500</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
+        <v>-6282600</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+        <v>-16321500</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>7383800</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-3917800</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-1621100</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>-3320400</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>-1664600</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="Z100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA100" s="3">
         <v>4794300</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB100" s="3">
+      <c r="AB100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC100" s="3">
         <v>-3366500</v>
       </c>
-      <c r="AC100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
+        <v>59200</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
+        <v>316600</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+        <v>536300</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1049300</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>28000</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>17600</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
         <v>45000</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W101" s="3">
         <v>31800</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="X101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-30300</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z101" s="3">
+      <c r="Z101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA101" s="3">
         <v>-97600</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB101" s="3">
+      <c r="AB101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC101" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
+        <v>-772100</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
+        <v>-342500</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+        <v>-12911000</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>14271800</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>1921600</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>-661100</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>425800</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>477600</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-5270000</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z102" s="3">
+      <c r="Z102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA102" s="3">
         <v>5585300</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB102" s="3">
+      <c r="AB102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC102" s="3">
         <v>672600</v>
       </c>
-      <c r="AC102" s="3" t="s">
+      <c r="AD102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVMUY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVMUY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="92">
   <si>
     <t>LVMUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,383 +665,395 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22652600</v>
+        <v>45792400</v>
       </c>
       <c r="E8" s="3">
-        <v>45719800</v>
+        <v>22804000</v>
       </c>
       <c r="F8" s="3">
-        <v>21274200</v>
+        <v>46025500</v>
       </c>
       <c r="G8" s="3">
-        <v>39553500</v>
+        <v>21416400</v>
       </c>
       <c r="H8" s="3">
-        <v>19387400</v>
+        <v>39817900</v>
       </c>
       <c r="I8" s="3">
-        <v>38283800</v>
+        <v>19517100</v>
       </c>
       <c r="J8" s="3">
+        <v>38539800</v>
+      </c>
+      <c r="K8" s="3">
         <v>16704900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>30327600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14249300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>26189700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12408100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>20065100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11963900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>33373900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>16312000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>29506500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>14998000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>29662400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>12603400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>23881500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>12178100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>25718300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>11647400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>22118900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>11601900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>23959800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>10726300</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>14613500</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>12296000</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>12110800</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>14009800</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>14711200</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>12378300</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>12191800</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>9635200</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>8845900</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>7638600</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>11295900</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>9937100</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
         <v>10048700</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3">
         <v>7828700</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="3">
         <v>8866000</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA9" s="3">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="3">
         <v>7720400</v>
       </c>
-      <c r="AB9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC9" s="3">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="3">
         <v>8359900</v>
       </c>
-      <c r="AD9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>31106300</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>27257400</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>26173000</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="3">
+        <v>31782600</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>31314200</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>27439700</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>26348000</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>20692400</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>17343800</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>12426600</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>22078100</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>19569400</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
         <v>19613700</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3">
         <v>16052800</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3">
         <v>16852300</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="3">
         <v>14398500</v>
       </c>
-      <c r="AB10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC10" s="3">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="3">
         <v>15599900</v>
       </c>
-      <c r="AD10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1072,8 +1084,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1158,8 +1171,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1244,94 +1260,100 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>187400</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>116300</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>93700</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="D14" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>188600</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>117100</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>94300</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>32800</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>150600</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>136400</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>101600</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
         <v>48200</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
         <v>62700</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="3">
         <v>80200</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="3">
         <v>150300</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="3">
         <v>111100</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC14" s="3">
+      <c r="AC14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD14" s="3">
         <v>159600</v>
       </c>
-      <c r="AD14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1407,8 +1429,8 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-      <c r="AB15" s="3" t="s">
-        <v>5</v>
+      <c r="AB15" s="3">
+        <v>0</v>
       </c>
       <c r="AC15" s="3" t="s">
         <v>5</v>
@@ -1416,8 +1438,11 @@
       <c r="AD15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1445,180 +1470,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>34009600</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>28647700</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>27991900</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>33255900</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>34237000</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>28839200</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>28179000</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>22300500</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>19751500</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>18410200</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>26332100</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>23341000</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="3">
         <v>23394200</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="3">
         <v>18854900</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="3">
         <v>20593000</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA17" s="3">
+      <c r="AA17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB17" s="3">
         <v>18141500</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC17" s="3">
+      <c r="AC17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD17" s="3">
         <v>19282200</v>
       </c>
-      <c r="AD17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>11710200</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>10905800</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>10291900</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>12536500</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>11788500</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>10978700</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>10360700</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>8027000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>6438200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>1654900</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>7041800</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>6165500</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="3">
         <v>6268200</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="3">
         <v>5026600</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="3">
         <v>5125300</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA18" s="3">
+      <c r="AA18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="3">
         <v>3977500</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC18" s="3">
+      <c r="AC18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD18" s="3">
         <v>4677600</v>
       </c>
-      <c r="AD18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1649,117 +1681,121 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>173400</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-718300</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>179800</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>945300</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>174500</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-723100</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>181000</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>153400</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>4000</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>-268400</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>-151800</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>20000</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="3">
         <v>-332400</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="3">
         <v>56000</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="3">
         <v>57200</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA20" s="3">
+      <c r="AA20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB20" s="3">
         <v>66200</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC20" s="3">
+      <c r="AC20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-248800</v>
       </c>
-      <c r="AD20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>18588400</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>13424600</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
-        <v>16750100</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>16819800</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>18712700</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>13514400</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>16862100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1767,320 +1803,332 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>12476500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>10093400</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>8966500</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>7397900</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3">
         <v>6253100</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="3">
         <v>6715100</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="3">
         <v>5176900</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD21" s="3">
         <v>5954700</v>
       </c>
-      <c r="AD21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>270300</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>141100</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>109800</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="D22" s="3">
+        <v>439100</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>272100</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>142000</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>110600</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>140700</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>149600</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>235600</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>261500</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>261200</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3">
         <v>100500</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" s="3">
         <v>80200</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="3">
         <v>102100</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA22" s="3">
+      <c r="AA22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB22" s="3">
         <v>87500</v>
       </c>
-      <c r="AB22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC22" s="3">
+      <c r="AC22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD22" s="3">
         <v>63400</v>
       </c>
-      <c r="AD22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>11613300</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>10046400</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>10361900</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>13042800</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>11690900</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>10113600</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>10431200</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>8039700</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>6292600</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>1150900</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>6628600</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>5924400</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="3">
         <v>5835200</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="3">
         <v>5002500</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="3">
         <v>5080400</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA23" s="3">
+      <c r="AA23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB23" s="3">
         <v>3956100</v>
       </c>
-      <c r="AB23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC23" s="3">
+      <c r="AC23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD23" s="3">
         <v>4365400</v>
       </c>
-      <c r="AD23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3205900</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>2568400</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>2692300</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>3392100</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3227400</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2585600</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2710300</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>2128700</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>1893100</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>557500</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>1752300</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>1683400</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
         <v>1460900</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X24" s="3">
         <v>1387900</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="3">
         <v>1154500</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA24" s="3">
+      <c r="AA24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="3">
         <v>1329600</v>
       </c>
-      <c r="AB24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC24" s="3">
+      <c r="AC24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD24" s="3">
         <v>1430900</v>
       </c>
-      <c r="AD24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2165,180 +2213,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>8407400</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>7478000</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>7669700</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>9650700</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>8463600</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>7528000</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>7721000</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>5911000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>4399500</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>593500</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>4876300</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <v>4240900</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="3">
         <v>4374400</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X26" s="3">
         <v>3614600</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Y26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="3">
         <v>3925800</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA26" s="3">
+      <c r="AA26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB26" s="3">
         <v>2626600</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC26" s="3">
+      <c r="AC26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD26" s="3">
         <v>2934500</v>
       </c>
-      <c r="AD26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>8132700</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>7034300</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>7265800</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>9194300</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>8187100</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>7081300</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>7314400</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>5607400</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>4169100</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>569500</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>4556400</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3">
         <v>3844500</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V27" s="3">
         <v>3962700</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X27" s="3">
         <v>3298400</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Y27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="3">
         <v>3633000</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA27" s="3">
+      <c r="AA27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB27" s="3">
         <v>2386500</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC27" s="3">
+      <c r="AC27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD27" s="3">
         <v>2664500</v>
       </c>
-      <c r="AD27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2423,8 +2480,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2509,8 +2569,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2595,8 +2658,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2681,180 +2747,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-173400</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>718300</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-179800</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>-945300</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-174500</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>723100</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-181000</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>-153400</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>-4000</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>268400</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>151800</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>-20000</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="3">
         <v>332400</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X32" s="3">
         <v>-56000</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-57200</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA32" s="3">
+      <c r="AA32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-66200</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC32" s="3">
+      <c r="AC32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD32" s="3">
         <v>248800</v>
       </c>
-      <c r="AD32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>8132700</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>7034300</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>7265800</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>9194300</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>8187100</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>7081300</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
+        <v>7314400</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>5607400</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>4169100</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>569500</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>4556400</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3">
         <v>3844500</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V33" s="3">
         <v>3962700</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X33" s="3">
         <v>3298400</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z33" s="3">
         <v>3633000</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA33" s="3">
+      <c r="AA33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB33" s="3">
         <v>2386500</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC33" s="3">
+      <c r="AC33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD33" s="3">
         <v>2664500</v>
       </c>
-      <c r="AD33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2939,185 +3014,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>8132700</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>7034300</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>7265800</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>9194300</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>8187100</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>7081300</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>7314400</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>5607400</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>4169100</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>569500</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>4556400</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="3">
         <v>3844500</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V35" s="3">
         <v>3962700</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X35" s="3">
         <v>3298400</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Y35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z35" s="3">
         <v>3633000</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA35" s="3">
+      <c r="AA35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB35" s="3">
         <v>2386500</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC35" s="3">
+      <c r="AC35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD35" s="3">
         <v>2664500</v>
       </c>
-      <c r="AD35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3148,8 +3232,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3180,28 +3265,29 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7861400</v>
+        <v>6661800</v>
       </c>
       <c r="E41" s="3">
-        <v>8506400</v>
+        <v>7913900</v>
       </c>
       <c r="F41" s="3">
-        <v>8637800</v>
+        <v>8563300</v>
       </c>
       <c r="G41" s="3">
-        <v>7786000</v>
+        <v>8695600</v>
       </c>
       <c r="H41" s="3">
-        <v>21498200</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
+        <v>7838000</v>
+      </c>
+      <c r="I41" s="3">
+        <v>21641900</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -3224,70 +3310,73 @@
       <c r="P41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>6622700</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>4704400</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>5453200</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="3">
         <v>4635800</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="3">
         <v>4194000</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA41" s="3">
+      <c r="AA41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB41" s="3">
         <v>9479700</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC41" s="3">
+      <c r="AC41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD41" s="3">
         <v>4160000</v>
       </c>
-      <c r="AD41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3825100</v>
+        <v>4578200</v>
       </c>
       <c r="E42" s="3">
-        <v>2690100</v>
+        <v>3850700</v>
       </c>
       <c r="F42" s="3">
-        <v>2739600</v>
+        <v>2708100</v>
       </c>
       <c r="G42" s="3">
-        <v>1582000</v>
+        <v>2758000</v>
       </c>
       <c r="H42" s="3">
-        <v>809800</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
+        <v>1592500</v>
+      </c>
+      <c r="I42" s="3">
+        <v>815200</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
@@ -3310,70 +3399,73 @@
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>855700</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>927000</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>787800</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W42" s="3">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X42" s="3">
         <v>799300</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="3">
         <v>577800</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA42" s="3">
+      <c r="AA42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB42" s="3">
         <v>572200</v>
       </c>
-      <c r="AB42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC42" s="3">
+      <c r="AC42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD42" s="3">
         <v>439000</v>
       </c>
-      <c r="AD42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7656800</v>
+        <v>7686300</v>
       </c>
       <c r="E43" s="3">
-        <v>7149500</v>
+        <v>7708000</v>
       </c>
       <c r="F43" s="3">
-        <v>6582000</v>
+        <v>7197300</v>
       </c>
       <c r="G43" s="3">
-        <v>5198200</v>
+        <v>6626000</v>
       </c>
       <c r="H43" s="3">
-        <v>5037700</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
+        <v>5233000</v>
+      </c>
+      <c r="I43" s="3">
+        <v>5071400</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
@@ -3396,70 +3488,73 @@
       <c r="P43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>6420800</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>5759700</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
         <v>5939300</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X43" s="3">
         <v>4967400</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y43" s="3">
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z43" s="3">
         <v>5413600</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA43" s="3">
+      <c r="AA43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB43" s="3">
         <v>4061600</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC43" s="3">
+      <c r="AC43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD43" s="3">
         <v>4816100</v>
       </c>
-      <c r="AD43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>21881500</v>
+        <v>24541900</v>
       </c>
       <c r="E44" s="3">
-        <v>20374900</v>
+        <v>22027800</v>
       </c>
       <c r="F44" s="3">
-        <v>17821600</v>
+        <v>20511200</v>
       </c>
       <c r="G44" s="3">
-        <v>17049500</v>
+        <v>17940800</v>
       </c>
       <c r="H44" s="3">
-        <v>14016900</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
+        <v>17163500</v>
+      </c>
+      <c r="I44" s="3">
+        <v>14110600</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
@@ -3482,70 +3577,73 @@
       <c r="P44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>16013400</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>15953200</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
         <v>14768500</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X44" s="3">
         <v>13047500</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y44" s="3">
+      <c r="Y44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z44" s="3">
         <v>12216200</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA44" s="3">
+      <c r="AA44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB44" s="3">
         <v>12190400</v>
       </c>
-      <c r="AB44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC44" s="3">
+      <c r="AC44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD44" s="3">
         <v>12379000</v>
       </c>
-      <c r="AD44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1571200</v>
+        <v>2066300</v>
       </c>
       <c r="E45" s="3">
-        <v>1437700</v>
+        <v>1581700</v>
       </c>
       <c r="F45" s="3">
-        <v>1157700</v>
+        <v>1447300</v>
       </c>
       <c r="G45" s="3">
-        <v>1159800</v>
+        <v>1165400</v>
       </c>
       <c r="H45" s="3">
-        <v>1684300</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
+        <v>1167600</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1695500</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
@@ -3568,70 +3666,73 @@
       <c r="P45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>1035500</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
         <v>1014100</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3">
         <v>909700</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X45" s="3">
         <v>888300</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y45" s="3">
+      <c r="Y45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="3">
         <v>1228600</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA45" s="3">
+      <c r="AA45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB45" s="3">
         <v>1173600</v>
       </c>
-      <c r="AB45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC45" s="3">
+      <c r="AC45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD45" s="3">
         <v>975400</v>
       </c>
-      <c r="AD45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>42796000</v>
+        <v>45534400</v>
       </c>
       <c r="E46" s="3">
-        <v>40158700</v>
+        <v>43082100</v>
       </c>
       <c r="F46" s="3">
-        <v>36938700</v>
+        <v>40427200</v>
       </c>
       <c r="G46" s="3">
-        <v>32775500</v>
+        <v>37185700</v>
       </c>
       <c r="H46" s="3">
-        <v>43046900</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
+        <v>32994600</v>
+      </c>
+      <c r="I46" s="3">
+        <v>43334700</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
@@ -3654,70 +3755,73 @@
       <c r="P46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>30948000</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>28358300</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="3">
         <v>27858500</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X46" s="3">
         <v>24338300</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y46" s="3">
+      <c r="Y46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z46" s="3">
         <v>23630200</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA46" s="3">
+      <c r="AA46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB46" s="3">
         <v>27477500</v>
       </c>
-      <c r="AB46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC46" s="3">
+      <c r="AC46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD46" s="3">
         <v>22769600</v>
       </c>
-      <c r="AD46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3417000</v>
+        <v>3624100</v>
       </c>
       <c r="E47" s="3">
-        <v>3692700</v>
+        <v>3439800</v>
       </c>
       <c r="F47" s="3">
-        <v>3599000</v>
+        <v>3717400</v>
       </c>
       <c r="G47" s="3">
-        <v>2998100</v>
+        <v>3623100</v>
       </c>
       <c r="H47" s="3">
-        <v>2603900</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
+        <v>3018100</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2621400</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -3740,70 +3844,73 @@
       <c r="P47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>3162500</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>2750400</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3">
         <v>2862600</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X47" s="3">
         <v>2390300</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y47" s="3">
+      <c r="Y47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z47" s="3">
         <v>2257400</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA47" s="3">
+      <c r="AA47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB47" s="3">
         <v>2228300</v>
       </c>
-      <c r="AB47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC47" s="3">
+      <c r="AC47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD47" s="3">
         <v>2461500</v>
       </c>
-      <c r="AD47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>40262100</v>
+        <v>42634400</v>
       </c>
       <c r="E48" s="3">
-        <v>38138400</v>
+        <v>40531200</v>
       </c>
       <c r="F48" s="3">
-        <v>36174100</v>
+        <v>38393400</v>
       </c>
       <c r="G48" s="3">
-        <v>70871900</v>
+        <v>36416000</v>
       </c>
       <c r="H48" s="3">
-        <v>32771100</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
+        <v>71345700</v>
+      </c>
+      <c r="I48" s="3">
+        <v>32990200</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -3826,70 +3933,73 @@
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>35699400</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>32928600</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>17876000</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
         <v>15549900</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="3">
         <v>30370000</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA48" s="3">
+      <c r="AA48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB48" s="3">
         <v>27241900</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC48" s="3">
+      <c r="AC48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD48" s="3">
         <v>14248900</v>
       </c>
-      <c r="AD48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>54380200</v>
+        <v>54972500</v>
       </c>
       <c r="E49" s="3">
-        <v>55204000</v>
+        <v>54743800</v>
       </c>
       <c r="F49" s="3">
-        <v>54665600</v>
+        <v>55573100</v>
       </c>
       <c r="G49" s="3">
-        <v>104238500</v>
+        <v>55031100</v>
       </c>
       <c r="H49" s="3">
-        <v>35932900</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
+        <v>104935500</v>
+      </c>
+      <c r="I49" s="3">
+        <v>36173200</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -3912,50 +4022,53 @@
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>39234300</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>39610600</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>36647400</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3">
         <v>34095100</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z49" s="3">
         <v>68466100</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA49" s="3">
+      <c r="AA49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB49" s="3">
         <v>56139900</v>
       </c>
-      <c r="AB49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC49" s="3">
+      <c r="AC49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD49" s="3">
         <v>27861600</v>
       </c>
-      <c r="AD49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4040,8 +4153,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4126,28 +4242,31 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4145000</v>
+        <v>4331000</v>
       </c>
       <c r="E52" s="3">
-        <v>4212800</v>
+        <v>4172700</v>
       </c>
       <c r="F52" s="3">
-        <v>3569900</v>
+        <v>4241000</v>
       </c>
       <c r="G52" s="3">
-        <v>3270500</v>
+        <v>3593800</v>
       </c>
       <c r="H52" s="3">
-        <v>2672900</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
+        <v>3292400</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2690700</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -4170,50 +4289,53 @@
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>3619000</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>3315100</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>2645000</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>2396900</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="3">
         <v>2273200</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA52" s="3">
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB52" s="3">
         <v>2462800</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC52" s="3">
+      <c r="AC52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD52" s="3">
         <v>2643400</v>
       </c>
-      <c r="AD52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4298,28 +4420,31 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>145000300</v>
+        <v>151096400</v>
       </c>
       <c r="E54" s="3">
-        <v>141406700</v>
+        <v>145969700</v>
       </c>
       <c r="F54" s="3">
-        <v>134947400</v>
+        <v>142352100</v>
       </c>
       <c r="G54" s="3">
-        <v>127639600</v>
+        <v>135849700</v>
       </c>
       <c r="H54" s="3">
-        <v>117027800</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
+        <v>128493000</v>
+      </c>
+      <c r="I54" s="3">
+        <v>117810200</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
@@ -4342,50 +4467,53 @@
       <c r="P54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>112663200</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>106963000</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>87889500</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X54" s="3">
         <v>78770500</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z54" s="3">
         <v>78264400</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA54" s="3">
+      <c r="AA54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB54" s="3">
         <v>73859500</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC54" s="3">
+      <c r="AC54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD54" s="3">
         <v>69984900</v>
       </c>
-      <c r="AD54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4416,8 +4544,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4448,28 +4577,29 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9463800</v>
+        <v>8915600</v>
       </c>
       <c r="E57" s="3">
-        <v>8151100</v>
+        <v>9527100</v>
       </c>
       <c r="F57" s="3">
-        <v>7630900</v>
+        <v>8205600</v>
       </c>
       <c r="G57" s="3">
-        <v>6096300</v>
+        <v>7681900</v>
       </c>
       <c r="H57" s="3">
-        <v>5490000</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
+        <v>6137100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>5526700</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -4492,70 +4622,73 @@
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>6787300</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>6073800</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>6285900</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X57" s="3">
         <v>5059600</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z57" s="3">
         <v>5092700</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA57" s="3">
+      <c r="AA57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB57" s="3">
         <v>4320800</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC57" s="3">
+      <c r="AC57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD57" s="3">
         <v>4911200</v>
       </c>
-      <c r="AD57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12848500</v>
+        <v>17862700</v>
       </c>
       <c r="E58" s="3">
-        <v>14694300</v>
+        <v>12934400</v>
       </c>
       <c r="F58" s="3">
-        <v>11200800</v>
+        <v>14792500</v>
       </c>
       <c r="G58" s="3">
-        <v>15572000</v>
+        <v>11275700</v>
       </c>
       <c r="H58" s="3">
-        <v>13732600</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+        <v>15676100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>13824400</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -4578,70 +4711,73 @@
       <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>11395100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>11668700</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>5924000</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="3">
         <v>6213600</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z58" s="3">
         <v>5487700</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA58" s="3">
+      <c r="AA58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB58" s="3">
         <v>5463000</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC58" s="3">
+      <c r="AC58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD58" s="3">
         <v>4013300</v>
       </c>
-      <c r="AD58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11656400</v>
+        <v>10395400</v>
       </c>
       <c r="E59" s="3">
-        <v>11544400</v>
+        <v>11734300</v>
       </c>
       <c r="F59" s="3">
-        <v>11309600</v>
+        <v>11621600</v>
       </c>
       <c r="G59" s="3">
-        <v>8398700</v>
+        <v>11385200</v>
       </c>
       <c r="H59" s="3">
-        <v>8042300</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
+        <v>8454900</v>
+      </c>
+      <c r="I59" s="3">
+        <v>8096100</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -4664,70 +4800,73 @@
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>8227900</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>7018400</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>7701900</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3">
         <v>6037900</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z59" s="3">
         <v>6679200</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA59" s="3">
+      <c r="AA59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB59" s="3">
         <v>5213900</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC59" s="3">
+      <c r="AC59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD59" s="3">
         <v>6112000</v>
       </c>
-      <c r="AD59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>33968700</v>
+        <v>37173800</v>
       </c>
       <c r="E60" s="3">
-        <v>34389700</v>
+        <v>34195800</v>
       </c>
       <c r="F60" s="3">
-        <v>30141400</v>
+        <v>34619600</v>
       </c>
       <c r="G60" s="3">
-        <v>30067000</v>
+        <v>30342900</v>
       </c>
       <c r="H60" s="3">
-        <v>27265000</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
+        <v>30268100</v>
+      </c>
+      <c r="I60" s="3">
+        <v>27447200</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
@@ -4750,70 +4889,73 @@
       <c r="P60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>26410300</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>24760900</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>19911800</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X60" s="3">
         <v>17311100</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z60" s="3">
         <v>16817500</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA60" s="3">
+      <c r="AA60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB60" s="3">
         <v>14997600</v>
       </c>
-      <c r="AB60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC60" s="3">
+      <c r="AC60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD60" s="3">
         <v>15036500</v>
       </c>
-      <c r="AD60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>24936700</v>
+        <v>23657200</v>
       </c>
       <c r="E61" s="3">
-        <v>24910900</v>
+        <v>25103400</v>
       </c>
       <c r="F61" s="3">
-        <v>25901600</v>
+        <v>25077400</v>
       </c>
       <c r="G61" s="3">
-        <v>26001800</v>
+        <v>26074800</v>
       </c>
       <c r="H61" s="3">
-        <v>26631700</v>
+        <v>26175600</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>26809800</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4837,69 +4979,72 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>18064500</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>18501200</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>7103300</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>7347800</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>7905500</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
         <v>9213800</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
       <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
         <v>4615400</v>
       </c>
-      <c r="AD61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>25138100</v>
+        <v>25816800</v>
       </c>
       <c r="E62" s="3">
-        <v>25339500</v>
+        <v>25306100</v>
       </c>
       <c r="F62" s="3">
-        <v>26234400</v>
+        <v>25508900</v>
       </c>
       <c r="G62" s="3">
-        <v>25669000</v>
+        <v>26409800</v>
       </c>
       <c r="H62" s="3">
-        <v>21316200</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
+        <v>25840600</v>
+      </c>
+      <c r="I62" s="3">
+        <v>21458700</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -4922,50 +5067,53 @@
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>23400700</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>22068100</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>20706700</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3">
         <v>19544400</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y62" s="3">
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z62" s="3">
         <v>19458700</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA62" s="3">
+      <c r="AA62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB62" s="3">
         <v>17915900</v>
       </c>
-      <c r="AB62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC62" s="3">
+      <c r="AC62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD62" s="3">
         <v>17580200</v>
       </c>
-      <c r="AD62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5050,8 +5198,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5136,8 +5287,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5222,28 +5376,31 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>85651200</v>
+        <v>88525400</v>
       </c>
       <c r="E66" s="3">
-        <v>86749700</v>
+        <v>86223900</v>
       </c>
       <c r="F66" s="3">
-        <v>84205000</v>
+        <v>87329700</v>
       </c>
       <c r="G66" s="3">
-        <v>83277800</v>
+        <v>84767900</v>
       </c>
       <c r="H66" s="3">
-        <v>76738800</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
+        <v>83834500</v>
+      </c>
+      <c r="I66" s="3">
+        <v>77251900</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -5266,50 +5423,53 @@
       <c r="P66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>69952400</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>67344200</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>49690100</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X66" s="3">
         <v>45841500</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z66" s="3">
         <v>45761500</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA66" s="3">
+      <c r="AA66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB66" s="3">
         <v>43746400</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC66" s="3">
+      <c r="AC66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD66" s="3">
         <v>39004500</v>
       </c>
-      <c r="AD66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5340,8 +5500,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5426,8 +5587,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5512,8 +5676,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5598,8 +5765,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5684,28 +5854,31 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>55021000</v>
+        <v>60470000</v>
       </c>
       <c r="E72" s="3">
-        <v>49787200</v>
+        <v>55388800</v>
       </c>
       <c r="F72" s="3">
-        <v>46736400</v>
+        <v>50120100</v>
       </c>
       <c r="G72" s="3">
-        <v>41393900</v>
+        <v>47048900</v>
       </c>
       <c r="H72" s="3">
-        <v>38082400</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
+        <v>41670600</v>
+      </c>
+      <c r="I72" s="3">
+        <v>38337000</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -5728,50 +5901,53 @@
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>38341200</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>35396700</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>34086400</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>29060800</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z72" s="3">
         <v>28350400</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA72" s="3">
+      <c r="AA72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB72" s="3">
         <v>25598200</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC72" s="3">
+      <c r="AC72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD72" s="3">
         <v>25760400</v>
       </c>
-      <c r="AD72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5856,8 +6032,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5942,8 +6121,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6028,28 +6210,31 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>59349000</v>
+        <v>62571000</v>
       </c>
       <c r="E76" s="3">
-        <v>54657000</v>
+        <v>59745800</v>
       </c>
       <c r="F76" s="3">
-        <v>50742500</v>
+        <v>55022400</v>
       </c>
       <c r="G76" s="3">
-        <v>44361800</v>
+        <v>51081700</v>
       </c>
       <c r="H76" s="3">
-        <v>40289000</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
+        <v>44658400</v>
+      </c>
+      <c r="I76" s="3">
+        <v>40558300</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
@@ -6072,50 +6257,53 @@
       <c r="P76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>42710900</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>39618800</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>38199400</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X76" s="3">
         <v>32929000</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z76" s="3">
         <v>32502900</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA76" s="3">
+      <c r="AA76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB76" s="3">
         <v>30113100</v>
       </c>
-      <c r="AB76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC76" s="3">
+      <c r="AC76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD76" s="3">
         <v>30980400</v>
       </c>
-      <c r="AD76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6200,185 +6388,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
-        <v>8132700</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>7034300</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>7265800</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>9194300</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
+        <v>8187100</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>7081300</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
+        <v>7314400</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>5607400</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>4169100</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>569500</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>4556400</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81" s="3">
         <v>3844500</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V81" s="3">
         <v>3962700</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X81" s="3">
         <v>3298400</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Y81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z81" s="3">
         <v>3633000</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA81" s="3">
+      <c r="AA81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB81" s="3">
         <v>2386500</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC81" s="3">
+      <c r="AC81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD81" s="3">
         <v>2664500</v>
       </c>
-      <c r="AD81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6409,94 +6606,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3">
-        <v>6704800</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3">
-        <v>3237200</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3">
-        <v>6278300</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="D83" s="3">
+        <v>3337900</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3">
+        <v>6749600</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
+        <v>3258800</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
+        <v>6320300</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>6034300</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>3203400</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>2781000</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
         <v>1462100</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="3">
         <v>1170500</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z83" s="3">
         <v>1532600</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA83" s="3">
+      <c r="AA83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB83" s="3">
         <v>1133200</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC83" s="3">
+      <c r="AC83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD83" s="3">
         <v>1526000</v>
       </c>
-      <c r="AD83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6581,8 +6782,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6667,8 +6871,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6753,8 +6960,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6839,8 +7049,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6925,94 +7138,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3">
-        <v>19204400</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
-        <v>7824800</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3">
-        <v>20082000</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="D89" s="3">
+        <v>7317700</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3">
+        <v>19332800</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
+        <v>7877100</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
+        <v>20216300</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>10868700</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>8707700</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>4927900</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>6303700</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X89" s="3">
         <v>3470800</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="Y89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z89" s="3">
         <v>5345200</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA89" s="3">
+      <c r="AA89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB89" s="3">
         <v>2542400</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC89" s="3">
+      <c r="AC89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD89" s="3">
         <v>5407700</v>
       </c>
-      <c r="AD89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7043,94 +7262,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3603000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3313000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1769000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1523000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1141000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1268000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1197000</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1978800</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-2034800</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-1314000</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-1961200</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3">
         <v>-1038700</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-1257800</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA91" s="3">
+      <c r="AA91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-861700</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC91" s="3">
+      <c r="AC91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-1928600</v>
       </c>
-      <c r="AD91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7215,8 +7438,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7301,94 +7527,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-6375200</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-2201200</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-17207800</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="D94" s="3">
+        <v>-4439400</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-6417900</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-2215900</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-17322800</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-2931400</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-2896300</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-3985600</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-2602400</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3">
         <v>-1360400</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="Y94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-8053600</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA94" s="3">
+      <c r="AA94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-1603300</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC94" s="3">
+      <c r="AC94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD94" s="3">
         <v>-1367500</v>
       </c>
-      <c r="AD94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7419,31 +7651,32 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-4039400</v>
       </c>
       <c r="E96" s="3">
-        <v>-6841500</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-6887300</v>
       </c>
       <c r="G96" s="3">
-        <v>-4050200</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-4077300</v>
       </c>
       <c r="I96" s="3">
-        <v>-4481000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-4510900</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -7452,11 +7685,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-2427700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -7464,49 +7697,52 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1367000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-2837500</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-1190000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-1876500</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-902100</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-1465300</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-826400</v>
       </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7591,8 +7827,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7677,8 +7916,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7763,262 +8005,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-13660500</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-6282600</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-16321500</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="D100" s="3">
+        <v>-4349400</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-13751800</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-6324600</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-16430600</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>7383800</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-3917800</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>-1621100</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>-3320400</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X100" s="3">
         <v>-1664600</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Y100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA100" s="3">
+      <c r="AA100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB100" s="3">
         <v>4794300</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC100" s="3">
+      <c r="AC100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD100" s="3">
         <v>-3366500</v>
       </c>
-      <c r="AD100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3">
-        <v>59200</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3">
-        <v>316600</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3">
-        <v>536300</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="D101" s="3">
+        <v>-253700</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3">
+        <v>59600</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3">
+        <v>318700</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3">
+        <v>539900</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>-1049300</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>28000</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3">
         <v>17600</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V101" s="3">
         <v>45000</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="W101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X101" s="3">
         <v>31800</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y101" s="3">
+      <c r="Y101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-30300</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA101" s="3">
+      <c r="AA101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB101" s="3">
         <v>-97600</v>
       </c>
-      <c r="AB101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC101" s="3">
+      <c r="AC101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD101" s="3">
         <v>-1200</v>
       </c>
-      <c r="AD101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-772100</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-342500</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-12911000</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="D102" s="3">
+        <v>-1724800</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-777300</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-344700</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-12997300</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>14271800</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>1921600</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>-661100</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>425800</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X102" s="3">
         <v>477600</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Y102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-5270000</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AA102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB102" s="3">
         <v>5585300</v>
       </c>
-      <c r="AB102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC102" s="3">
+      <c r="AC102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD102" s="3">
         <v>672600</v>
       </c>
-      <c r="AD102" s="3" t="s">
+      <c r="AE102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVMUY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVMUY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="92">
   <si>
     <t>LVMUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,395 +665,409 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>45792400</v>
+        <v>21660900</v>
       </c>
       <c r="E8" s="3">
-        <v>22804000</v>
+        <v>45830400</v>
       </c>
       <c r="F8" s="3">
-        <v>46025500</v>
+        <v>22823000</v>
       </c>
       <c r="G8" s="3">
-        <v>21416400</v>
+        <v>46063700</v>
       </c>
       <c r="H8" s="3">
-        <v>39817900</v>
+        <v>21434200</v>
       </c>
       <c r="I8" s="3">
-        <v>19517100</v>
+        <v>39851000</v>
       </c>
       <c r="J8" s="3">
+        <v>19533300</v>
+      </c>
+      <c r="K8" s="3">
         <v>38539800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16704900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>30327600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14249300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>26189700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12408100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>20065100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11963900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>33373900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>16312000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>29506500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>14998000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>29662400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>12603400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>23881500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>12178100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>25718300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>11647400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>22118900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>11601900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>23959800</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>10726300</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>14009800</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>14711200</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>12378300</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>14021500</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>14723500</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>12388500</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>12191800</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>9635200</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>8845900</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>7638600</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>11295900</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>9937100</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3">
         <v>10048700</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X9" s="3">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="3">
         <v>7828700</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3">
         <v>8866000</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB9" s="3">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="3">
         <v>7720400</v>
       </c>
-      <c r="AC9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD9" s="3">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="3">
         <v>8359900</v>
       </c>
-      <c r="AE9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>31782600</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>31314200</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>27439700</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>31808900</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>31340200</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>27462400</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>26348000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>20692400</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>17343800</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>12426600</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>22078100</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>19569400</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3">
         <v>19613700</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X10" s="3">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="3">
         <v>16052800</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3">
         <v>16852300</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB10" s="3">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="3">
         <v>14398500</v>
       </c>
-      <c r="AC10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD10" s="3">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="3">
         <v>15599900</v>
       </c>
-      <c r="AE10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1085,8 +1099,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1174,8 +1189,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1263,97 +1281,103 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
         <v>8700</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>188600</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>117100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>188800</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>117200</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>94300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>32800</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>150600</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>136400</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>101600</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
         <v>48200</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="3">
         <v>62700</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="3">
         <v>80200</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="3">
         <v>150300</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB14" s="3">
+      <c r="AB14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC14" s="3">
         <v>111100</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD14" s="3">
+      <c r="AD14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="3">
         <v>159600</v>
       </c>
-      <c r="AE14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1432,8 +1456,8 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-      <c r="AC15" s="3" t="s">
-        <v>5</v>
+      <c r="AC15" s="3">
+        <v>0</v>
       </c>
       <c r="AD15" s="3" t="s">
         <v>5</v>
@@ -1441,8 +1465,11 @@
       <c r="AE15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1471,186 +1498,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>33255900</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>34237000</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>28839200</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>33283500</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>34265400</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>28863200</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>28179000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>22300500</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>19751500</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>18410200</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>26332100</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>23341000</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="3">
         <v>23394200</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="3">
         <v>18854900</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="3">
+      <c r="Z17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="3">
         <v>20593000</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB17" s="3">
+      <c r="AB17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC17" s="3">
         <v>18141500</v>
       </c>
-      <c r="AC17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD17" s="3">
+      <c r="AD17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE17" s="3">
         <v>19282200</v>
       </c>
-      <c r="AE17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>12536500</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>11788500</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>10978700</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>12546900</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>11798300</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>10987800</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>10360700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>8027000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>6438200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1654900</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>7041800</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>6165500</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="3">
         <v>6268200</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="3">
         <v>5026600</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="3">
         <v>5125300</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB18" s="3">
+      <c r="AB18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC18" s="3">
         <v>3977500</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD18" s="3">
+      <c r="AD18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE18" s="3">
         <v>4677600</v>
       </c>
-      <c r="AE18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1682,453 +1716,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>945300</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>174500</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-723100</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>946100</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>174700</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-723700</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>181000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>153400</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>4000</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-268400</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>-151800</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>20000</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="3">
         <v>-332400</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="3">
         <v>56000</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="3">
         <v>57200</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB20" s="3">
+      <c r="AB20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC20" s="3">
         <v>66200</v>
       </c>
-      <c r="AC20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD20" s="3">
+      <c r="AD20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE20" s="3">
         <v>-248800</v>
       </c>
-      <c r="AE20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>16819800</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="3">
-        <v>18712700</v>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3">
-        <v>13514400</v>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>16862100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>12476500</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>10093400</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>8966500</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>7397900</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3">
         <v>6253100</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="3">
         <v>6715100</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC21" s="3">
         <v>5176900</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD21" s="3">
+      <c r="AD21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE21" s="3">
         <v>5954700</v>
       </c>
-      <c r="AE21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>439100</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>272100</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>142000</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>439400</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>272300</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>142100</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>110600</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>140700</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>149600</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>235600</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>261500</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
         <v>261200</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="3">
         <v>100500</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X22" s="3">
+      <c r="X22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="3">
         <v>80200</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="3">
+      <c r="Z22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="3">
         <v>102100</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB22" s="3">
+      <c r="AB22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC22" s="3">
         <v>87500</v>
       </c>
-      <c r="AC22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD22" s="3">
+      <c r="AD22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE22" s="3">
         <v>63400</v>
       </c>
-      <c r="AE22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>13042800</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>11690900</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>10113600</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>13053600</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>11700600</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>10122000</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>10431200</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>8039700</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>6292600</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1150900</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>6628600</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>5924400</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="3">
         <v>5835200</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="X23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="3">
         <v>5002500</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z23" s="3">
+      <c r="Z23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="3">
         <v>5080400</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB23" s="3">
+      <c r="AB23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC23" s="3">
         <v>3956100</v>
       </c>
-      <c r="AC23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD23" s="3">
+      <c r="AD23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE23" s="3">
         <v>4365400</v>
       </c>
-      <c r="AE23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>3392100</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>3227400</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>2585600</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3395000</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>3230000</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2587700</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>2710300</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>2128700</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>1893100</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>557500</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>1752300</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>1683400</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="3">
         <v>1460900</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X24" s="3">
+      <c r="X24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="3">
         <v>1387900</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="3">
+      <c r="Z24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="3">
         <v>1154500</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB24" s="3">
+      <c r="AB24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC24" s="3">
         <v>1329600</v>
       </c>
-      <c r="AC24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD24" s="3">
+      <c r="AD24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="3">
         <v>1430900</v>
       </c>
-      <c r="AE24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2216,186 +2266,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>9650700</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>8463600</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>7528000</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>9658700</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>8470600</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>7534200</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>7721000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>5911000</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>4399500</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>593500</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>4876300</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
         <v>4240900</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W26" s="3">
         <v>4374400</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="3">
         <v>3614600</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z26" s="3">
+      <c r="Z26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA26" s="3">
         <v>3925800</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB26" s="3">
+      <c r="AB26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC26" s="3">
         <v>2626600</v>
       </c>
-      <c r="AC26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD26" s="3">
+      <c r="AD26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE26" s="3">
         <v>2934500</v>
       </c>
-      <c r="AE26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>9194300</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>8187100</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>7081300</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>9201900</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>8193900</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>7087200</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>7314400</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>5607400</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>4169100</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>569500</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>4556400</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="3">
         <v>3844500</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W27" s="3">
         <v>3962700</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="3">
         <v>3298400</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z27" s="3">
+      <c r="Z27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA27" s="3">
         <v>3633000</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB27" s="3">
+      <c r="AB27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC27" s="3">
         <v>2386500</v>
       </c>
-      <c r="AC27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD27" s="3">
+      <c r="AD27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE27" s="3">
         <v>2664500</v>
       </c>
-      <c r="AE27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2483,8 +2542,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2572,8 +2634,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2661,8 +2726,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2750,186 +2818,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-945300</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-174500</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
-        <v>723100</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-946100</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-174700</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>723700</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>-181000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>-153400</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>-4000</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>268400</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>151800</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>-20000</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W32" s="3">
         <v>332400</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-56000</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z32" s="3">
+      <c r="Z32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-57200</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB32" s="3">
+      <c r="AB32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-66200</v>
       </c>
-      <c r="AC32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD32" s="3">
+      <c r="AD32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE32" s="3">
         <v>248800</v>
       </c>
-      <c r="AE32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>9194300</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>8187100</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>7081300</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>9201900</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>8193900</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>7087200</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>7314400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>5607400</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>4169100</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>569500</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>4556400</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="3">
         <v>3844500</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" s="3">
         <v>3962700</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y33" s="3">
         <v>3298400</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z33" s="3">
+      <c r="Z33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA33" s="3">
         <v>3633000</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB33" s="3">
+      <c r="AB33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC33" s="3">
         <v>2386500</v>
       </c>
-      <c r="AC33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD33" s="3">
+      <c r="AD33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE33" s="3">
         <v>2664500</v>
       </c>
-      <c r="AE33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3017,191 +3094,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>9194300</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>8187100</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>7081300</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>9201900</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>8193900</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>7087200</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>7314400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>5607400</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>4169100</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>569500</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>4556400</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
         <v>3844500</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="3">
         <v>3962700</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="3">
         <v>3298400</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z35" s="3">
+      <c r="Z35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA35" s="3">
         <v>3633000</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB35" s="3">
+      <c r="AB35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC35" s="3">
         <v>2386500</v>
       </c>
-      <c r="AC35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD35" s="3">
+      <c r="AD35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE35" s="3">
         <v>2664500</v>
       </c>
-      <c r="AE35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3233,8 +3319,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3266,28 +3353,29 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6661800</v>
+        <v>6667300</v>
       </c>
       <c r="E41" s="3">
-        <v>7913900</v>
+        <v>7920500</v>
       </c>
       <c r="F41" s="3">
-        <v>8563300</v>
+        <v>8570400</v>
       </c>
       <c r="G41" s="3">
-        <v>8695600</v>
+        <v>8702800</v>
       </c>
       <c r="H41" s="3">
-        <v>7838000</v>
-      </c>
-      <c r="I41" s="3">
-        <v>21641900</v>
+        <v>7844600</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -3313,70 +3401,73 @@
       <c r="Q41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>6622700</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>4704400</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>5453200</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="3">
         <v>4635800</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z41" s="3">
+      <c r="Z41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA41" s="3">
         <v>4194000</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB41" s="3">
+      <c r="AB41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC41" s="3">
         <v>9479700</v>
       </c>
-      <c r="AC41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD41" s="3">
+      <c r="AD41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE41" s="3">
         <v>4160000</v>
       </c>
-      <c r="AE41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4578200</v>
+        <v>4582000</v>
       </c>
       <c r="E42" s="3">
-        <v>3850700</v>
+        <v>3853900</v>
       </c>
       <c r="F42" s="3">
-        <v>2708100</v>
+        <v>2710300</v>
       </c>
       <c r="G42" s="3">
-        <v>2758000</v>
+        <v>2760200</v>
       </c>
       <c r="H42" s="3">
-        <v>1592500</v>
-      </c>
-      <c r="I42" s="3">
-        <v>815200</v>
+        <v>1593900</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
@@ -3402,70 +3493,73 @@
       <c r="Q42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>855700</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>927000</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>787800</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="3">
         <v>799300</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z42" s="3">
+      <c r="Z42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA42" s="3">
         <v>577800</v>
       </c>
-      <c r="AA42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB42" s="3">
+      <c r="AB42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC42" s="3">
         <v>572200</v>
       </c>
-      <c r="AC42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD42" s="3">
+      <c r="AD42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE42" s="3">
         <v>439000</v>
       </c>
-      <c r="AE42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7686300</v>
+        <v>7692700</v>
       </c>
       <c r="E43" s="3">
-        <v>7708000</v>
+        <v>7714400</v>
       </c>
       <c r="F43" s="3">
-        <v>7197300</v>
+        <v>7203300</v>
       </c>
       <c r="G43" s="3">
-        <v>6626000</v>
+        <v>6631500</v>
       </c>
       <c r="H43" s="3">
-        <v>5233000</v>
-      </c>
-      <c r="I43" s="3">
-        <v>5071400</v>
+        <v>5237300</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
@@ -3491,70 +3585,73 @@
       <c r="Q43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>6420800</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>5759700</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3">
         <v>5939300</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y43" s="3">
         <v>4967400</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z43" s="3">
+      <c r="Z43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA43" s="3">
         <v>5413600</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB43" s="3">
+      <c r="AB43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC43" s="3">
         <v>4061600</v>
       </c>
-      <c r="AC43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD43" s="3">
+      <c r="AD43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE43" s="3">
         <v>4816100</v>
       </c>
-      <c r="AE43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>24541900</v>
+        <v>24562200</v>
       </c>
       <c r="E44" s="3">
-        <v>22027800</v>
+        <v>22046100</v>
       </c>
       <c r="F44" s="3">
-        <v>20511200</v>
+        <v>20528200</v>
       </c>
       <c r="G44" s="3">
-        <v>17940800</v>
+        <v>17955700</v>
       </c>
       <c r="H44" s="3">
-        <v>17163500</v>
-      </c>
-      <c r="I44" s="3">
-        <v>14110600</v>
+        <v>17177700</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
@@ -3580,70 +3677,73 @@
       <c r="Q44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>16013400</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>15953200</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="3">
         <v>14768500</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y44" s="3">
         <v>13047500</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z44" s="3">
+      <c r="Z44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA44" s="3">
         <v>12216200</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB44" s="3">
+      <c r="AB44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC44" s="3">
         <v>12190400</v>
       </c>
-      <c r="AC44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD44" s="3">
+      <c r="AD44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE44" s="3">
         <v>12379000</v>
       </c>
-      <c r="AE44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2066300</v>
+        <v>2068000</v>
       </c>
       <c r="E45" s="3">
-        <v>1581700</v>
+        <v>1583000</v>
       </c>
       <c r="F45" s="3">
-        <v>1447300</v>
+        <v>1448500</v>
       </c>
       <c r="G45" s="3">
-        <v>1165400</v>
+        <v>1166400</v>
       </c>
       <c r="H45" s="3">
-        <v>1167600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1695500</v>
+        <v>1168500</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
@@ -3669,70 +3769,73 @@
       <c r="Q45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>1035500</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
         <v>1014100</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
         <v>909700</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X45" s="3">
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y45" s="3">
         <v>888300</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z45" s="3">
+      <c r="Z45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA45" s="3">
         <v>1228600</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB45" s="3">
+      <c r="AB45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC45" s="3">
         <v>1173600</v>
       </c>
-      <c r="AC45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD45" s="3">
+      <c r="AD45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE45" s="3">
         <v>975400</v>
       </c>
-      <c r="AE45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>45534400</v>
+        <v>45572200</v>
       </c>
       <c r="E46" s="3">
-        <v>43082100</v>
+        <v>43117900</v>
       </c>
       <c r="F46" s="3">
-        <v>40427200</v>
+        <v>40460700</v>
       </c>
       <c r="G46" s="3">
-        <v>37185700</v>
+        <v>37216600</v>
       </c>
       <c r="H46" s="3">
-        <v>32994600</v>
-      </c>
-      <c r="I46" s="3">
-        <v>43334700</v>
+        <v>33022000</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
@@ -3758,70 +3861,73 @@
       <c r="Q46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>30948000</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>28358300</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="3">
         <v>27858500</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y46" s="3">
         <v>24338300</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z46" s="3">
+      <c r="Z46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA46" s="3">
         <v>23630200</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB46" s="3">
+      <c r="AB46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC46" s="3">
         <v>27477500</v>
       </c>
-      <c r="AC46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD46" s="3">
+      <c r="AD46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE46" s="3">
         <v>22769600</v>
       </c>
-      <c r="AE46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3624100</v>
+        <v>3627200</v>
       </c>
       <c r="E47" s="3">
-        <v>3439800</v>
+        <v>3442700</v>
       </c>
       <c r="F47" s="3">
-        <v>3717400</v>
+        <v>3720500</v>
       </c>
       <c r="G47" s="3">
-        <v>3623100</v>
+        <v>3626100</v>
       </c>
       <c r="H47" s="3">
-        <v>3018100</v>
-      </c>
-      <c r="I47" s="3">
-        <v>2621400</v>
+        <v>3020600</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -3847,70 +3953,73 @@
       <c r="Q47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>3162500</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>2750400</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="3">
         <v>2862600</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y47" s="3">
         <v>2390300</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z47" s="3">
+      <c r="Z47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA47" s="3">
         <v>2257400</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB47" s="3">
+      <c r="AB47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC47" s="3">
         <v>2228300</v>
       </c>
-      <c r="AC47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD47" s="3">
+      <c r="AD47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE47" s="3">
         <v>2461500</v>
       </c>
-      <c r="AE47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>42634400</v>
+        <v>42669800</v>
       </c>
       <c r="E48" s="3">
-        <v>40531200</v>
+        <v>40564900</v>
       </c>
       <c r="F48" s="3">
-        <v>38393400</v>
+        <v>38425300</v>
       </c>
       <c r="G48" s="3">
-        <v>36416000</v>
+        <v>36446200</v>
       </c>
       <c r="H48" s="3">
-        <v>71345700</v>
-      </c>
-      <c r="I48" s="3">
-        <v>32990200</v>
+        <v>71404900</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -3936,70 +4045,73 @@
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>35699400</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>32928600</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>17876000</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="3">
         <v>15549900</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z48" s="3">
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA48" s="3">
         <v>30370000</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB48" s="3">
+      <c r="AB48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC48" s="3">
         <v>27241900</v>
       </c>
-      <c r="AC48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD48" s="3">
+      <c r="AD48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE48" s="3">
         <v>14248900</v>
       </c>
-      <c r="AE48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>54972500</v>
+        <v>55018200</v>
       </c>
       <c r="E49" s="3">
-        <v>54743800</v>
+        <v>54789200</v>
       </c>
       <c r="F49" s="3">
-        <v>55573100</v>
+        <v>55619300</v>
       </c>
       <c r="G49" s="3">
-        <v>55031100</v>
+        <v>55076800</v>
       </c>
       <c r="H49" s="3">
-        <v>104935500</v>
-      </c>
-      <c r="I49" s="3">
-        <v>36173200</v>
+        <v>105022600</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -4025,50 +4137,53 @@
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>39234300</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>39610600</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>36647400</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y49" s="3">
         <v>34095100</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z49" s="3">
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA49" s="3">
         <v>68466100</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB49" s="3">
+      <c r="AB49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC49" s="3">
         <v>56139900</v>
       </c>
-      <c r="AC49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD49" s="3">
+      <c r="AD49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE49" s="3">
         <v>27861600</v>
       </c>
-      <c r="AE49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4156,8 +4271,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4245,28 +4363,31 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4331000</v>
+        <v>4334600</v>
       </c>
       <c r="E52" s="3">
-        <v>4172700</v>
+        <v>4176200</v>
       </c>
       <c r="F52" s="3">
-        <v>4241000</v>
+        <v>4244500</v>
       </c>
       <c r="G52" s="3">
-        <v>3593800</v>
+        <v>3596800</v>
       </c>
       <c r="H52" s="3">
-        <v>3292400</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2690700</v>
+        <v>3295100</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -4292,50 +4413,53 @@
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>3619000</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>3315100</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>2645000</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="3">
         <v>2396900</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z52" s="3">
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA52" s="3">
         <v>2273200</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB52" s="3">
+      <c r="AB52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC52" s="3">
         <v>2462800</v>
       </c>
-      <c r="AC52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD52" s="3">
+      <c r="AD52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE52" s="3">
         <v>2643400</v>
       </c>
-      <c r="AE52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4423,28 +4547,31 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>151096400</v>
+        <v>151221900</v>
       </c>
       <c r="E54" s="3">
-        <v>145969700</v>
+        <v>146090900</v>
       </c>
       <c r="F54" s="3">
-        <v>142352100</v>
+        <v>142470300</v>
       </c>
       <c r="G54" s="3">
-        <v>135849700</v>
+        <v>135962400</v>
       </c>
       <c r="H54" s="3">
-        <v>128493000</v>
-      </c>
-      <c r="I54" s="3">
-        <v>117810200</v>
+        <v>128599600</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
@@ -4470,50 +4597,53 @@
       <c r="Q54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>112663200</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>106963000</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="3">
         <v>87889500</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y54" s="3">
         <v>78770500</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z54" s="3">
+      <c r="Z54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA54" s="3">
         <v>78264400</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB54" s="3">
+      <c r="AB54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC54" s="3">
         <v>73859500</v>
       </c>
-      <c r="AC54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD54" s="3">
+      <c r="AD54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE54" s="3">
         <v>69984900</v>
       </c>
-      <c r="AE54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4545,8 +4675,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4578,28 +4709,29 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8915600</v>
+        <v>8923000</v>
       </c>
       <c r="E57" s="3">
-        <v>9527100</v>
+        <v>9535000</v>
       </c>
       <c r="F57" s="3">
-        <v>8205600</v>
+        <v>8212400</v>
       </c>
       <c r="G57" s="3">
-        <v>7681900</v>
+        <v>7688300</v>
       </c>
       <c r="H57" s="3">
-        <v>6137100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>5526700</v>
+        <v>6142200</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -4625,70 +4757,73 @@
       <c r="Q57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>6787300</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>6073800</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>6285900</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y57" s="3">
         <v>5059600</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z57" s="3">
+      <c r="Z57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA57" s="3">
         <v>5092700</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB57" s="3">
+      <c r="AB57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC57" s="3">
         <v>4320800</v>
       </c>
-      <c r="AC57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD57" s="3">
+      <c r="AD57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE57" s="3">
         <v>4911200</v>
       </c>
-      <c r="AE57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>17862700</v>
+        <v>17877500</v>
       </c>
       <c r="E58" s="3">
-        <v>12934400</v>
+        <v>12945100</v>
       </c>
       <c r="F58" s="3">
-        <v>14792500</v>
+        <v>14804800</v>
       </c>
       <c r="G58" s="3">
-        <v>11275700</v>
+        <v>11285100</v>
       </c>
       <c r="H58" s="3">
-        <v>15676100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>13824400</v>
+        <v>15689100</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -4714,70 +4849,73 @@
       <c r="Q58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>11395100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>11668700</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>5924000</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="3">
         <v>6213600</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z58" s="3">
+      <c r="Z58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA58" s="3">
         <v>5487700</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB58" s="3">
+      <c r="AB58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC58" s="3">
         <v>5463000</v>
       </c>
-      <c r="AC58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD58" s="3">
+      <c r="AD58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE58" s="3">
         <v>4013300</v>
       </c>
-      <c r="AE58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10395400</v>
+        <v>10404100</v>
       </c>
       <c r="E59" s="3">
-        <v>11734300</v>
+        <v>11744000</v>
       </c>
       <c r="F59" s="3">
-        <v>11621600</v>
+        <v>11631200</v>
       </c>
       <c r="G59" s="3">
-        <v>11385200</v>
+        <v>11394700</v>
       </c>
       <c r="H59" s="3">
-        <v>8454900</v>
-      </c>
-      <c r="I59" s="3">
-        <v>8096100</v>
+        <v>8461900</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -4803,70 +4941,73 @@
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>8227900</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>7018400</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>7701900</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="3">
         <v>6037900</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA59" s="3">
         <v>6679200</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB59" s="3">
+      <c r="AB59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC59" s="3">
         <v>5213900</v>
       </c>
-      <c r="AC59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD59" s="3">
+      <c r="AD59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE59" s="3">
         <v>6112000</v>
       </c>
-      <c r="AE59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>37173800</v>
+        <v>37204700</v>
       </c>
       <c r="E60" s="3">
-        <v>34195800</v>
+        <v>34224200</v>
       </c>
       <c r="F60" s="3">
-        <v>34619600</v>
+        <v>34648400</v>
       </c>
       <c r="G60" s="3">
-        <v>30342900</v>
+        <v>30368100</v>
       </c>
       <c r="H60" s="3">
-        <v>30268100</v>
-      </c>
-      <c r="I60" s="3">
-        <v>27447200</v>
+        <v>30293200</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
@@ -4892,70 +5033,73 @@
       <c r="Q60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>26410300</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>24760900</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="3">
         <v>19911800</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y60" s="3">
         <v>17311100</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z60" s="3">
+      <c r="Z60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA60" s="3">
         <v>16817500</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB60" s="3">
+      <c r="AB60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC60" s="3">
         <v>14997600</v>
       </c>
-      <c r="AC60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD60" s="3">
+      <c r="AD60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE60" s="3">
         <v>15036500</v>
       </c>
-      <c r="AE60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>23657200</v>
+        <v>23676900</v>
       </c>
       <c r="E61" s="3">
-        <v>25103400</v>
+        <v>25124300</v>
       </c>
       <c r="F61" s="3">
-        <v>25077400</v>
+        <v>25098200</v>
       </c>
       <c r="G61" s="3">
-        <v>26074800</v>
+        <v>26096400</v>
       </c>
       <c r="H61" s="3">
-        <v>26175600</v>
+        <v>26197300</v>
       </c>
       <c r="I61" s="3">
-        <v>26809800</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4982,69 +5126,72 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>18064500</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>18501200</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>7103300</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>7347800</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>7905500</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
         <v>9213800</v>
       </c>
-      <c r="AC61" s="3">
-        <v>0</v>
-      </c>
       <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
         <v>4615400</v>
       </c>
-      <c r="AE61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>25816800</v>
+        <v>25838200</v>
       </c>
       <c r="E62" s="3">
-        <v>25306100</v>
+        <v>25327200</v>
       </c>
       <c r="F62" s="3">
-        <v>25508900</v>
+        <v>25530100</v>
       </c>
       <c r="G62" s="3">
-        <v>26409800</v>
+        <v>26431700</v>
       </c>
       <c r="H62" s="3">
-        <v>25840600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>21458700</v>
+        <v>25862100</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -5070,50 +5217,53 @@
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>23400700</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>22068100</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
         <v>20706700</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y62" s="3">
         <v>19544400</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z62" s="3">
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA62" s="3">
         <v>19458700</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB62" s="3">
+      <c r="AB62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC62" s="3">
         <v>17915900</v>
       </c>
-      <c r="AC62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD62" s="3">
+      <c r="AD62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE62" s="3">
         <v>17580200</v>
       </c>
-      <c r="AE62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5201,8 +5351,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5290,8 +5443,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5379,28 +5535,31 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>88525400</v>
+        <v>88598900</v>
       </c>
       <c r="E66" s="3">
-        <v>86223900</v>
+        <v>86295500</v>
       </c>
       <c r="F66" s="3">
-        <v>87329700</v>
+        <v>87402200</v>
       </c>
       <c r="G66" s="3">
-        <v>84767900</v>
+        <v>84838300</v>
       </c>
       <c r="H66" s="3">
-        <v>83834500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>77251900</v>
+        <v>83904100</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -5426,50 +5585,53 @@
       <c r="Q66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>69952400</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>67344200</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>49690100</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y66" s="3">
         <v>45841500</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z66" s="3">
+      <c r="Z66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA66" s="3">
         <v>45761500</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB66" s="3">
+      <c r="AB66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC66" s="3">
         <v>43746400</v>
       </c>
-      <c r="AC66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD66" s="3">
+      <c r="AD66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE66" s="3">
         <v>39004500</v>
       </c>
-      <c r="AE66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5501,8 +5663,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5590,8 +5753,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5679,8 +5845,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5768,8 +5937,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5857,28 +6029,31 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>60470000</v>
+        <v>60520200</v>
       </c>
       <c r="E72" s="3">
-        <v>55388800</v>
+        <v>55434800</v>
       </c>
       <c r="F72" s="3">
-        <v>50120100</v>
+        <v>50161700</v>
       </c>
       <c r="G72" s="3">
-        <v>47048900</v>
+        <v>47087900</v>
       </c>
       <c r="H72" s="3">
-        <v>41670600</v>
-      </c>
-      <c r="I72" s="3">
-        <v>38337000</v>
+        <v>41705200</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -5904,50 +6079,53 @@
       <c r="Q72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>38341200</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>35396700</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>34086400</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3">
         <v>29060800</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA72" s="3">
         <v>28350400</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB72" s="3">
+      <c r="AB72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC72" s="3">
         <v>25598200</v>
       </c>
-      <c r="AC72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD72" s="3">
+      <c r="AD72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE72" s="3">
         <v>25760400</v>
       </c>
-      <c r="AE72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6035,8 +6213,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6124,8 +6305,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6213,28 +6397,31 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>62571000</v>
+        <v>62622900</v>
       </c>
       <c r="E76" s="3">
-        <v>59745800</v>
+        <v>59795400</v>
       </c>
       <c r="F76" s="3">
-        <v>55022400</v>
+        <v>55068100</v>
       </c>
       <c r="G76" s="3">
-        <v>51081700</v>
+        <v>51124100</v>
       </c>
       <c r="H76" s="3">
-        <v>44658400</v>
-      </c>
-      <c r="I76" s="3">
-        <v>40558300</v>
+        <v>44695500</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
@@ -6260,50 +6447,53 @@
       <c r="Q76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>42710900</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>39618800</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W76" s="3">
         <v>38199400</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y76" s="3">
         <v>32929000</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z76" s="3">
+      <c r="Z76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA76" s="3">
         <v>32502900</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB76" s="3">
+      <c r="AB76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC76" s="3">
         <v>30113100</v>
       </c>
-      <c r="AC76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD76" s="3">
+      <c r="AD76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE76" s="3">
         <v>30980400</v>
       </c>
-      <c r="AE76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6391,191 +6581,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>9194300</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>8187100</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>7081300</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>9201900</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
+        <v>8193900</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
+        <v>7087200</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>7314400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>5607400</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>4169100</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>569500</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>4556400</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="3">
         <v>3844500</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W81" s="3">
         <v>3962700</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y81" s="3">
         <v>3298400</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z81" s="3">
+      <c r="Z81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA81" s="3">
         <v>3633000</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB81" s="3">
+      <c r="AB81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC81" s="3">
         <v>2386500</v>
       </c>
-      <c r="AC81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD81" s="3">
+      <c r="AD81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE81" s="3">
         <v>2664500</v>
       </c>
-      <c r="AE81" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6607,97 +6806,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>3337900</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F83" s="3">
-        <v>6749600</v>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H83" s="3">
-        <v>3258800</v>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>6320300</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>6034300</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>3203400</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>2781000</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3">
         <v>1462100</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y83" s="3">
         <v>1170500</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z83" s="3">
+      <c r="Z83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA83" s="3">
         <v>1532600</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB83" s="3">
+      <c r="AB83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC83" s="3">
         <v>1133200</v>
       </c>
-      <c r="AC83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD83" s="3">
+      <c r="AD83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE83" s="3">
         <v>1526000</v>
       </c>
-      <c r="AE83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6785,8 +6988,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6874,8 +7080,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6963,8 +7172,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7052,8 +7264,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7141,97 +7356,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>7317700</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F89" s="3">
-        <v>19332800</v>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="3">
-        <v>7877100</v>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>20216300</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>10868700</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>8707700</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>4927900</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>6303700</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y89" s="3">
         <v>3470800</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z89" s="3">
+      <c r="Z89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA89" s="3">
         <v>5345200</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB89" s="3">
+      <c r="AB89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC89" s="3">
         <v>2542400</v>
       </c>
-      <c r="AC89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD89" s="3">
+      <c r="AD89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE89" s="3">
         <v>5407700</v>
       </c>
-      <c r="AE89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7263,8 +7484,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7287,73 +7509,76 @@
         <v>-1268000</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1197000</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1978800</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-2034800</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-1314000</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-1961200</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-1038700</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z91" s="3">
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-1257800</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB91" s="3">
+      <c r="AB91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-861700</v>
       </c>
-      <c r="AC91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD91" s="3">
+      <c r="AD91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE91" s="3">
         <v>-1928600</v>
       </c>
-      <c r="AE91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7441,8 +7666,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7530,97 +7758,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-4439400</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="3">
-        <v>-6417900</v>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H94" s="3">
-        <v>-2215900</v>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-17322800</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-2931400</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-2896300</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-3985600</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>-2602400</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-1360400</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z94" s="3">
+      <c r="Z94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-8053600</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB94" s="3">
+      <c r="AB94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-1603300</v>
       </c>
-      <c r="AC94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD94" s="3">
+      <c r="AD94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE94" s="3">
         <v>-1367500</v>
       </c>
-      <c r="AE94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7652,35 +7886,36 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4039400</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-6887300</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-4077300</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-4510900</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -7688,11 +7923,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-2427700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -7700,49 +7935,52 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1367000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-2837500</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-1190000</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-1876500</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-902100</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-1465300</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-826400</v>
       </c>
-      <c r="AE96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7830,8 +8068,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7919,8 +8160,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8008,271 +8252,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-4349400</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F100" s="3">
-        <v>-13751800</v>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H100" s="3">
-        <v>-6324600</v>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-16430600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>7383800</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-3917800</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>-1621100</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>-3320400</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-1664600</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="Z100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB100" s="3">
+      <c r="AB100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC100" s="3">
         <v>4794300</v>
       </c>
-      <c r="AC100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD100" s="3">
+      <c r="AD100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE100" s="3">
         <v>-3366500</v>
       </c>
-      <c r="AE100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-253700</v>
+      <c r="D101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F101" s="3">
-        <v>59600</v>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H101" s="3">
-        <v>318700</v>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>539900</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>-1049300</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>28000</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
         <v>17600</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W101" s="3">
         <v>45000</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="X101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y101" s="3">
         <v>31800</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z101" s="3">
+      <c r="Z101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA101" s="3">
         <v>-30300</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB101" s="3">
+      <c r="AB101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC101" s="3">
         <v>-97600</v>
       </c>
-      <c r="AC101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD101" s="3">
+      <c r="AD101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE101" s="3">
         <v>-1200</v>
       </c>
-      <c r="AE101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-1724800</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F102" s="3">
-        <v>-777300</v>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H102" s="3">
-        <v>-344700</v>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>-12997300</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>14271800</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>1921600</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>-661100</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>425800</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y102" s="3">
         <v>477600</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z102" s="3">
+      <c r="Z102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-5270000</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB102" s="3">
+      <c r="AB102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC102" s="3">
         <v>5585300</v>
       </c>
-      <c r="AC102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD102" s="3">
+      <c r="AD102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE102" s="3">
         <v>672600</v>
       </c>
-      <c r="AE102" s="3" t="s">
+      <c r="AF102" s="3" t="s">
         <v>5</v>
       </c>
     </row>
